--- a/doc/plan/RFID_CM_V1.0.xlsx
+++ b/doc/plan/RFID_CM_V1.0.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Normal_User\Desktop\RFID\RFID\doc\plan\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18270" windowHeight="9090" activeTab="2"/>
+    <workbookView windowWidth="19095" windowHeight="8850" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Record of change" sheetId="1" r:id="rId1"/>
@@ -32,12 +27,12 @@
     <definedName name="Thông_tin_về_SVN">SVN!$B$5</definedName>
     <definedName name="Ý_nghĩa_các_thư_mục">SVN!$B$9</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86">
   <si>
     <r>
       <rPr>
@@ -119,55 +114,111 @@
     <t>Quy tắc đặt tên file</t>
   </si>
   <si>
+    <t>1)</t>
+  </si>
+  <si>
+    <t>Chủ đề mail phản hồi:</t>
+  </si>
+  <si>
+    <t>Định dạng:</t>
+  </si>
+  <si>
+    <t>Bói - &lt;Mô tả vấn đề&gt;</t>
+  </si>
+  <si>
+    <t>GIải thích:</t>
+  </si>
+  <si>
+    <t>Ghi ngắn gọn vấn đề của bạn sau từ Bói và một dấu gạch ngang</t>
+  </si>
+  <si>
+    <t>Ví dụ:</t>
+  </si>
+  <si>
+    <t>Bói - Không xem được quẻ</t>
+  </si>
+  <si>
+    <t>2)</t>
+  </si>
+  <si>
+    <t>Quy tắc đặt tên file:</t>
+  </si>
+  <si>
+    <t>RFID_[tên tài liệu]_Vx.x</t>
+  </si>
+  <si>
+    <t>Giải thích:</t>
+  </si>
+  <si>
+    <t>Tên tài liệu VD: SRS, UseCase, ... (Viết dạng Lạc Đà)</t>
+  </si>
+  <si>
+    <t>Phiên bản tài liệu: bắt đầu từ 1.0</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>RFID</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SRS</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>V1.0</t>
+    </r>
+  </si>
+  <si>
+    <t>3)</t>
+  </si>
+  <si>
     <t>Cú pháp lỗi</t>
   </si>
   <si>
-    <t>1)</t>
-  </si>
-  <si>
-    <t>Chủ đề mail phản hồi:</t>
-  </si>
-  <si>
-    <t>Định dạng:</t>
-  </si>
-  <si>
-    <t>Bói - &lt;Mô tả vấn đề&gt;</t>
-  </si>
-  <si>
-    <t>GIải thích:</t>
-  </si>
-  <si>
-    <t>Ghi ngắn gọn vấn đề của bạn sau từ Bói và một dấu gạch ngang</t>
-  </si>
-  <si>
-    <t>Ví dụ:</t>
-  </si>
-  <si>
-    <t>Bói - Không xem được quẻ</t>
-  </si>
-  <si>
-    <t>2)</t>
-  </si>
-  <si>
-    <t>Quy tắc đặt tên file:</t>
-  </si>
-  <si>
-    <t>Giải thích:</t>
-  </si>
-  <si>
-    <t>Tên tài liệu VD: SRS, UseCase, ... (Viết dạng Lạc Đà)</t>
-  </si>
-  <si>
-    <t>Phiên bản tài liệu: bắt đầu từ 1.0</t>
-  </si>
-  <si>
-    <t>3)</t>
-  </si>
-  <si>
     <t>Format:</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
       <t>[Tên quy trình]_[Loại tài liệu]</t>
     </r>
     <r>
@@ -255,6 +306,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
       <t>KM</t>
     </r>
     <r>
@@ -285,6 +341,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
       <t>KM</t>
     </r>
     <r>
@@ -328,6 +389,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
       <t>KM</t>
     </r>
     <r>
@@ -377,6 +443,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
       <t>KM</t>
     </r>
     <r>
@@ -420,6 +491,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
       <t>KM</t>
     </r>
     <r>
@@ -469,6 +545,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
       <t>KM</t>
     </r>
     <r>
@@ -512,6 +593,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
       <t>KM</t>
     </r>
     <r>
@@ -561,6 +647,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
       <t>KM</t>
     </r>
     <r>
@@ -604,6 +695,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
       <t>KM</t>
     </r>
     <r>
@@ -653,6 +749,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
       <t>KM</t>
     </r>
     <r>
@@ -696,6 +797,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
       <t>KM</t>
     </r>
     <r>
@@ -745,6 +851,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
       <t>KM</t>
     </r>
     <r>
@@ -788,6 +899,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
       <t>KM</t>
     </r>
     <r>
@@ -821,6 +937,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
       <t>KM</t>
     </r>
     <r>
@@ -864,6 +985,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
       <t>KM</t>
     </r>
     <r>
@@ -894,6 +1020,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
       <t>KM</t>
     </r>
     <r>
@@ -918,6 +1049,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
       <t>KM</t>
     </r>
     <r>
@@ -938,100 +1074,21 @@
         <charset val="134"/>
       </rPr>
       <t>V1.1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>RFID_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>[tên tài liệu]</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Vx.x</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>RFID</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>SRS</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>V1.0</t>
     </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,#00"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="#,#00"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1041,13 +1098,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1071,12 +1121,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1092,14 +1140,152 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Microsoft YaHei"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1110,13 +1296,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1125,7 +1311,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79995117038483843"/>
+        <fgColor theme="9" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1137,12 +1329,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1227,6 +1599,15 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -1245,15 +1626,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1286,17 +1658,259 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1304,68 +1918,104 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="46" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="5" fillId="0" borderId="12" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="12" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_KYUDEN-PIMS_EstimateWBS_v0.4" xfId="1"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Normal_KYUDEN-PIMS_EstimateWBS_v0.4" xfId="46"/>
+    <cellStyle name="Accent6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="48" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="49" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
-      <color rgb="FF0000CC"/>
+      <color rgb="000000CC"/>
     </mruColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1650,779 +2300,781 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A2:E23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="12.75" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" style="26" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" style="26" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="26" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" style="26" customWidth="1"/>
-    <col min="5" max="5" width="6" style="26" customWidth="1"/>
-    <col min="6" max="253" width="9.140625" style="26"/>
-    <col min="254" max="254" width="21.28515625" style="26" customWidth="1"/>
-    <col min="255" max="255" width="41.5703125" style="26" customWidth="1"/>
-    <col min="256" max="256" width="9.140625" style="26"/>
-    <col min="257" max="257" width="21.28515625" style="26" customWidth="1"/>
-    <col min="258" max="258" width="41.5703125" style="26" customWidth="1"/>
-    <col min="259" max="259" width="9.140625" style="26"/>
-    <col min="260" max="260" width="39.140625" style="26" customWidth="1"/>
-    <col min="261" max="261" width="11.42578125" style="26" customWidth="1"/>
-    <col min="262" max="509" width="9.140625" style="26"/>
-    <col min="510" max="510" width="21.28515625" style="26" customWidth="1"/>
-    <col min="511" max="511" width="41.5703125" style="26" customWidth="1"/>
-    <col min="512" max="512" width="9.140625" style="26"/>
-    <col min="513" max="513" width="21.28515625" style="26" customWidth="1"/>
-    <col min="514" max="514" width="41.5703125" style="26" customWidth="1"/>
-    <col min="515" max="515" width="9.140625" style="26"/>
-    <col min="516" max="516" width="39.140625" style="26" customWidth="1"/>
-    <col min="517" max="517" width="11.42578125" style="26" customWidth="1"/>
-    <col min="518" max="765" width="9.140625" style="26"/>
-    <col min="766" max="766" width="21.28515625" style="26" customWidth="1"/>
-    <col min="767" max="767" width="41.5703125" style="26" customWidth="1"/>
-    <col min="768" max="768" width="9.140625" style="26"/>
-    <col min="769" max="769" width="21.28515625" style="26" customWidth="1"/>
-    <col min="770" max="770" width="41.5703125" style="26" customWidth="1"/>
-    <col min="771" max="771" width="9.140625" style="26"/>
-    <col min="772" max="772" width="39.140625" style="26" customWidth="1"/>
-    <col min="773" max="773" width="11.42578125" style="26" customWidth="1"/>
-    <col min="774" max="1021" width="9.140625" style="26"/>
-    <col min="1022" max="1022" width="21.28515625" style="26" customWidth="1"/>
-    <col min="1023" max="1023" width="41.5703125" style="26" customWidth="1"/>
-    <col min="1024" max="1024" width="9.140625" style="26"/>
-    <col min="1025" max="1025" width="21.28515625" style="26" customWidth="1"/>
-    <col min="1026" max="1026" width="41.5703125" style="26" customWidth="1"/>
-    <col min="1027" max="1027" width="9.140625" style="26"/>
-    <col min="1028" max="1028" width="39.140625" style="26" customWidth="1"/>
-    <col min="1029" max="1029" width="11.42578125" style="26" customWidth="1"/>
-    <col min="1030" max="1277" width="9.140625" style="26"/>
-    <col min="1278" max="1278" width="21.28515625" style="26" customWidth="1"/>
-    <col min="1279" max="1279" width="41.5703125" style="26" customWidth="1"/>
-    <col min="1280" max="1280" width="9.140625" style="26"/>
-    <col min="1281" max="1281" width="21.28515625" style="26" customWidth="1"/>
-    <col min="1282" max="1282" width="41.5703125" style="26" customWidth="1"/>
-    <col min="1283" max="1283" width="9.140625" style="26"/>
-    <col min="1284" max="1284" width="39.140625" style="26" customWidth="1"/>
-    <col min="1285" max="1285" width="11.42578125" style="26" customWidth="1"/>
-    <col min="1286" max="1533" width="9.140625" style="26"/>
-    <col min="1534" max="1534" width="21.28515625" style="26" customWidth="1"/>
-    <col min="1535" max="1535" width="41.5703125" style="26" customWidth="1"/>
-    <col min="1536" max="1536" width="9.140625" style="26"/>
-    <col min="1537" max="1537" width="21.28515625" style="26" customWidth="1"/>
-    <col min="1538" max="1538" width="41.5703125" style="26" customWidth="1"/>
-    <col min="1539" max="1539" width="9.140625" style="26"/>
-    <col min="1540" max="1540" width="39.140625" style="26" customWidth="1"/>
-    <col min="1541" max="1541" width="11.42578125" style="26" customWidth="1"/>
-    <col min="1542" max="1789" width="9.140625" style="26"/>
-    <col min="1790" max="1790" width="21.28515625" style="26" customWidth="1"/>
-    <col min="1791" max="1791" width="41.5703125" style="26" customWidth="1"/>
-    <col min="1792" max="1792" width="9.140625" style="26"/>
-    <col min="1793" max="1793" width="21.28515625" style="26" customWidth="1"/>
-    <col min="1794" max="1794" width="41.5703125" style="26" customWidth="1"/>
-    <col min="1795" max="1795" width="9.140625" style="26"/>
-    <col min="1796" max="1796" width="39.140625" style="26" customWidth="1"/>
-    <col min="1797" max="1797" width="11.42578125" style="26" customWidth="1"/>
-    <col min="1798" max="2045" width="9.140625" style="26"/>
-    <col min="2046" max="2046" width="21.28515625" style="26" customWidth="1"/>
-    <col min="2047" max="2047" width="41.5703125" style="26" customWidth="1"/>
-    <col min="2048" max="2048" width="9.140625" style="26"/>
-    <col min="2049" max="2049" width="21.28515625" style="26" customWidth="1"/>
-    <col min="2050" max="2050" width="41.5703125" style="26" customWidth="1"/>
-    <col min="2051" max="2051" width="9.140625" style="26"/>
-    <col min="2052" max="2052" width="39.140625" style="26" customWidth="1"/>
-    <col min="2053" max="2053" width="11.42578125" style="26" customWidth="1"/>
-    <col min="2054" max="2301" width="9.140625" style="26"/>
-    <col min="2302" max="2302" width="21.28515625" style="26" customWidth="1"/>
-    <col min="2303" max="2303" width="41.5703125" style="26" customWidth="1"/>
-    <col min="2304" max="2304" width="9.140625" style="26"/>
-    <col min="2305" max="2305" width="21.28515625" style="26" customWidth="1"/>
-    <col min="2306" max="2306" width="41.5703125" style="26" customWidth="1"/>
-    <col min="2307" max="2307" width="9.140625" style="26"/>
-    <col min="2308" max="2308" width="39.140625" style="26" customWidth="1"/>
-    <col min="2309" max="2309" width="11.42578125" style="26" customWidth="1"/>
-    <col min="2310" max="2557" width="9.140625" style="26"/>
-    <col min="2558" max="2558" width="21.28515625" style="26" customWidth="1"/>
-    <col min="2559" max="2559" width="41.5703125" style="26" customWidth="1"/>
-    <col min="2560" max="2560" width="9.140625" style="26"/>
-    <col min="2561" max="2561" width="21.28515625" style="26" customWidth="1"/>
-    <col min="2562" max="2562" width="41.5703125" style="26" customWidth="1"/>
-    <col min="2563" max="2563" width="9.140625" style="26"/>
-    <col min="2564" max="2564" width="39.140625" style="26" customWidth="1"/>
-    <col min="2565" max="2565" width="11.42578125" style="26" customWidth="1"/>
-    <col min="2566" max="2813" width="9.140625" style="26"/>
-    <col min="2814" max="2814" width="21.28515625" style="26" customWidth="1"/>
-    <col min="2815" max="2815" width="41.5703125" style="26" customWidth="1"/>
-    <col min="2816" max="2816" width="9.140625" style="26"/>
-    <col min="2817" max="2817" width="21.28515625" style="26" customWidth="1"/>
-    <col min="2818" max="2818" width="41.5703125" style="26" customWidth="1"/>
-    <col min="2819" max="2819" width="9.140625" style="26"/>
-    <col min="2820" max="2820" width="39.140625" style="26" customWidth="1"/>
-    <col min="2821" max="2821" width="11.42578125" style="26" customWidth="1"/>
-    <col min="2822" max="3069" width="9.140625" style="26"/>
-    <col min="3070" max="3070" width="21.28515625" style="26" customWidth="1"/>
-    <col min="3071" max="3071" width="41.5703125" style="26" customWidth="1"/>
-    <col min="3072" max="3072" width="9.140625" style="26"/>
-    <col min="3073" max="3073" width="21.28515625" style="26" customWidth="1"/>
-    <col min="3074" max="3074" width="41.5703125" style="26" customWidth="1"/>
-    <col min="3075" max="3075" width="9.140625" style="26"/>
-    <col min="3076" max="3076" width="39.140625" style="26" customWidth="1"/>
-    <col min="3077" max="3077" width="11.42578125" style="26" customWidth="1"/>
-    <col min="3078" max="3325" width="9.140625" style="26"/>
-    <col min="3326" max="3326" width="21.28515625" style="26" customWidth="1"/>
-    <col min="3327" max="3327" width="41.5703125" style="26" customWidth="1"/>
-    <col min="3328" max="3328" width="9.140625" style="26"/>
-    <col min="3329" max="3329" width="21.28515625" style="26" customWidth="1"/>
-    <col min="3330" max="3330" width="41.5703125" style="26" customWidth="1"/>
-    <col min="3331" max="3331" width="9.140625" style="26"/>
-    <col min="3332" max="3332" width="39.140625" style="26" customWidth="1"/>
-    <col min="3333" max="3333" width="11.42578125" style="26" customWidth="1"/>
-    <col min="3334" max="3581" width="9.140625" style="26"/>
-    <col min="3582" max="3582" width="21.28515625" style="26" customWidth="1"/>
-    <col min="3583" max="3583" width="41.5703125" style="26" customWidth="1"/>
-    <col min="3584" max="3584" width="9.140625" style="26"/>
-    <col min="3585" max="3585" width="21.28515625" style="26" customWidth="1"/>
-    <col min="3586" max="3586" width="41.5703125" style="26" customWidth="1"/>
-    <col min="3587" max="3587" width="9.140625" style="26"/>
-    <col min="3588" max="3588" width="39.140625" style="26" customWidth="1"/>
-    <col min="3589" max="3589" width="11.42578125" style="26" customWidth="1"/>
-    <col min="3590" max="3837" width="9.140625" style="26"/>
-    <col min="3838" max="3838" width="21.28515625" style="26" customWidth="1"/>
-    <col min="3839" max="3839" width="41.5703125" style="26" customWidth="1"/>
-    <col min="3840" max="3840" width="9.140625" style="26"/>
-    <col min="3841" max="3841" width="21.28515625" style="26" customWidth="1"/>
-    <col min="3842" max="3842" width="41.5703125" style="26" customWidth="1"/>
-    <col min="3843" max="3843" width="9.140625" style="26"/>
-    <col min="3844" max="3844" width="39.140625" style="26" customWidth="1"/>
-    <col min="3845" max="3845" width="11.42578125" style="26" customWidth="1"/>
-    <col min="3846" max="4093" width="9.140625" style="26"/>
-    <col min="4094" max="4094" width="21.28515625" style="26" customWidth="1"/>
-    <col min="4095" max="4095" width="41.5703125" style="26" customWidth="1"/>
-    <col min="4096" max="4096" width="9.140625" style="26"/>
-    <col min="4097" max="4097" width="21.28515625" style="26" customWidth="1"/>
-    <col min="4098" max="4098" width="41.5703125" style="26" customWidth="1"/>
-    <col min="4099" max="4099" width="9.140625" style="26"/>
-    <col min="4100" max="4100" width="39.140625" style="26" customWidth="1"/>
-    <col min="4101" max="4101" width="11.42578125" style="26" customWidth="1"/>
-    <col min="4102" max="4349" width="9.140625" style="26"/>
-    <col min="4350" max="4350" width="21.28515625" style="26" customWidth="1"/>
-    <col min="4351" max="4351" width="41.5703125" style="26" customWidth="1"/>
-    <col min="4352" max="4352" width="9.140625" style="26"/>
-    <col min="4353" max="4353" width="21.28515625" style="26" customWidth="1"/>
-    <col min="4354" max="4354" width="41.5703125" style="26" customWidth="1"/>
-    <col min="4355" max="4355" width="9.140625" style="26"/>
-    <col min="4356" max="4356" width="39.140625" style="26" customWidth="1"/>
-    <col min="4357" max="4357" width="11.42578125" style="26" customWidth="1"/>
-    <col min="4358" max="4605" width="9.140625" style="26"/>
-    <col min="4606" max="4606" width="21.28515625" style="26" customWidth="1"/>
-    <col min="4607" max="4607" width="41.5703125" style="26" customWidth="1"/>
-    <col min="4608" max="4608" width="9.140625" style="26"/>
-    <col min="4609" max="4609" width="21.28515625" style="26" customWidth="1"/>
-    <col min="4610" max="4610" width="41.5703125" style="26" customWidth="1"/>
-    <col min="4611" max="4611" width="9.140625" style="26"/>
-    <col min="4612" max="4612" width="39.140625" style="26" customWidth="1"/>
-    <col min="4613" max="4613" width="11.42578125" style="26" customWidth="1"/>
-    <col min="4614" max="4861" width="9.140625" style="26"/>
-    <col min="4862" max="4862" width="21.28515625" style="26" customWidth="1"/>
-    <col min="4863" max="4863" width="41.5703125" style="26" customWidth="1"/>
-    <col min="4864" max="4864" width="9.140625" style="26"/>
-    <col min="4865" max="4865" width="21.28515625" style="26" customWidth="1"/>
-    <col min="4866" max="4866" width="41.5703125" style="26" customWidth="1"/>
-    <col min="4867" max="4867" width="9.140625" style="26"/>
-    <col min="4868" max="4868" width="39.140625" style="26" customWidth="1"/>
-    <col min="4869" max="4869" width="11.42578125" style="26" customWidth="1"/>
-    <col min="4870" max="5117" width="9.140625" style="26"/>
-    <col min="5118" max="5118" width="21.28515625" style="26" customWidth="1"/>
-    <col min="5119" max="5119" width="41.5703125" style="26" customWidth="1"/>
-    <col min="5120" max="5120" width="9.140625" style="26"/>
-    <col min="5121" max="5121" width="21.28515625" style="26" customWidth="1"/>
-    <col min="5122" max="5122" width="41.5703125" style="26" customWidth="1"/>
-    <col min="5123" max="5123" width="9.140625" style="26"/>
-    <col min="5124" max="5124" width="39.140625" style="26" customWidth="1"/>
-    <col min="5125" max="5125" width="11.42578125" style="26" customWidth="1"/>
-    <col min="5126" max="5373" width="9.140625" style="26"/>
-    <col min="5374" max="5374" width="21.28515625" style="26" customWidth="1"/>
-    <col min="5375" max="5375" width="41.5703125" style="26" customWidth="1"/>
-    <col min="5376" max="5376" width="9.140625" style="26"/>
-    <col min="5377" max="5377" width="21.28515625" style="26" customWidth="1"/>
-    <col min="5378" max="5378" width="41.5703125" style="26" customWidth="1"/>
-    <col min="5379" max="5379" width="9.140625" style="26"/>
-    <col min="5380" max="5380" width="39.140625" style="26" customWidth="1"/>
-    <col min="5381" max="5381" width="11.42578125" style="26" customWidth="1"/>
-    <col min="5382" max="5629" width="9.140625" style="26"/>
-    <col min="5630" max="5630" width="21.28515625" style="26" customWidth="1"/>
-    <col min="5631" max="5631" width="41.5703125" style="26" customWidth="1"/>
-    <col min="5632" max="5632" width="9.140625" style="26"/>
-    <col min="5633" max="5633" width="21.28515625" style="26" customWidth="1"/>
-    <col min="5634" max="5634" width="41.5703125" style="26" customWidth="1"/>
-    <col min="5635" max="5635" width="9.140625" style="26"/>
-    <col min="5636" max="5636" width="39.140625" style="26" customWidth="1"/>
-    <col min="5637" max="5637" width="11.42578125" style="26" customWidth="1"/>
-    <col min="5638" max="5885" width="9.140625" style="26"/>
-    <col min="5886" max="5886" width="21.28515625" style="26" customWidth="1"/>
-    <col min="5887" max="5887" width="41.5703125" style="26" customWidth="1"/>
-    <col min="5888" max="5888" width="9.140625" style="26"/>
-    <col min="5889" max="5889" width="21.28515625" style="26" customWidth="1"/>
-    <col min="5890" max="5890" width="41.5703125" style="26" customWidth="1"/>
-    <col min="5891" max="5891" width="9.140625" style="26"/>
-    <col min="5892" max="5892" width="39.140625" style="26" customWidth="1"/>
-    <col min="5893" max="5893" width="11.42578125" style="26" customWidth="1"/>
-    <col min="5894" max="6141" width="9.140625" style="26"/>
-    <col min="6142" max="6142" width="21.28515625" style="26" customWidth="1"/>
-    <col min="6143" max="6143" width="41.5703125" style="26" customWidth="1"/>
-    <col min="6144" max="6144" width="9.140625" style="26"/>
-    <col min="6145" max="6145" width="21.28515625" style="26" customWidth="1"/>
-    <col min="6146" max="6146" width="41.5703125" style="26" customWidth="1"/>
-    <col min="6147" max="6147" width="9.140625" style="26"/>
-    <col min="6148" max="6148" width="39.140625" style="26" customWidth="1"/>
-    <col min="6149" max="6149" width="11.42578125" style="26" customWidth="1"/>
-    <col min="6150" max="6397" width="9.140625" style="26"/>
-    <col min="6398" max="6398" width="21.28515625" style="26" customWidth="1"/>
-    <col min="6399" max="6399" width="41.5703125" style="26" customWidth="1"/>
-    <col min="6400" max="6400" width="9.140625" style="26"/>
-    <col min="6401" max="6401" width="21.28515625" style="26" customWidth="1"/>
-    <col min="6402" max="6402" width="41.5703125" style="26" customWidth="1"/>
-    <col min="6403" max="6403" width="9.140625" style="26"/>
-    <col min="6404" max="6404" width="39.140625" style="26" customWidth="1"/>
-    <col min="6405" max="6405" width="11.42578125" style="26" customWidth="1"/>
-    <col min="6406" max="6653" width="9.140625" style="26"/>
-    <col min="6654" max="6654" width="21.28515625" style="26" customWidth="1"/>
-    <col min="6655" max="6655" width="41.5703125" style="26" customWidth="1"/>
-    <col min="6656" max="6656" width="9.140625" style="26"/>
-    <col min="6657" max="6657" width="21.28515625" style="26" customWidth="1"/>
-    <col min="6658" max="6658" width="41.5703125" style="26" customWidth="1"/>
-    <col min="6659" max="6659" width="9.140625" style="26"/>
-    <col min="6660" max="6660" width="39.140625" style="26" customWidth="1"/>
-    <col min="6661" max="6661" width="11.42578125" style="26" customWidth="1"/>
-    <col min="6662" max="6909" width="9.140625" style="26"/>
-    <col min="6910" max="6910" width="21.28515625" style="26" customWidth="1"/>
-    <col min="6911" max="6911" width="41.5703125" style="26" customWidth="1"/>
-    <col min="6912" max="6912" width="9.140625" style="26"/>
-    <col min="6913" max="6913" width="21.28515625" style="26" customWidth="1"/>
-    <col min="6914" max="6914" width="41.5703125" style="26" customWidth="1"/>
-    <col min="6915" max="6915" width="9.140625" style="26"/>
-    <col min="6916" max="6916" width="39.140625" style="26" customWidth="1"/>
-    <col min="6917" max="6917" width="11.42578125" style="26" customWidth="1"/>
-    <col min="6918" max="7165" width="9.140625" style="26"/>
-    <col min="7166" max="7166" width="21.28515625" style="26" customWidth="1"/>
-    <col min="7167" max="7167" width="41.5703125" style="26" customWidth="1"/>
-    <col min="7168" max="7168" width="9.140625" style="26"/>
-    <col min="7169" max="7169" width="21.28515625" style="26" customWidth="1"/>
-    <col min="7170" max="7170" width="41.5703125" style="26" customWidth="1"/>
-    <col min="7171" max="7171" width="9.140625" style="26"/>
-    <col min="7172" max="7172" width="39.140625" style="26" customWidth="1"/>
-    <col min="7173" max="7173" width="11.42578125" style="26" customWidth="1"/>
-    <col min="7174" max="7421" width="9.140625" style="26"/>
-    <col min="7422" max="7422" width="21.28515625" style="26" customWidth="1"/>
-    <col min="7423" max="7423" width="41.5703125" style="26" customWidth="1"/>
-    <col min="7424" max="7424" width="9.140625" style="26"/>
-    <col min="7425" max="7425" width="21.28515625" style="26" customWidth="1"/>
-    <col min="7426" max="7426" width="41.5703125" style="26" customWidth="1"/>
-    <col min="7427" max="7427" width="9.140625" style="26"/>
-    <col min="7428" max="7428" width="39.140625" style="26" customWidth="1"/>
-    <col min="7429" max="7429" width="11.42578125" style="26" customWidth="1"/>
-    <col min="7430" max="7677" width="9.140625" style="26"/>
-    <col min="7678" max="7678" width="21.28515625" style="26" customWidth="1"/>
-    <col min="7679" max="7679" width="41.5703125" style="26" customWidth="1"/>
-    <col min="7680" max="7680" width="9.140625" style="26"/>
-    <col min="7681" max="7681" width="21.28515625" style="26" customWidth="1"/>
-    <col min="7682" max="7682" width="41.5703125" style="26" customWidth="1"/>
-    <col min="7683" max="7683" width="9.140625" style="26"/>
-    <col min="7684" max="7684" width="39.140625" style="26" customWidth="1"/>
-    <col min="7685" max="7685" width="11.42578125" style="26" customWidth="1"/>
-    <col min="7686" max="7933" width="9.140625" style="26"/>
-    <col min="7934" max="7934" width="21.28515625" style="26" customWidth="1"/>
-    <col min="7935" max="7935" width="41.5703125" style="26" customWidth="1"/>
-    <col min="7936" max="7936" width="9.140625" style="26"/>
-    <col min="7937" max="7937" width="21.28515625" style="26" customWidth="1"/>
-    <col min="7938" max="7938" width="41.5703125" style="26" customWidth="1"/>
-    <col min="7939" max="7939" width="9.140625" style="26"/>
-    <col min="7940" max="7940" width="39.140625" style="26" customWidth="1"/>
-    <col min="7941" max="7941" width="11.42578125" style="26" customWidth="1"/>
-    <col min="7942" max="8189" width="9.140625" style="26"/>
-    <col min="8190" max="8190" width="21.28515625" style="26" customWidth="1"/>
-    <col min="8191" max="8191" width="41.5703125" style="26" customWidth="1"/>
-    <col min="8192" max="8192" width="9.140625" style="26"/>
-    <col min="8193" max="8193" width="21.28515625" style="26" customWidth="1"/>
-    <col min="8194" max="8194" width="41.5703125" style="26" customWidth="1"/>
-    <col min="8195" max="8195" width="9.140625" style="26"/>
-    <col min="8196" max="8196" width="39.140625" style="26" customWidth="1"/>
-    <col min="8197" max="8197" width="11.42578125" style="26" customWidth="1"/>
-    <col min="8198" max="8445" width="9.140625" style="26"/>
-    <col min="8446" max="8446" width="21.28515625" style="26" customWidth="1"/>
-    <col min="8447" max="8447" width="41.5703125" style="26" customWidth="1"/>
-    <col min="8448" max="8448" width="9.140625" style="26"/>
-    <col min="8449" max="8449" width="21.28515625" style="26" customWidth="1"/>
-    <col min="8450" max="8450" width="41.5703125" style="26" customWidth="1"/>
-    <col min="8451" max="8451" width="9.140625" style="26"/>
-    <col min="8452" max="8452" width="39.140625" style="26" customWidth="1"/>
-    <col min="8453" max="8453" width="11.42578125" style="26" customWidth="1"/>
-    <col min="8454" max="8701" width="9.140625" style="26"/>
-    <col min="8702" max="8702" width="21.28515625" style="26" customWidth="1"/>
-    <col min="8703" max="8703" width="41.5703125" style="26" customWidth="1"/>
-    <col min="8704" max="8704" width="9.140625" style="26"/>
-    <col min="8705" max="8705" width="21.28515625" style="26" customWidth="1"/>
-    <col min="8706" max="8706" width="41.5703125" style="26" customWidth="1"/>
-    <col min="8707" max="8707" width="9.140625" style="26"/>
-    <col min="8708" max="8708" width="39.140625" style="26" customWidth="1"/>
-    <col min="8709" max="8709" width="11.42578125" style="26" customWidth="1"/>
-    <col min="8710" max="8957" width="9.140625" style="26"/>
-    <col min="8958" max="8958" width="21.28515625" style="26" customWidth="1"/>
-    <col min="8959" max="8959" width="41.5703125" style="26" customWidth="1"/>
-    <col min="8960" max="8960" width="9.140625" style="26"/>
-    <col min="8961" max="8961" width="21.28515625" style="26" customWidth="1"/>
-    <col min="8962" max="8962" width="41.5703125" style="26" customWidth="1"/>
-    <col min="8963" max="8963" width="9.140625" style="26"/>
-    <col min="8964" max="8964" width="39.140625" style="26" customWidth="1"/>
-    <col min="8965" max="8965" width="11.42578125" style="26" customWidth="1"/>
-    <col min="8966" max="9213" width="9.140625" style="26"/>
-    <col min="9214" max="9214" width="21.28515625" style="26" customWidth="1"/>
-    <col min="9215" max="9215" width="41.5703125" style="26" customWidth="1"/>
-    <col min="9216" max="9216" width="9.140625" style="26"/>
-    <col min="9217" max="9217" width="21.28515625" style="26" customWidth="1"/>
-    <col min="9218" max="9218" width="41.5703125" style="26" customWidth="1"/>
-    <col min="9219" max="9219" width="9.140625" style="26"/>
-    <col min="9220" max="9220" width="39.140625" style="26" customWidth="1"/>
-    <col min="9221" max="9221" width="11.42578125" style="26" customWidth="1"/>
-    <col min="9222" max="9469" width="9.140625" style="26"/>
-    <col min="9470" max="9470" width="21.28515625" style="26" customWidth="1"/>
-    <col min="9471" max="9471" width="41.5703125" style="26" customWidth="1"/>
-    <col min="9472" max="9472" width="9.140625" style="26"/>
-    <col min="9473" max="9473" width="21.28515625" style="26" customWidth="1"/>
-    <col min="9474" max="9474" width="41.5703125" style="26" customWidth="1"/>
-    <col min="9475" max="9475" width="9.140625" style="26"/>
-    <col min="9476" max="9476" width="39.140625" style="26" customWidth="1"/>
-    <col min="9477" max="9477" width="11.42578125" style="26" customWidth="1"/>
-    <col min="9478" max="9725" width="9.140625" style="26"/>
-    <col min="9726" max="9726" width="21.28515625" style="26" customWidth="1"/>
-    <col min="9727" max="9727" width="41.5703125" style="26" customWidth="1"/>
-    <col min="9728" max="9728" width="9.140625" style="26"/>
-    <col min="9729" max="9729" width="21.28515625" style="26" customWidth="1"/>
-    <col min="9730" max="9730" width="41.5703125" style="26" customWidth="1"/>
-    <col min="9731" max="9731" width="9.140625" style="26"/>
-    <col min="9732" max="9732" width="39.140625" style="26" customWidth="1"/>
-    <col min="9733" max="9733" width="11.42578125" style="26" customWidth="1"/>
-    <col min="9734" max="9981" width="9.140625" style="26"/>
-    <col min="9982" max="9982" width="21.28515625" style="26" customWidth="1"/>
-    <col min="9983" max="9983" width="41.5703125" style="26" customWidth="1"/>
-    <col min="9984" max="9984" width="9.140625" style="26"/>
-    <col min="9985" max="9985" width="21.28515625" style="26" customWidth="1"/>
-    <col min="9986" max="9986" width="41.5703125" style="26" customWidth="1"/>
-    <col min="9987" max="9987" width="9.140625" style="26"/>
-    <col min="9988" max="9988" width="39.140625" style="26" customWidth="1"/>
-    <col min="9989" max="9989" width="11.42578125" style="26" customWidth="1"/>
-    <col min="9990" max="10237" width="9.140625" style="26"/>
-    <col min="10238" max="10238" width="21.28515625" style="26" customWidth="1"/>
-    <col min="10239" max="10239" width="41.5703125" style="26" customWidth="1"/>
-    <col min="10240" max="10240" width="9.140625" style="26"/>
-    <col min="10241" max="10241" width="21.28515625" style="26" customWidth="1"/>
-    <col min="10242" max="10242" width="41.5703125" style="26" customWidth="1"/>
-    <col min="10243" max="10243" width="9.140625" style="26"/>
-    <col min="10244" max="10244" width="39.140625" style="26" customWidth="1"/>
-    <col min="10245" max="10245" width="11.42578125" style="26" customWidth="1"/>
-    <col min="10246" max="10493" width="9.140625" style="26"/>
-    <col min="10494" max="10494" width="21.28515625" style="26" customWidth="1"/>
-    <col min="10495" max="10495" width="41.5703125" style="26" customWidth="1"/>
-    <col min="10496" max="10496" width="9.140625" style="26"/>
-    <col min="10497" max="10497" width="21.28515625" style="26" customWidth="1"/>
-    <col min="10498" max="10498" width="41.5703125" style="26" customWidth="1"/>
-    <col min="10499" max="10499" width="9.140625" style="26"/>
-    <col min="10500" max="10500" width="39.140625" style="26" customWidth="1"/>
-    <col min="10501" max="10501" width="11.42578125" style="26" customWidth="1"/>
-    <col min="10502" max="10749" width="9.140625" style="26"/>
-    <col min="10750" max="10750" width="21.28515625" style="26" customWidth="1"/>
-    <col min="10751" max="10751" width="41.5703125" style="26" customWidth="1"/>
-    <col min="10752" max="10752" width="9.140625" style="26"/>
-    <col min="10753" max="10753" width="21.28515625" style="26" customWidth="1"/>
-    <col min="10754" max="10754" width="41.5703125" style="26" customWidth="1"/>
-    <col min="10755" max="10755" width="9.140625" style="26"/>
-    <col min="10756" max="10756" width="39.140625" style="26" customWidth="1"/>
-    <col min="10757" max="10757" width="11.42578125" style="26" customWidth="1"/>
-    <col min="10758" max="11005" width="9.140625" style="26"/>
-    <col min="11006" max="11006" width="21.28515625" style="26" customWidth="1"/>
-    <col min="11007" max="11007" width="41.5703125" style="26" customWidth="1"/>
-    <col min="11008" max="11008" width="9.140625" style="26"/>
-    <col min="11009" max="11009" width="21.28515625" style="26" customWidth="1"/>
-    <col min="11010" max="11010" width="41.5703125" style="26" customWidth="1"/>
-    <col min="11011" max="11011" width="9.140625" style="26"/>
-    <col min="11012" max="11012" width="39.140625" style="26" customWidth="1"/>
-    <col min="11013" max="11013" width="11.42578125" style="26" customWidth="1"/>
-    <col min="11014" max="11261" width="9.140625" style="26"/>
-    <col min="11262" max="11262" width="21.28515625" style="26" customWidth="1"/>
-    <col min="11263" max="11263" width="41.5703125" style="26" customWidth="1"/>
-    <col min="11264" max="11264" width="9.140625" style="26"/>
-    <col min="11265" max="11265" width="21.28515625" style="26" customWidth="1"/>
-    <col min="11266" max="11266" width="41.5703125" style="26" customWidth="1"/>
-    <col min="11267" max="11267" width="9.140625" style="26"/>
-    <col min="11268" max="11268" width="39.140625" style="26" customWidth="1"/>
-    <col min="11269" max="11269" width="11.42578125" style="26" customWidth="1"/>
-    <col min="11270" max="11517" width="9.140625" style="26"/>
-    <col min="11518" max="11518" width="21.28515625" style="26" customWidth="1"/>
-    <col min="11519" max="11519" width="41.5703125" style="26" customWidth="1"/>
-    <col min="11520" max="11520" width="9.140625" style="26"/>
-    <col min="11521" max="11521" width="21.28515625" style="26" customWidth="1"/>
-    <col min="11522" max="11522" width="41.5703125" style="26" customWidth="1"/>
-    <col min="11523" max="11523" width="9.140625" style="26"/>
-    <col min="11524" max="11524" width="39.140625" style="26" customWidth="1"/>
-    <col min="11525" max="11525" width="11.42578125" style="26" customWidth="1"/>
-    <col min="11526" max="11773" width="9.140625" style="26"/>
-    <col min="11774" max="11774" width="21.28515625" style="26" customWidth="1"/>
-    <col min="11775" max="11775" width="41.5703125" style="26" customWidth="1"/>
-    <col min="11776" max="11776" width="9.140625" style="26"/>
-    <col min="11777" max="11777" width="21.28515625" style="26" customWidth="1"/>
-    <col min="11778" max="11778" width="41.5703125" style="26" customWidth="1"/>
-    <col min="11779" max="11779" width="9.140625" style="26"/>
-    <col min="11780" max="11780" width="39.140625" style="26" customWidth="1"/>
-    <col min="11781" max="11781" width="11.42578125" style="26" customWidth="1"/>
-    <col min="11782" max="12029" width="9.140625" style="26"/>
-    <col min="12030" max="12030" width="21.28515625" style="26" customWidth="1"/>
-    <col min="12031" max="12031" width="41.5703125" style="26" customWidth="1"/>
-    <col min="12032" max="12032" width="9.140625" style="26"/>
-    <col min="12033" max="12033" width="21.28515625" style="26" customWidth="1"/>
-    <col min="12034" max="12034" width="41.5703125" style="26" customWidth="1"/>
-    <col min="12035" max="12035" width="9.140625" style="26"/>
-    <col min="12036" max="12036" width="39.140625" style="26" customWidth="1"/>
-    <col min="12037" max="12037" width="11.42578125" style="26" customWidth="1"/>
-    <col min="12038" max="12285" width="9.140625" style="26"/>
-    <col min="12286" max="12286" width="21.28515625" style="26" customWidth="1"/>
-    <col min="12287" max="12287" width="41.5703125" style="26" customWidth="1"/>
-    <col min="12288" max="12288" width="9.140625" style="26"/>
-    <col min="12289" max="12289" width="21.28515625" style="26" customWidth="1"/>
-    <col min="12290" max="12290" width="41.5703125" style="26" customWidth="1"/>
-    <col min="12291" max="12291" width="9.140625" style="26"/>
-    <col min="12292" max="12292" width="39.140625" style="26" customWidth="1"/>
-    <col min="12293" max="12293" width="11.42578125" style="26" customWidth="1"/>
-    <col min="12294" max="12541" width="9.140625" style="26"/>
-    <col min="12542" max="12542" width="21.28515625" style="26" customWidth="1"/>
-    <col min="12543" max="12543" width="41.5703125" style="26" customWidth="1"/>
-    <col min="12544" max="12544" width="9.140625" style="26"/>
-    <col min="12545" max="12545" width="21.28515625" style="26" customWidth="1"/>
-    <col min="12546" max="12546" width="41.5703125" style="26" customWidth="1"/>
-    <col min="12547" max="12547" width="9.140625" style="26"/>
-    <col min="12548" max="12548" width="39.140625" style="26" customWidth="1"/>
-    <col min="12549" max="12549" width="11.42578125" style="26" customWidth="1"/>
-    <col min="12550" max="12797" width="9.140625" style="26"/>
-    <col min="12798" max="12798" width="21.28515625" style="26" customWidth="1"/>
-    <col min="12799" max="12799" width="41.5703125" style="26" customWidth="1"/>
-    <col min="12800" max="12800" width="9.140625" style="26"/>
-    <col min="12801" max="12801" width="21.28515625" style="26" customWidth="1"/>
-    <col min="12802" max="12802" width="41.5703125" style="26" customWidth="1"/>
-    <col min="12803" max="12803" width="9.140625" style="26"/>
-    <col min="12804" max="12804" width="39.140625" style="26" customWidth="1"/>
-    <col min="12805" max="12805" width="11.42578125" style="26" customWidth="1"/>
-    <col min="12806" max="13053" width="9.140625" style="26"/>
-    <col min="13054" max="13054" width="21.28515625" style="26" customWidth="1"/>
-    <col min="13055" max="13055" width="41.5703125" style="26" customWidth="1"/>
-    <col min="13056" max="13056" width="9.140625" style="26"/>
-    <col min="13057" max="13057" width="21.28515625" style="26" customWidth="1"/>
-    <col min="13058" max="13058" width="41.5703125" style="26" customWidth="1"/>
-    <col min="13059" max="13059" width="9.140625" style="26"/>
-    <col min="13060" max="13060" width="39.140625" style="26" customWidth="1"/>
-    <col min="13061" max="13061" width="11.42578125" style="26" customWidth="1"/>
-    <col min="13062" max="13309" width="9.140625" style="26"/>
-    <col min="13310" max="13310" width="21.28515625" style="26" customWidth="1"/>
-    <col min="13311" max="13311" width="41.5703125" style="26" customWidth="1"/>
-    <col min="13312" max="13312" width="9.140625" style="26"/>
-    <col min="13313" max="13313" width="21.28515625" style="26" customWidth="1"/>
-    <col min="13314" max="13314" width="41.5703125" style="26" customWidth="1"/>
-    <col min="13315" max="13315" width="9.140625" style="26"/>
-    <col min="13316" max="13316" width="39.140625" style="26" customWidth="1"/>
-    <col min="13317" max="13317" width="11.42578125" style="26" customWidth="1"/>
-    <col min="13318" max="13565" width="9.140625" style="26"/>
-    <col min="13566" max="13566" width="21.28515625" style="26" customWidth="1"/>
-    <col min="13567" max="13567" width="41.5703125" style="26" customWidth="1"/>
-    <col min="13568" max="13568" width="9.140625" style="26"/>
-    <col min="13569" max="13569" width="21.28515625" style="26" customWidth="1"/>
-    <col min="13570" max="13570" width="41.5703125" style="26" customWidth="1"/>
-    <col min="13571" max="13571" width="9.140625" style="26"/>
-    <col min="13572" max="13572" width="39.140625" style="26" customWidth="1"/>
-    <col min="13573" max="13573" width="11.42578125" style="26" customWidth="1"/>
-    <col min="13574" max="13821" width="9.140625" style="26"/>
-    <col min="13822" max="13822" width="21.28515625" style="26" customWidth="1"/>
-    <col min="13823" max="13823" width="41.5703125" style="26" customWidth="1"/>
-    <col min="13824" max="13824" width="9.140625" style="26"/>
-    <col min="13825" max="13825" width="21.28515625" style="26" customWidth="1"/>
-    <col min="13826" max="13826" width="41.5703125" style="26" customWidth="1"/>
-    <col min="13827" max="13827" width="9.140625" style="26"/>
-    <col min="13828" max="13828" width="39.140625" style="26" customWidth="1"/>
-    <col min="13829" max="13829" width="11.42578125" style="26" customWidth="1"/>
-    <col min="13830" max="14077" width="9.140625" style="26"/>
-    <col min="14078" max="14078" width="21.28515625" style="26" customWidth="1"/>
-    <col min="14079" max="14079" width="41.5703125" style="26" customWidth="1"/>
-    <col min="14080" max="14080" width="9.140625" style="26"/>
-    <col min="14081" max="14081" width="21.28515625" style="26" customWidth="1"/>
-    <col min="14082" max="14082" width="41.5703125" style="26" customWidth="1"/>
-    <col min="14083" max="14083" width="9.140625" style="26"/>
-    <col min="14084" max="14084" width="39.140625" style="26" customWidth="1"/>
-    <col min="14085" max="14085" width="11.42578125" style="26" customWidth="1"/>
-    <col min="14086" max="14333" width="9.140625" style="26"/>
-    <col min="14334" max="14334" width="21.28515625" style="26" customWidth="1"/>
-    <col min="14335" max="14335" width="41.5703125" style="26" customWidth="1"/>
-    <col min="14336" max="14336" width="9.140625" style="26"/>
-    <col min="14337" max="14337" width="21.28515625" style="26" customWidth="1"/>
-    <col min="14338" max="14338" width="41.5703125" style="26" customWidth="1"/>
-    <col min="14339" max="14339" width="9.140625" style="26"/>
-    <col min="14340" max="14340" width="39.140625" style="26" customWidth="1"/>
-    <col min="14341" max="14341" width="11.42578125" style="26" customWidth="1"/>
-    <col min="14342" max="14589" width="9.140625" style="26"/>
-    <col min="14590" max="14590" width="21.28515625" style="26" customWidth="1"/>
-    <col min="14591" max="14591" width="41.5703125" style="26" customWidth="1"/>
-    <col min="14592" max="14592" width="9.140625" style="26"/>
-    <col min="14593" max="14593" width="21.28515625" style="26" customWidth="1"/>
-    <col min="14594" max="14594" width="41.5703125" style="26" customWidth="1"/>
-    <col min="14595" max="14595" width="9.140625" style="26"/>
-    <col min="14596" max="14596" width="39.140625" style="26" customWidth="1"/>
-    <col min="14597" max="14597" width="11.42578125" style="26" customWidth="1"/>
-    <col min="14598" max="14845" width="9.140625" style="26"/>
-    <col min="14846" max="14846" width="21.28515625" style="26" customWidth="1"/>
-    <col min="14847" max="14847" width="41.5703125" style="26" customWidth="1"/>
-    <col min="14848" max="14848" width="9.140625" style="26"/>
-    <col min="14849" max="14849" width="21.28515625" style="26" customWidth="1"/>
-    <col min="14850" max="14850" width="41.5703125" style="26" customWidth="1"/>
-    <col min="14851" max="14851" width="9.140625" style="26"/>
-    <col min="14852" max="14852" width="39.140625" style="26" customWidth="1"/>
-    <col min="14853" max="14853" width="11.42578125" style="26" customWidth="1"/>
-    <col min="14854" max="15101" width="9.140625" style="26"/>
-    <col min="15102" max="15102" width="21.28515625" style="26" customWidth="1"/>
-    <col min="15103" max="15103" width="41.5703125" style="26" customWidth="1"/>
-    <col min="15104" max="15104" width="9.140625" style="26"/>
-    <col min="15105" max="15105" width="21.28515625" style="26" customWidth="1"/>
-    <col min="15106" max="15106" width="41.5703125" style="26" customWidth="1"/>
-    <col min="15107" max="15107" width="9.140625" style="26"/>
-    <col min="15108" max="15108" width="39.140625" style="26" customWidth="1"/>
-    <col min="15109" max="15109" width="11.42578125" style="26" customWidth="1"/>
-    <col min="15110" max="15357" width="9.140625" style="26"/>
-    <col min="15358" max="15358" width="21.28515625" style="26" customWidth="1"/>
-    <col min="15359" max="15359" width="41.5703125" style="26" customWidth="1"/>
-    <col min="15360" max="15360" width="9.140625" style="26"/>
-    <col min="15361" max="15361" width="21.28515625" style="26" customWidth="1"/>
-    <col min="15362" max="15362" width="41.5703125" style="26" customWidth="1"/>
-    <col min="15363" max="15363" width="9.140625" style="26"/>
-    <col min="15364" max="15364" width="39.140625" style="26" customWidth="1"/>
-    <col min="15365" max="15365" width="11.42578125" style="26" customWidth="1"/>
-    <col min="15366" max="15613" width="9.140625" style="26"/>
-    <col min="15614" max="15614" width="21.28515625" style="26" customWidth="1"/>
-    <col min="15615" max="15615" width="41.5703125" style="26" customWidth="1"/>
-    <col min="15616" max="15616" width="9.140625" style="26"/>
-    <col min="15617" max="15617" width="21.28515625" style="26" customWidth="1"/>
-    <col min="15618" max="15618" width="41.5703125" style="26" customWidth="1"/>
-    <col min="15619" max="15619" width="9.140625" style="26"/>
-    <col min="15620" max="15620" width="39.140625" style="26" customWidth="1"/>
-    <col min="15621" max="15621" width="11.42578125" style="26" customWidth="1"/>
-    <col min="15622" max="15869" width="9.140625" style="26"/>
-    <col min="15870" max="15870" width="21.28515625" style="26" customWidth="1"/>
-    <col min="15871" max="15871" width="41.5703125" style="26" customWidth="1"/>
-    <col min="15872" max="15872" width="9.140625" style="26"/>
-    <col min="15873" max="15873" width="21.28515625" style="26" customWidth="1"/>
-    <col min="15874" max="15874" width="41.5703125" style="26" customWidth="1"/>
-    <col min="15875" max="15875" width="9.140625" style="26"/>
-    <col min="15876" max="15876" width="39.140625" style="26" customWidth="1"/>
-    <col min="15877" max="15877" width="11.42578125" style="26" customWidth="1"/>
-    <col min="15878" max="16125" width="9.140625" style="26"/>
-    <col min="16126" max="16126" width="21.28515625" style="26" customWidth="1"/>
-    <col min="16127" max="16127" width="41.5703125" style="26" customWidth="1"/>
-    <col min="16128" max="16128" width="9.140625" style="26"/>
-    <col min="16129" max="16129" width="21.28515625" style="26" customWidth="1"/>
-    <col min="16130" max="16130" width="41.5703125" style="26" customWidth="1"/>
-    <col min="16131" max="16131" width="9.140625" style="26"/>
-    <col min="16132" max="16132" width="39.140625" style="26" customWidth="1"/>
-    <col min="16133" max="16133" width="11.42578125" style="26" customWidth="1"/>
-    <col min="16134" max="16381" width="9.140625" style="26"/>
-    <col min="16382" max="16382" width="21.28515625" style="26" customWidth="1"/>
-    <col min="16383" max="16383" width="41.5703125" style="26" customWidth="1"/>
-    <col min="16384" max="16384" width="9.140625" style="26"/>
+    <col min="1" max="1" width="21.4285714285714" style="32" customWidth="1"/>
+    <col min="2" max="2" width="21.8571428571429" style="32" customWidth="1"/>
+    <col min="3" max="3" width="8.71428571428571" style="32" customWidth="1"/>
+    <col min="4" max="4" width="18.1428571428571" style="32" customWidth="1"/>
+    <col min="5" max="5" width="6" style="32" customWidth="1"/>
+    <col min="6" max="253" width="9.14285714285714" style="32"/>
+    <col min="254" max="254" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="255" max="255" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="256" max="256" width="9.14285714285714" style="32"/>
+    <col min="257" max="257" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="258" max="258" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="259" max="259" width="9.14285714285714" style="32"/>
+    <col min="260" max="260" width="39.1428571428571" style="32" customWidth="1"/>
+    <col min="261" max="261" width="11.4285714285714" style="32" customWidth="1"/>
+    <col min="262" max="509" width="9.14285714285714" style="32"/>
+    <col min="510" max="510" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="511" max="511" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="512" max="512" width="9.14285714285714" style="32"/>
+    <col min="513" max="513" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="514" max="514" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="515" max="515" width="9.14285714285714" style="32"/>
+    <col min="516" max="516" width="39.1428571428571" style="32" customWidth="1"/>
+    <col min="517" max="517" width="11.4285714285714" style="32" customWidth="1"/>
+    <col min="518" max="765" width="9.14285714285714" style="32"/>
+    <col min="766" max="766" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="767" max="767" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="768" max="768" width="9.14285714285714" style="32"/>
+    <col min="769" max="769" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="770" max="770" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="771" max="771" width="9.14285714285714" style="32"/>
+    <col min="772" max="772" width="39.1428571428571" style="32" customWidth="1"/>
+    <col min="773" max="773" width="11.4285714285714" style="32" customWidth="1"/>
+    <col min="774" max="1021" width="9.14285714285714" style="32"/>
+    <col min="1022" max="1022" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="1023" max="1023" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="1024" max="1024" width="9.14285714285714" style="32"/>
+    <col min="1025" max="1025" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="1026" max="1026" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="1027" max="1027" width="9.14285714285714" style="32"/>
+    <col min="1028" max="1028" width="39.1428571428571" style="32" customWidth="1"/>
+    <col min="1029" max="1029" width="11.4285714285714" style="32" customWidth="1"/>
+    <col min="1030" max="1277" width="9.14285714285714" style="32"/>
+    <col min="1278" max="1278" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="1279" max="1279" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="1280" max="1280" width="9.14285714285714" style="32"/>
+    <col min="1281" max="1281" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="1282" max="1282" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="1283" max="1283" width="9.14285714285714" style="32"/>
+    <col min="1284" max="1284" width="39.1428571428571" style="32" customWidth="1"/>
+    <col min="1285" max="1285" width="11.4285714285714" style="32" customWidth="1"/>
+    <col min="1286" max="1533" width="9.14285714285714" style="32"/>
+    <col min="1534" max="1534" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="1535" max="1535" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="1536" max="1536" width="9.14285714285714" style="32"/>
+    <col min="1537" max="1537" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="1538" max="1538" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="1539" max="1539" width="9.14285714285714" style="32"/>
+    <col min="1540" max="1540" width="39.1428571428571" style="32" customWidth="1"/>
+    <col min="1541" max="1541" width="11.4285714285714" style="32" customWidth="1"/>
+    <col min="1542" max="1789" width="9.14285714285714" style="32"/>
+    <col min="1790" max="1790" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="1791" max="1791" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="1792" max="1792" width="9.14285714285714" style="32"/>
+    <col min="1793" max="1793" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="1794" max="1794" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="1795" max="1795" width="9.14285714285714" style="32"/>
+    <col min="1796" max="1796" width="39.1428571428571" style="32" customWidth="1"/>
+    <col min="1797" max="1797" width="11.4285714285714" style="32" customWidth="1"/>
+    <col min="1798" max="2045" width="9.14285714285714" style="32"/>
+    <col min="2046" max="2046" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="2047" max="2047" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="2048" max="2048" width="9.14285714285714" style="32"/>
+    <col min="2049" max="2049" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="2050" max="2050" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="2051" max="2051" width="9.14285714285714" style="32"/>
+    <col min="2052" max="2052" width="39.1428571428571" style="32" customWidth="1"/>
+    <col min="2053" max="2053" width="11.4285714285714" style="32" customWidth="1"/>
+    <col min="2054" max="2301" width="9.14285714285714" style="32"/>
+    <col min="2302" max="2302" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="2303" max="2303" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="2304" max="2304" width="9.14285714285714" style="32"/>
+    <col min="2305" max="2305" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="2306" max="2306" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="2307" max="2307" width="9.14285714285714" style="32"/>
+    <col min="2308" max="2308" width="39.1428571428571" style="32" customWidth="1"/>
+    <col min="2309" max="2309" width="11.4285714285714" style="32" customWidth="1"/>
+    <col min="2310" max="2557" width="9.14285714285714" style="32"/>
+    <col min="2558" max="2558" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="2559" max="2559" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="2560" max="2560" width="9.14285714285714" style="32"/>
+    <col min="2561" max="2561" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="2562" max="2562" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="2563" max="2563" width="9.14285714285714" style="32"/>
+    <col min="2564" max="2564" width="39.1428571428571" style="32" customWidth="1"/>
+    <col min="2565" max="2565" width="11.4285714285714" style="32" customWidth="1"/>
+    <col min="2566" max="2813" width="9.14285714285714" style="32"/>
+    <col min="2814" max="2814" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="2815" max="2815" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="2816" max="2816" width="9.14285714285714" style="32"/>
+    <col min="2817" max="2817" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="2818" max="2818" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="2819" max="2819" width="9.14285714285714" style="32"/>
+    <col min="2820" max="2820" width="39.1428571428571" style="32" customWidth="1"/>
+    <col min="2821" max="2821" width="11.4285714285714" style="32" customWidth="1"/>
+    <col min="2822" max="3069" width="9.14285714285714" style="32"/>
+    <col min="3070" max="3070" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="3071" max="3071" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="3072" max="3072" width="9.14285714285714" style="32"/>
+    <col min="3073" max="3073" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="3074" max="3074" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="3075" max="3075" width="9.14285714285714" style="32"/>
+    <col min="3076" max="3076" width="39.1428571428571" style="32" customWidth="1"/>
+    <col min="3077" max="3077" width="11.4285714285714" style="32" customWidth="1"/>
+    <col min="3078" max="3325" width="9.14285714285714" style="32"/>
+    <col min="3326" max="3326" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="3327" max="3327" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="3328" max="3328" width="9.14285714285714" style="32"/>
+    <col min="3329" max="3329" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="3330" max="3330" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="3331" max="3331" width="9.14285714285714" style="32"/>
+    <col min="3332" max="3332" width="39.1428571428571" style="32" customWidth="1"/>
+    <col min="3333" max="3333" width="11.4285714285714" style="32" customWidth="1"/>
+    <col min="3334" max="3581" width="9.14285714285714" style="32"/>
+    <col min="3582" max="3582" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="3583" max="3583" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="3584" max="3584" width="9.14285714285714" style="32"/>
+    <col min="3585" max="3585" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="3586" max="3586" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="3587" max="3587" width="9.14285714285714" style="32"/>
+    <col min="3588" max="3588" width="39.1428571428571" style="32" customWidth="1"/>
+    <col min="3589" max="3589" width="11.4285714285714" style="32" customWidth="1"/>
+    <col min="3590" max="3837" width="9.14285714285714" style="32"/>
+    <col min="3838" max="3838" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="3839" max="3839" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="3840" max="3840" width="9.14285714285714" style="32"/>
+    <col min="3841" max="3841" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="3842" max="3842" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="3843" max="3843" width="9.14285714285714" style="32"/>
+    <col min="3844" max="3844" width="39.1428571428571" style="32" customWidth="1"/>
+    <col min="3845" max="3845" width="11.4285714285714" style="32" customWidth="1"/>
+    <col min="3846" max="4093" width="9.14285714285714" style="32"/>
+    <col min="4094" max="4094" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="4095" max="4095" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="4096" max="4096" width="9.14285714285714" style="32"/>
+    <col min="4097" max="4097" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="4098" max="4098" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="4099" max="4099" width="9.14285714285714" style="32"/>
+    <col min="4100" max="4100" width="39.1428571428571" style="32" customWidth="1"/>
+    <col min="4101" max="4101" width="11.4285714285714" style="32" customWidth="1"/>
+    <col min="4102" max="4349" width="9.14285714285714" style="32"/>
+    <col min="4350" max="4350" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="4351" max="4351" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="4352" max="4352" width="9.14285714285714" style="32"/>
+    <col min="4353" max="4353" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="4354" max="4354" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="4355" max="4355" width="9.14285714285714" style="32"/>
+    <col min="4356" max="4356" width="39.1428571428571" style="32" customWidth="1"/>
+    <col min="4357" max="4357" width="11.4285714285714" style="32" customWidth="1"/>
+    <col min="4358" max="4605" width="9.14285714285714" style="32"/>
+    <col min="4606" max="4606" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="4607" max="4607" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="4608" max="4608" width="9.14285714285714" style="32"/>
+    <col min="4609" max="4609" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="4610" max="4610" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="4611" max="4611" width="9.14285714285714" style="32"/>
+    <col min="4612" max="4612" width="39.1428571428571" style="32" customWidth="1"/>
+    <col min="4613" max="4613" width="11.4285714285714" style="32" customWidth="1"/>
+    <col min="4614" max="4861" width="9.14285714285714" style="32"/>
+    <col min="4862" max="4862" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="4863" max="4863" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="4864" max="4864" width="9.14285714285714" style="32"/>
+    <col min="4865" max="4865" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="4866" max="4866" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="4867" max="4867" width="9.14285714285714" style="32"/>
+    <col min="4868" max="4868" width="39.1428571428571" style="32" customWidth="1"/>
+    <col min="4869" max="4869" width="11.4285714285714" style="32" customWidth="1"/>
+    <col min="4870" max="5117" width="9.14285714285714" style="32"/>
+    <col min="5118" max="5118" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="5119" max="5119" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="5120" max="5120" width="9.14285714285714" style="32"/>
+    <col min="5121" max="5121" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="5122" max="5122" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="5123" max="5123" width="9.14285714285714" style="32"/>
+    <col min="5124" max="5124" width="39.1428571428571" style="32" customWidth="1"/>
+    <col min="5125" max="5125" width="11.4285714285714" style="32" customWidth="1"/>
+    <col min="5126" max="5373" width="9.14285714285714" style="32"/>
+    <col min="5374" max="5374" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="5375" max="5375" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="5376" max="5376" width="9.14285714285714" style="32"/>
+    <col min="5377" max="5377" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="5378" max="5378" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="5379" max="5379" width="9.14285714285714" style="32"/>
+    <col min="5380" max="5380" width="39.1428571428571" style="32" customWidth="1"/>
+    <col min="5381" max="5381" width="11.4285714285714" style="32" customWidth="1"/>
+    <col min="5382" max="5629" width="9.14285714285714" style="32"/>
+    <col min="5630" max="5630" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="5631" max="5631" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="5632" max="5632" width="9.14285714285714" style="32"/>
+    <col min="5633" max="5633" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="5634" max="5634" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="5635" max="5635" width="9.14285714285714" style="32"/>
+    <col min="5636" max="5636" width="39.1428571428571" style="32" customWidth="1"/>
+    <col min="5637" max="5637" width="11.4285714285714" style="32" customWidth="1"/>
+    <col min="5638" max="5885" width="9.14285714285714" style="32"/>
+    <col min="5886" max="5886" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="5887" max="5887" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="5888" max="5888" width="9.14285714285714" style="32"/>
+    <col min="5889" max="5889" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="5890" max="5890" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="5891" max="5891" width="9.14285714285714" style="32"/>
+    <col min="5892" max="5892" width="39.1428571428571" style="32" customWidth="1"/>
+    <col min="5893" max="5893" width="11.4285714285714" style="32" customWidth="1"/>
+    <col min="5894" max="6141" width="9.14285714285714" style="32"/>
+    <col min="6142" max="6142" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="6143" max="6143" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="6144" max="6144" width="9.14285714285714" style="32"/>
+    <col min="6145" max="6145" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="6146" max="6146" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="6147" max="6147" width="9.14285714285714" style="32"/>
+    <col min="6148" max="6148" width="39.1428571428571" style="32" customWidth="1"/>
+    <col min="6149" max="6149" width="11.4285714285714" style="32" customWidth="1"/>
+    <col min="6150" max="6397" width="9.14285714285714" style="32"/>
+    <col min="6398" max="6398" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="6399" max="6399" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="6400" max="6400" width="9.14285714285714" style="32"/>
+    <col min="6401" max="6401" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="6402" max="6402" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="6403" max="6403" width="9.14285714285714" style="32"/>
+    <col min="6404" max="6404" width="39.1428571428571" style="32" customWidth="1"/>
+    <col min="6405" max="6405" width="11.4285714285714" style="32" customWidth="1"/>
+    <col min="6406" max="6653" width="9.14285714285714" style="32"/>
+    <col min="6654" max="6654" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="6655" max="6655" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="6656" max="6656" width="9.14285714285714" style="32"/>
+    <col min="6657" max="6657" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="6658" max="6658" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="6659" max="6659" width="9.14285714285714" style="32"/>
+    <col min="6660" max="6660" width="39.1428571428571" style="32" customWidth="1"/>
+    <col min="6661" max="6661" width="11.4285714285714" style="32" customWidth="1"/>
+    <col min="6662" max="6909" width="9.14285714285714" style="32"/>
+    <col min="6910" max="6910" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="6911" max="6911" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="6912" max="6912" width="9.14285714285714" style="32"/>
+    <col min="6913" max="6913" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="6914" max="6914" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="6915" max="6915" width="9.14285714285714" style="32"/>
+    <col min="6916" max="6916" width="39.1428571428571" style="32" customWidth="1"/>
+    <col min="6917" max="6917" width="11.4285714285714" style="32" customWidth="1"/>
+    <col min="6918" max="7165" width="9.14285714285714" style="32"/>
+    <col min="7166" max="7166" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="7167" max="7167" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="7168" max="7168" width="9.14285714285714" style="32"/>
+    <col min="7169" max="7169" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="7170" max="7170" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="7171" max="7171" width="9.14285714285714" style="32"/>
+    <col min="7172" max="7172" width="39.1428571428571" style="32" customWidth="1"/>
+    <col min="7173" max="7173" width="11.4285714285714" style="32" customWidth="1"/>
+    <col min="7174" max="7421" width="9.14285714285714" style="32"/>
+    <col min="7422" max="7422" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="7423" max="7423" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="7424" max="7424" width="9.14285714285714" style="32"/>
+    <col min="7425" max="7425" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="7426" max="7426" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="7427" max="7427" width="9.14285714285714" style="32"/>
+    <col min="7428" max="7428" width="39.1428571428571" style="32" customWidth="1"/>
+    <col min="7429" max="7429" width="11.4285714285714" style="32" customWidth="1"/>
+    <col min="7430" max="7677" width="9.14285714285714" style="32"/>
+    <col min="7678" max="7678" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="7679" max="7679" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="7680" max="7680" width="9.14285714285714" style="32"/>
+    <col min="7681" max="7681" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="7682" max="7682" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="7683" max="7683" width="9.14285714285714" style="32"/>
+    <col min="7684" max="7684" width="39.1428571428571" style="32" customWidth="1"/>
+    <col min="7685" max="7685" width="11.4285714285714" style="32" customWidth="1"/>
+    <col min="7686" max="7933" width="9.14285714285714" style="32"/>
+    <col min="7934" max="7934" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="7935" max="7935" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="7936" max="7936" width="9.14285714285714" style="32"/>
+    <col min="7937" max="7937" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="7938" max="7938" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="7939" max="7939" width="9.14285714285714" style="32"/>
+    <col min="7940" max="7940" width="39.1428571428571" style="32" customWidth="1"/>
+    <col min="7941" max="7941" width="11.4285714285714" style="32" customWidth="1"/>
+    <col min="7942" max="8189" width="9.14285714285714" style="32"/>
+    <col min="8190" max="8190" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="8191" max="8191" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="8192" max="8192" width="9.14285714285714" style="32"/>
+    <col min="8193" max="8193" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="8194" max="8194" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="8195" max="8195" width="9.14285714285714" style="32"/>
+    <col min="8196" max="8196" width="39.1428571428571" style="32" customWidth="1"/>
+    <col min="8197" max="8197" width="11.4285714285714" style="32" customWidth="1"/>
+    <col min="8198" max="8445" width="9.14285714285714" style="32"/>
+    <col min="8446" max="8446" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="8447" max="8447" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="8448" max="8448" width="9.14285714285714" style="32"/>
+    <col min="8449" max="8449" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="8450" max="8450" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="8451" max="8451" width="9.14285714285714" style="32"/>
+    <col min="8452" max="8452" width="39.1428571428571" style="32" customWidth="1"/>
+    <col min="8453" max="8453" width="11.4285714285714" style="32" customWidth="1"/>
+    <col min="8454" max="8701" width="9.14285714285714" style="32"/>
+    <col min="8702" max="8702" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="8703" max="8703" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="8704" max="8704" width="9.14285714285714" style="32"/>
+    <col min="8705" max="8705" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="8706" max="8706" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="8707" max="8707" width="9.14285714285714" style="32"/>
+    <col min="8708" max="8708" width="39.1428571428571" style="32" customWidth="1"/>
+    <col min="8709" max="8709" width="11.4285714285714" style="32" customWidth="1"/>
+    <col min="8710" max="8957" width="9.14285714285714" style="32"/>
+    <col min="8958" max="8958" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="8959" max="8959" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="8960" max="8960" width="9.14285714285714" style="32"/>
+    <col min="8961" max="8961" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="8962" max="8962" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="8963" max="8963" width="9.14285714285714" style="32"/>
+    <col min="8964" max="8964" width="39.1428571428571" style="32" customWidth="1"/>
+    <col min="8965" max="8965" width="11.4285714285714" style="32" customWidth="1"/>
+    <col min="8966" max="9213" width="9.14285714285714" style="32"/>
+    <col min="9214" max="9214" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="9215" max="9215" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="9216" max="9216" width="9.14285714285714" style="32"/>
+    <col min="9217" max="9217" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="9218" max="9218" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="9219" max="9219" width="9.14285714285714" style="32"/>
+    <col min="9220" max="9220" width="39.1428571428571" style="32" customWidth="1"/>
+    <col min="9221" max="9221" width="11.4285714285714" style="32" customWidth="1"/>
+    <col min="9222" max="9469" width="9.14285714285714" style="32"/>
+    <col min="9470" max="9470" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="9471" max="9471" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="9472" max="9472" width="9.14285714285714" style="32"/>
+    <col min="9473" max="9473" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="9474" max="9474" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="9475" max="9475" width="9.14285714285714" style="32"/>
+    <col min="9476" max="9476" width="39.1428571428571" style="32" customWidth="1"/>
+    <col min="9477" max="9477" width="11.4285714285714" style="32" customWidth="1"/>
+    <col min="9478" max="9725" width="9.14285714285714" style="32"/>
+    <col min="9726" max="9726" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="9727" max="9727" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="9728" max="9728" width="9.14285714285714" style="32"/>
+    <col min="9729" max="9729" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="9730" max="9730" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="9731" max="9731" width="9.14285714285714" style="32"/>
+    <col min="9732" max="9732" width="39.1428571428571" style="32" customWidth="1"/>
+    <col min="9733" max="9733" width="11.4285714285714" style="32" customWidth="1"/>
+    <col min="9734" max="9981" width="9.14285714285714" style="32"/>
+    <col min="9982" max="9982" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="9983" max="9983" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="9984" max="9984" width="9.14285714285714" style="32"/>
+    <col min="9985" max="9985" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="9986" max="9986" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="9987" max="9987" width="9.14285714285714" style="32"/>
+    <col min="9988" max="9988" width="39.1428571428571" style="32" customWidth="1"/>
+    <col min="9989" max="9989" width="11.4285714285714" style="32" customWidth="1"/>
+    <col min="9990" max="10237" width="9.14285714285714" style="32"/>
+    <col min="10238" max="10238" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="10239" max="10239" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="10240" max="10240" width="9.14285714285714" style="32"/>
+    <col min="10241" max="10241" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="10242" max="10242" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="10243" max="10243" width="9.14285714285714" style="32"/>
+    <col min="10244" max="10244" width="39.1428571428571" style="32" customWidth="1"/>
+    <col min="10245" max="10245" width="11.4285714285714" style="32" customWidth="1"/>
+    <col min="10246" max="10493" width="9.14285714285714" style="32"/>
+    <col min="10494" max="10494" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="10495" max="10495" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="10496" max="10496" width="9.14285714285714" style="32"/>
+    <col min="10497" max="10497" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="10498" max="10498" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="10499" max="10499" width="9.14285714285714" style="32"/>
+    <col min="10500" max="10500" width="39.1428571428571" style="32" customWidth="1"/>
+    <col min="10501" max="10501" width="11.4285714285714" style="32" customWidth="1"/>
+    <col min="10502" max="10749" width="9.14285714285714" style="32"/>
+    <col min="10750" max="10750" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="10751" max="10751" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="10752" max="10752" width="9.14285714285714" style="32"/>
+    <col min="10753" max="10753" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="10754" max="10754" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="10755" max="10755" width="9.14285714285714" style="32"/>
+    <col min="10756" max="10756" width="39.1428571428571" style="32" customWidth="1"/>
+    <col min="10757" max="10757" width="11.4285714285714" style="32" customWidth="1"/>
+    <col min="10758" max="11005" width="9.14285714285714" style="32"/>
+    <col min="11006" max="11006" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="11007" max="11007" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="11008" max="11008" width="9.14285714285714" style="32"/>
+    <col min="11009" max="11009" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="11010" max="11010" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="11011" max="11011" width="9.14285714285714" style="32"/>
+    <col min="11012" max="11012" width="39.1428571428571" style="32" customWidth="1"/>
+    <col min="11013" max="11013" width="11.4285714285714" style="32" customWidth="1"/>
+    <col min="11014" max="11261" width="9.14285714285714" style="32"/>
+    <col min="11262" max="11262" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="11263" max="11263" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="11264" max="11264" width="9.14285714285714" style="32"/>
+    <col min="11265" max="11265" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="11266" max="11266" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="11267" max="11267" width="9.14285714285714" style="32"/>
+    <col min="11268" max="11268" width="39.1428571428571" style="32" customWidth="1"/>
+    <col min="11269" max="11269" width="11.4285714285714" style="32" customWidth="1"/>
+    <col min="11270" max="11517" width="9.14285714285714" style="32"/>
+    <col min="11518" max="11518" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="11519" max="11519" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="11520" max="11520" width="9.14285714285714" style="32"/>
+    <col min="11521" max="11521" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="11522" max="11522" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="11523" max="11523" width="9.14285714285714" style="32"/>
+    <col min="11524" max="11524" width="39.1428571428571" style="32" customWidth="1"/>
+    <col min="11525" max="11525" width="11.4285714285714" style="32" customWidth="1"/>
+    <col min="11526" max="11773" width="9.14285714285714" style="32"/>
+    <col min="11774" max="11774" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="11775" max="11775" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="11776" max="11776" width="9.14285714285714" style="32"/>
+    <col min="11777" max="11777" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="11778" max="11778" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="11779" max="11779" width="9.14285714285714" style="32"/>
+    <col min="11780" max="11780" width="39.1428571428571" style="32" customWidth="1"/>
+    <col min="11781" max="11781" width="11.4285714285714" style="32" customWidth="1"/>
+    <col min="11782" max="12029" width="9.14285714285714" style="32"/>
+    <col min="12030" max="12030" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="12031" max="12031" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="12032" max="12032" width="9.14285714285714" style="32"/>
+    <col min="12033" max="12033" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="12034" max="12034" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="12035" max="12035" width="9.14285714285714" style="32"/>
+    <col min="12036" max="12036" width="39.1428571428571" style="32" customWidth="1"/>
+    <col min="12037" max="12037" width="11.4285714285714" style="32" customWidth="1"/>
+    <col min="12038" max="12285" width="9.14285714285714" style="32"/>
+    <col min="12286" max="12286" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="12287" max="12287" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="12288" max="12288" width="9.14285714285714" style="32"/>
+    <col min="12289" max="12289" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="12290" max="12290" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="12291" max="12291" width="9.14285714285714" style="32"/>
+    <col min="12292" max="12292" width="39.1428571428571" style="32" customWidth="1"/>
+    <col min="12293" max="12293" width="11.4285714285714" style="32" customWidth="1"/>
+    <col min="12294" max="12541" width="9.14285714285714" style="32"/>
+    <col min="12542" max="12542" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="12543" max="12543" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="12544" max="12544" width="9.14285714285714" style="32"/>
+    <col min="12545" max="12545" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="12546" max="12546" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="12547" max="12547" width="9.14285714285714" style="32"/>
+    <col min="12548" max="12548" width="39.1428571428571" style="32" customWidth="1"/>
+    <col min="12549" max="12549" width="11.4285714285714" style="32" customWidth="1"/>
+    <col min="12550" max="12797" width="9.14285714285714" style="32"/>
+    <col min="12798" max="12798" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="12799" max="12799" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="12800" max="12800" width="9.14285714285714" style="32"/>
+    <col min="12801" max="12801" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="12802" max="12802" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="12803" max="12803" width="9.14285714285714" style="32"/>
+    <col min="12804" max="12804" width="39.1428571428571" style="32" customWidth="1"/>
+    <col min="12805" max="12805" width="11.4285714285714" style="32" customWidth="1"/>
+    <col min="12806" max="13053" width="9.14285714285714" style="32"/>
+    <col min="13054" max="13054" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="13055" max="13055" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="13056" max="13056" width="9.14285714285714" style="32"/>
+    <col min="13057" max="13057" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="13058" max="13058" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="13059" max="13059" width="9.14285714285714" style="32"/>
+    <col min="13060" max="13060" width="39.1428571428571" style="32" customWidth="1"/>
+    <col min="13061" max="13061" width="11.4285714285714" style="32" customWidth="1"/>
+    <col min="13062" max="13309" width="9.14285714285714" style="32"/>
+    <col min="13310" max="13310" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="13311" max="13311" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="13312" max="13312" width="9.14285714285714" style="32"/>
+    <col min="13313" max="13313" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="13314" max="13314" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="13315" max="13315" width="9.14285714285714" style="32"/>
+    <col min="13316" max="13316" width="39.1428571428571" style="32" customWidth="1"/>
+    <col min="13317" max="13317" width="11.4285714285714" style="32" customWidth="1"/>
+    <col min="13318" max="13565" width="9.14285714285714" style="32"/>
+    <col min="13566" max="13566" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="13567" max="13567" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="13568" max="13568" width="9.14285714285714" style="32"/>
+    <col min="13569" max="13569" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="13570" max="13570" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="13571" max="13571" width="9.14285714285714" style="32"/>
+    <col min="13572" max="13572" width="39.1428571428571" style="32" customWidth="1"/>
+    <col min="13573" max="13573" width="11.4285714285714" style="32" customWidth="1"/>
+    <col min="13574" max="13821" width="9.14285714285714" style="32"/>
+    <col min="13822" max="13822" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="13823" max="13823" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="13824" max="13824" width="9.14285714285714" style="32"/>
+    <col min="13825" max="13825" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="13826" max="13826" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="13827" max="13827" width="9.14285714285714" style="32"/>
+    <col min="13828" max="13828" width="39.1428571428571" style="32" customWidth="1"/>
+    <col min="13829" max="13829" width="11.4285714285714" style="32" customWidth="1"/>
+    <col min="13830" max="14077" width="9.14285714285714" style="32"/>
+    <col min="14078" max="14078" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="14079" max="14079" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="14080" max="14080" width="9.14285714285714" style="32"/>
+    <col min="14081" max="14081" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="14082" max="14082" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="14083" max="14083" width="9.14285714285714" style="32"/>
+    <col min="14084" max="14084" width="39.1428571428571" style="32" customWidth="1"/>
+    <col min="14085" max="14085" width="11.4285714285714" style="32" customWidth="1"/>
+    <col min="14086" max="14333" width="9.14285714285714" style="32"/>
+    <col min="14334" max="14334" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="14335" max="14335" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="14336" max="14336" width="9.14285714285714" style="32"/>
+    <col min="14337" max="14337" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="14338" max="14338" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="14339" max="14339" width="9.14285714285714" style="32"/>
+    <col min="14340" max="14340" width="39.1428571428571" style="32" customWidth="1"/>
+    <col min="14341" max="14341" width="11.4285714285714" style="32" customWidth="1"/>
+    <col min="14342" max="14589" width="9.14285714285714" style="32"/>
+    <col min="14590" max="14590" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="14591" max="14591" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="14592" max="14592" width="9.14285714285714" style="32"/>
+    <col min="14593" max="14593" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="14594" max="14594" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="14595" max="14595" width="9.14285714285714" style="32"/>
+    <col min="14596" max="14596" width="39.1428571428571" style="32" customWidth="1"/>
+    <col min="14597" max="14597" width="11.4285714285714" style="32" customWidth="1"/>
+    <col min="14598" max="14845" width="9.14285714285714" style="32"/>
+    <col min="14846" max="14846" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="14847" max="14847" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="14848" max="14848" width="9.14285714285714" style="32"/>
+    <col min="14849" max="14849" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="14850" max="14850" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="14851" max="14851" width="9.14285714285714" style="32"/>
+    <col min="14852" max="14852" width="39.1428571428571" style="32" customWidth="1"/>
+    <col min="14853" max="14853" width="11.4285714285714" style="32" customWidth="1"/>
+    <col min="14854" max="15101" width="9.14285714285714" style="32"/>
+    <col min="15102" max="15102" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="15103" max="15103" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="15104" max="15104" width="9.14285714285714" style="32"/>
+    <col min="15105" max="15105" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="15106" max="15106" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="15107" max="15107" width="9.14285714285714" style="32"/>
+    <col min="15108" max="15108" width="39.1428571428571" style="32" customWidth="1"/>
+    <col min="15109" max="15109" width="11.4285714285714" style="32" customWidth="1"/>
+    <col min="15110" max="15357" width="9.14285714285714" style="32"/>
+    <col min="15358" max="15358" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="15359" max="15359" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="15360" max="15360" width="9.14285714285714" style="32"/>
+    <col min="15361" max="15361" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="15362" max="15362" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="15363" max="15363" width="9.14285714285714" style="32"/>
+    <col min="15364" max="15364" width="39.1428571428571" style="32" customWidth="1"/>
+    <col min="15365" max="15365" width="11.4285714285714" style="32" customWidth="1"/>
+    <col min="15366" max="15613" width="9.14285714285714" style="32"/>
+    <col min="15614" max="15614" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="15615" max="15615" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="15616" max="15616" width="9.14285714285714" style="32"/>
+    <col min="15617" max="15617" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="15618" max="15618" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="15619" max="15619" width="9.14285714285714" style="32"/>
+    <col min="15620" max="15620" width="39.1428571428571" style="32" customWidth="1"/>
+    <col min="15621" max="15621" width="11.4285714285714" style="32" customWidth="1"/>
+    <col min="15622" max="15869" width="9.14285714285714" style="32"/>
+    <col min="15870" max="15870" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="15871" max="15871" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="15872" max="15872" width="9.14285714285714" style="32"/>
+    <col min="15873" max="15873" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="15874" max="15874" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="15875" max="15875" width="9.14285714285714" style="32"/>
+    <col min="15876" max="15876" width="39.1428571428571" style="32" customWidth="1"/>
+    <col min="15877" max="15877" width="11.4285714285714" style="32" customWidth="1"/>
+    <col min="15878" max="16125" width="9.14285714285714" style="32"/>
+    <col min="16126" max="16126" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="16127" max="16127" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="16128" max="16128" width="9.14285714285714" style="32"/>
+    <col min="16129" max="16129" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="16130" max="16130" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="16131" max="16131" width="9.14285714285714" style="32"/>
+    <col min="16132" max="16132" width="39.1428571428571" style="32" customWidth="1"/>
+    <col min="16133" max="16133" width="11.4285714285714" style="32" customWidth="1"/>
+    <col min="16134" max="16381" width="9.14285714285714" style="32"/>
+    <col min="16382" max="16382" width="21.2857142857143" style="32" customWidth="1"/>
+    <col min="16383" max="16383" width="41.5714285714286" style="32" customWidth="1"/>
+    <col min="16384" max="16384" width="9.14285714285714" style="32"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="16.5">
-      <c r="A2" s="26" t="s">
+    <row r="2" ht="16.5" spans="1:1">
+      <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="27" customHeight="1">
-      <c r="A4" s="27" t="s">
+    <row r="4" ht="27" customHeight="1" spans="1:5">
+      <c r="A4" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="33" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18" customHeight="1">
-      <c r="A5" s="28">
-        <f>DATE(2016, 1, 13)</f>
+    <row r="5" ht="18" customHeight="1" spans="1:5">
+      <c r="A5" s="34">
+        <f>DATE(2016,1,13)</f>
         <v>42382</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="37" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="28"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="31"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="37"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="28"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="31"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="37"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="28"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="31"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="37"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="28"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="31"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="37"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="28"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="31"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="37"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="28"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="31"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="37"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="28"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="31"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="37"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="28"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="31"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="37"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="28"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="31"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="37"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="28"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="31"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="37"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="28"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="31"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="37"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="28"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="31"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="37"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="28"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="31"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="37"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="28"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="31"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="37"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="28"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="31"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="37"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="28"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="31"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="37"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="28"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="31"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="37"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="28"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="31"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="37"/>
     </row>
   </sheetData>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:R39"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:K39"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="6" t="s">
@@ -2529,19 +3181,19 @@
       <c r="R5" s="5"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
@@ -2553,17 +3205,17 @@
       <c r="R6" s="5"/>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="36"/>
-      <c r="B7" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
@@ -2575,17 +3227,17 @@
       <c r="R7" s="5"/>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -2597,15 +3249,15 @@
       <c r="R8" s="5"/>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="36"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
@@ -2617,17 +3269,17 @@
       <c r="R9" s="5"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="36"/>
-      <c r="B10" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
@@ -2639,17 +3291,17 @@
       <c r="R10" s="5"/>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" s="36"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
@@ -2661,15 +3313,15 @@
       <c r="R11" s="5"/>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" s="36"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
@@ -2681,17 +3333,17 @@
       <c r="R12" s="5"/>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="36"/>
-      <c r="B13" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
@@ -2703,17 +3355,17 @@
       <c r="R13" s="5"/>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="36"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
@@ -2746,10 +3398,10 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -2771,7 +3423,7 @@
     <row r="17" spans="1:18">
       <c r="A17" s="6"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -2793,8 +3445,8 @@
     <row r="18" spans="1:18">
       <c r="A18" s="6"/>
       <c r="B18" s="5"/>
-      <c r="C18" s="39" t="s">
-        <v>84</v>
+      <c r="C18" s="27" t="s">
+        <v>22</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -2857,7 +3509,7 @@
     <row r="21" spans="1:18">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="28" t="s">
         <v>24</v>
       </c>
       <c r="D21" s="5"/>
@@ -2879,7 +3531,7 @@
     <row r="22" spans="1:18">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="28" t="s">
         <v>25</v>
       </c>
       <c r="D22" s="5"/>
@@ -2921,7 +3573,7 @@
     <row r="24" spans="1:18">
       <c r="A24" s="5"/>
       <c r="B24" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -2943,8 +3595,8 @@
     <row r="25" spans="1:18">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
-      <c r="C25" s="40" t="s">
-        <v>85</v>
+      <c r="C25" s="20" t="s">
+        <v>26</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -2962,223 +3614,224 @@
       <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
     </row>
-    <row r="27" spans="1:18">
-      <c r="A27" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-    </row>
-    <row r="28" spans="1:18">
-      <c r="A28" s="42"/>
-      <c r="B28" s="42" t="s">
+    <row r="27" spans="1:11">
+      <c r="A27" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="42"/>
-    </row>
-    <row r="29" spans="1:18">
-      <c r="A29" s="42"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="43" t="s">
+      <c r="B27" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="42"/>
-    </row>
-    <row r="30" spans="1:18">
-      <c r="A30" s="42"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="42"/>
-    </row>
-    <row r="31" spans="1:18">
-      <c r="A31" s="42"/>
-      <c r="B31" s="42" t="s">
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="30"/>
+      <c r="B28" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="30"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="30"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="30"/>
+      <c r="B31" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="42"/>
-    </row>
-    <row r="32" spans="1:18">
-      <c r="A32" s="42"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="42"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="30"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="42"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="42"/>
-      <c r="K33" s="42"/>
+      <c r="A33" s="30"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="42"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="42"/>
-      <c r="K34" s="42"/>
+      <c r="A34" s="30"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="42"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="42"/>
-      <c r="K35" s="42"/>
+      <c r="A35" s="30"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="42"/>
-      <c r="B36" s="42"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="42"/>
+      <c r="A36" s="30"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="42"/>
-      <c r="B37" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="42"/>
-      <c r="J37" s="42"/>
-      <c r="K37" s="42"/>
+      <c r="A37" s="30"/>
+      <c r="B37" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="30"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="42"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="E38" s="42"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="42"/>
-      <c r="I38" s="42"/>
-      <c r="J38" s="42"/>
-      <c r="K38" s="42"/>
+      <c r="A38" s="30"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="30"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="42"/>
-      <c r="B39" s="42"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="42"/>
-      <c r="I39" s="42"/>
-      <c r="J39" s="42"/>
-      <c r="K39" s="42"/>
+      <c r="A39" s="30"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="30"/>
     </row>
   </sheetData>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="landscape"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BI26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="I2:J2"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" customWidth="1"/>
-    <col min="2" max="61" width="3.140625" customWidth="1"/>
+    <col min="1" max="1" width="2.42857142857143" customWidth="1"/>
+    <col min="2" max="61" width="3.14285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61">
+    <row r="1" spans="1:59">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3239,10 +3892,10 @@
       <c r="BF1" s="2"/>
       <c r="BG1" s="5"/>
     </row>
-    <row r="2" spans="1:61">
+    <row r="2" spans="1:59">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -3302,10 +3955,10 @@
       <c r="BF2" s="5"/>
       <c r="BG2" s="5"/>
     </row>
-    <row r="3" spans="1:61">
+    <row r="3" spans="1:59">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -3365,7 +4018,7 @@
       <c r="BF3" s="5"/>
       <c r="BG3" s="5"/>
     </row>
-    <row r="4" spans="1:61">
+    <row r="4" spans="1:59">
       <c r="A4" s="3"/>
       <c r="B4" s="6"/>
       <c r="C4" s="5"/>
@@ -3426,12 +4079,12 @@
       <c r="BF4" s="5"/>
       <c r="BG4" s="5"/>
     </row>
-    <row r="5" spans="1:61">
+    <row r="5" spans="1:59">
       <c r="A5" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -3469,7 +4122,7 @@
       <c r="AJ5" s="5"/>
       <c r="AK5" s="5"/>
       <c r="AL5" s="5"/>
-      <c r="AM5" s="22"/>
+      <c r="AM5" s="20"/>
       <c r="AN5" s="5"/>
       <c r="AO5" s="5"/>
       <c r="AP5" s="5"/>
@@ -3491,11 +4144,11 @@
       <c r="BF5" s="5"/>
       <c r="BG5" s="5"/>
     </row>
-    <row r="6" spans="1:61">
+    <row r="6" spans="1:59">
       <c r="A6" s="3"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -3554,7 +4207,7 @@
       <c r="BF6" s="5"/>
       <c r="BG6" s="5"/>
     </row>
-    <row r="7" spans="1:61">
+    <row r="7" spans="1:59">
       <c r="A7" s="3"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -3615,7 +4268,7 @@
       <c r="BF7" s="5"/>
       <c r="BG7" s="5"/>
     </row>
-    <row r="8" spans="1:61">
+    <row r="8" spans="1:59">
       <c r="A8" s="3"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -3676,12 +4329,12 @@
       <c r="BF8" s="5"/>
       <c r="BG8" s="5"/>
     </row>
-    <row r="9" spans="1:61">
+    <row r="9" spans="1:59">
       <c r="A9" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -3741,7 +4394,7 @@
       <c r="BF9" s="5"/>
       <c r="BG9" s="5"/>
     </row>
-    <row r="10" spans="1:61">
+    <row r="10" spans="1:59">
       <c r="A10" s="3"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -3799,13 +4452,13 @@
       <c r="BC10" s="5"/>
       <c r="BD10" s="5"/>
       <c r="BE10" s="5"/>
-      <c r="BF10" s="24"/>
-      <c r="BG10" s="24"/>
+      <c r="BF10" s="22"/>
+      <c r="BG10" s="22"/>
     </row>
     <row r="11" spans="1:61">
       <c r="A11" s="3"/>
       <c r="B11" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -3818,9 +4471,9 @@
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
-      <c r="N11" s="20"/>
+      <c r="N11" s="17"/>
       <c r="O11" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
@@ -3837,9 +4490,9 @@
       <c r="AB11" s="9"/>
       <c r="AC11" s="9"/>
       <c r="AD11" s="9"/>
-      <c r="AE11" s="20"/>
+      <c r="AE11" s="17"/>
       <c r="AF11" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AG11" s="9"/>
       <c r="AH11" s="9"/>
@@ -3853,9 +4506,9 @@
       <c r="AP11" s="9"/>
       <c r="AQ11" s="9"/>
       <c r="AR11" s="9"/>
-      <c r="AS11" s="20"/>
+      <c r="AS11" s="17"/>
       <c r="AT11" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AU11" s="9"/>
       <c r="AV11" s="9"/>
@@ -3871,971 +4524,971 @@
       <c r="BF11" s="9"/>
       <c r="BG11" s="9"/>
       <c r="BH11" s="9"/>
-      <c r="BI11" s="20"/>
+      <c r="BI11" s="17"/>
     </row>
     <row r="12" spans="1:61">
       <c r="A12" s="3"/>
       <c r="B12" s="10"/>
       <c r="C12" s="11"/>
-      <c r="D12" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
+      <c r="D12" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
       <c r="N12" s="11"/>
       <c r="O12" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="17"/>
-      <c r="Y12" s="17"/>
-      <c r="Z12" s="17"/>
-      <c r="AA12" s="17"/>
-      <c r="AB12" s="17"/>
-      <c r="AC12" s="17"/>
-      <c r="AD12" s="17"/>
+        <v>47</v>
+      </c>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="12"/>
       <c r="AE12" s="11"/>
       <c r="AF12" s="10"/>
-      <c r="AG12" s="17"/>
-      <c r="AH12" s="17"/>
-      <c r="AI12" s="17"/>
-      <c r="AJ12" s="17"/>
-      <c r="AK12" s="17"/>
-      <c r="AL12" s="17"/>
-      <c r="AM12" s="17"/>
-      <c r="AN12" s="17"/>
-      <c r="AO12" s="17"/>
-      <c r="AP12" s="17"/>
-      <c r="AQ12" s="17"/>
-      <c r="AR12" s="17"/>
+      <c r="AG12" s="12"/>
+      <c r="AH12" s="12"/>
+      <c r="AI12" s="12"/>
+      <c r="AJ12" s="12"/>
+      <c r="AK12" s="12"/>
+      <c r="AL12" s="12"/>
+      <c r="AM12" s="12"/>
+      <c r="AN12" s="12"/>
+      <c r="AO12" s="12"/>
+      <c r="AP12" s="12"/>
+      <c r="AQ12" s="12"/>
+      <c r="AR12" s="12"/>
       <c r="AS12" s="11"/>
       <c r="AT12" s="10"/>
-      <c r="AU12" s="17"/>
-      <c r="AV12" s="17"/>
-      <c r="AW12" s="17"/>
-      <c r="AX12" s="17"/>
-      <c r="AY12" s="17"/>
-      <c r="AZ12" s="17"/>
-      <c r="BA12" s="17"/>
-      <c r="BB12" s="17"/>
-      <c r="BC12" s="17"/>
-      <c r="BD12" s="17"/>
-      <c r="BE12" s="17"/>
-      <c r="BF12" s="17"/>
-      <c r="BG12" s="17"/>
-      <c r="BH12" s="17"/>
+      <c r="AU12" s="12"/>
+      <c r="AV12" s="12"/>
+      <c r="AW12" s="12"/>
+      <c r="AX12" s="12"/>
+      <c r="AY12" s="12"/>
+      <c r="AZ12" s="12"/>
+      <c r="BA12" s="12"/>
+      <c r="BB12" s="12"/>
+      <c r="BC12" s="12"/>
+      <c r="BD12" s="12"/>
+      <c r="BE12" s="12"/>
+      <c r="BF12" s="12"/>
+      <c r="BG12" s="12"/>
+      <c r="BH12" s="12"/>
       <c r="BI12" s="11"/>
     </row>
     <row r="13" spans="1:61">
       <c r="A13" s="3"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
-      <c r="X13" s="13"/>
-      <c r="Y13" s="13"/>
-      <c r="Z13" s="13"/>
-      <c r="AA13" s="13"/>
-      <c r="AB13" s="13"/>
-      <c r="AC13" s="13"/>
-      <c r="AD13" s="13"/>
-      <c r="AE13" s="14"/>
-      <c r="AF13" s="12"/>
-      <c r="AG13" s="13"/>
-      <c r="AH13" s="13"/>
-      <c r="AI13" s="13"/>
-      <c r="AJ13" s="13"/>
-      <c r="AK13" s="13"/>
-      <c r="AL13" s="13"/>
-      <c r="AM13" s="13"/>
-      <c r="AN13" s="13"/>
-      <c r="AO13" s="13"/>
-      <c r="AP13" s="13"/>
-      <c r="AQ13" s="13"/>
-      <c r="AR13" s="13"/>
-      <c r="AS13" s="14"/>
-      <c r="AT13" s="12"/>
-      <c r="AU13" s="13"/>
-      <c r="AV13" s="13"/>
-      <c r="AW13" s="13"/>
-      <c r="AX13" s="13"/>
-      <c r="AY13" s="13"/>
-      <c r="AZ13" s="13"/>
-      <c r="BA13" s="13"/>
-      <c r="BB13" s="13"/>
-      <c r="BC13" s="13"/>
-      <c r="BD13" s="13"/>
-      <c r="BE13" s="13"/>
-      <c r="BF13" s="13"/>
-      <c r="BG13" s="13"/>
-      <c r="BH13" s="13"/>
-      <c r="BI13" s="14"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="14"/>
+      <c r="AE13" s="15"/>
+      <c r="AF13" s="13"/>
+      <c r="AG13" s="14"/>
+      <c r="AH13" s="14"/>
+      <c r="AI13" s="14"/>
+      <c r="AJ13" s="14"/>
+      <c r="AK13" s="14"/>
+      <c r="AL13" s="14"/>
+      <c r="AM13" s="14"/>
+      <c r="AN13" s="14"/>
+      <c r="AO13" s="14"/>
+      <c r="AP13" s="14"/>
+      <c r="AQ13" s="14"/>
+      <c r="AR13" s="14"/>
+      <c r="AS13" s="15"/>
+      <c r="AT13" s="13"/>
+      <c r="AU13" s="14"/>
+      <c r="AV13" s="14"/>
+      <c r="AW13" s="14"/>
+      <c r="AX13" s="14"/>
+      <c r="AY13" s="14"/>
+      <c r="AZ13" s="14"/>
+      <c r="BA13" s="14"/>
+      <c r="BB13" s="14"/>
+      <c r="BC13" s="14"/>
+      <c r="BD13" s="14"/>
+      <c r="BE13" s="14"/>
+      <c r="BF13" s="14"/>
+      <c r="BG13" s="14"/>
+      <c r="BH13" s="14"/>
+      <c r="BI13" s="15"/>
     </row>
     <row r="14" spans="1:61">
       <c r="A14" s="3"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13"/>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="13"/>
-      <c r="Z14" s="13"/>
-      <c r="AA14" s="13"/>
-      <c r="AB14" s="13"/>
-      <c r="AC14" s="13"/>
-      <c r="AD14" s="13"/>
-      <c r="AE14" s="14"/>
-      <c r="AF14" s="21" t="s">
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="AG14" s="13"/>
-      <c r="AH14" s="13"/>
-      <c r="AI14" s="13"/>
-      <c r="AJ14" s="13"/>
-      <c r="AK14" s="13"/>
-      <c r="AL14" s="13"/>
-      <c r="AM14" s="13"/>
-      <c r="AN14" s="13"/>
-      <c r="AO14" s="13"/>
-      <c r="AP14" s="13"/>
-      <c r="AQ14" s="13"/>
-      <c r="AR14" s="13"/>
-      <c r="AS14" s="14"/>
-      <c r="AT14" s="22" t="s">
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="AU14" s="13"/>
-      <c r="AV14" s="13"/>
-      <c r="AW14" s="13"/>
-      <c r="AX14" s="13"/>
-      <c r="AY14" s="13"/>
-      <c r="AZ14" s="13"/>
-      <c r="BA14" s="13"/>
-      <c r="BB14" s="13"/>
-      <c r="BC14" s="13"/>
-      <c r="BD14" s="13"/>
-      <c r="BE14" s="13"/>
-      <c r="BF14" s="13"/>
-      <c r="BG14" s="13"/>
-      <c r="BH14" s="13"/>
-      <c r="BI14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="14"/>
+      <c r="AC14" s="14"/>
+      <c r="AD14" s="14"/>
+      <c r="AE14" s="15"/>
+      <c r="AF14" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG14" s="14"/>
+      <c r="AH14" s="14"/>
+      <c r="AI14" s="14"/>
+      <c r="AJ14" s="14"/>
+      <c r="AK14" s="14"/>
+      <c r="AL14" s="14"/>
+      <c r="AM14" s="14"/>
+      <c r="AN14" s="14"/>
+      <c r="AO14" s="14"/>
+      <c r="AP14" s="14"/>
+      <c r="AQ14" s="14"/>
+      <c r="AR14" s="14"/>
+      <c r="AS14" s="15"/>
+      <c r="AT14" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="AU14" s="14"/>
+      <c r="AV14" s="14"/>
+      <c r="AW14" s="14"/>
+      <c r="AX14" s="14"/>
+      <c r="AY14" s="14"/>
+      <c r="AZ14" s="14"/>
+      <c r="BA14" s="14"/>
+      <c r="BB14" s="14"/>
+      <c r="BC14" s="14"/>
+      <c r="BD14" s="14"/>
+      <c r="BE14" s="14"/>
+      <c r="BF14" s="14"/>
+      <c r="BG14" s="14"/>
+      <c r="BH14" s="14"/>
+      <c r="BI14" s="15"/>
     </row>
     <row r="15" spans="1:61">
       <c r="A15" s="3"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="13"/>
-      <c r="X15" s="13"/>
-      <c r="Y15" s="13"/>
-      <c r="Z15" s="13"/>
-      <c r="AA15" s="13"/>
-      <c r="AB15" s="13"/>
-      <c r="AC15" s="13"/>
-      <c r="AD15" s="13"/>
-      <c r="AE15" s="14"/>
-      <c r="AF15" s="22" t="s">
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="AG15" s="13"/>
-      <c r="AH15" s="13"/>
-      <c r="AI15" s="13"/>
-      <c r="AJ15" s="13"/>
-      <c r="AK15" s="13"/>
-      <c r="AL15" s="13"/>
-      <c r="AM15" s="13"/>
-      <c r="AN15" s="13"/>
-      <c r="AO15" s="13"/>
-      <c r="AP15" s="13"/>
-      <c r="AQ15" s="13"/>
-      <c r="AR15" s="13"/>
-      <c r="AS15" s="14"/>
-      <c r="AT15" s="22" t="s">
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="AU15" s="13"/>
-      <c r="AV15" s="13"/>
-      <c r="AW15" s="13"/>
-      <c r="AX15" s="13"/>
-      <c r="AY15" s="13"/>
-      <c r="AZ15" s="13"/>
-      <c r="BA15" s="13"/>
-      <c r="BB15" s="13"/>
-      <c r="BC15" s="13"/>
-      <c r="BD15" s="13"/>
-      <c r="BE15" s="13"/>
-      <c r="BF15" s="13"/>
-      <c r="BG15" s="13"/>
-      <c r="BH15" s="13"/>
-      <c r="BI15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="14"/>
+      <c r="AC15" s="14"/>
+      <c r="AD15" s="14"/>
+      <c r="AE15" s="15"/>
+      <c r="AF15" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG15" s="14"/>
+      <c r="AH15" s="14"/>
+      <c r="AI15" s="14"/>
+      <c r="AJ15" s="14"/>
+      <c r="AK15" s="14"/>
+      <c r="AL15" s="14"/>
+      <c r="AM15" s="14"/>
+      <c r="AN15" s="14"/>
+      <c r="AO15" s="14"/>
+      <c r="AP15" s="14"/>
+      <c r="AQ15" s="14"/>
+      <c r="AR15" s="14"/>
+      <c r="AS15" s="15"/>
+      <c r="AT15" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU15" s="14"/>
+      <c r="AV15" s="14"/>
+      <c r="AW15" s="14"/>
+      <c r="AX15" s="14"/>
+      <c r="AY15" s="14"/>
+      <c r="AZ15" s="14"/>
+      <c r="BA15" s="14"/>
+      <c r="BB15" s="14"/>
+      <c r="BC15" s="14"/>
+      <c r="BD15" s="14"/>
+      <c r="BE15" s="14"/>
+      <c r="BF15" s="14"/>
+      <c r="BG15" s="14"/>
+      <c r="BH15" s="14"/>
+      <c r="BI15" s="15"/>
     </row>
     <row r="16" spans="1:61">
       <c r="A16" s="3"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="13"/>
-      <c r="Z16" s="13"/>
-      <c r="AA16" s="13"/>
-      <c r="AB16" s="13"/>
-      <c r="AC16" s="13"/>
-      <c r="AD16" s="13"/>
-      <c r="AE16" s="14"/>
-      <c r="AF16" s="22" t="s">
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="AG16" s="13"/>
-      <c r="AH16" s="13"/>
-      <c r="AI16" s="13"/>
-      <c r="AJ16" s="13"/>
-      <c r="AK16" s="13"/>
-      <c r="AL16" s="13"/>
-      <c r="AM16" s="13"/>
-      <c r="AN16" s="13"/>
-      <c r="AO16" s="13"/>
-      <c r="AP16" s="13"/>
-      <c r="AQ16" s="13"/>
-      <c r="AR16" s="13"/>
-      <c r="AS16" s="14"/>
-      <c r="AT16" s="22" t="s">
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU16" s="13"/>
-      <c r="AV16" s="13"/>
-      <c r="AW16" s="13"/>
-      <c r="AX16" s="13"/>
-      <c r="AY16" s="13"/>
-      <c r="AZ16" s="13"/>
-      <c r="BA16" s="13"/>
-      <c r="BB16" s="13"/>
-      <c r="BC16" s="13"/>
-      <c r="BD16" s="13"/>
-      <c r="BE16" s="13"/>
-      <c r="BF16" s="13"/>
-      <c r="BG16" s="13"/>
-      <c r="BH16" s="13"/>
-      <c r="BI16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="14"/>
+      <c r="Y16" s="14"/>
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="14"/>
+      <c r="AC16" s="14"/>
+      <c r="AD16" s="14"/>
+      <c r="AE16" s="15"/>
+      <c r="AF16" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG16" s="14"/>
+      <c r="AH16" s="14"/>
+      <c r="AI16" s="14"/>
+      <c r="AJ16" s="14"/>
+      <c r="AK16" s="14"/>
+      <c r="AL16" s="14"/>
+      <c r="AM16" s="14"/>
+      <c r="AN16" s="14"/>
+      <c r="AO16" s="14"/>
+      <c r="AP16" s="14"/>
+      <c r="AQ16" s="14"/>
+      <c r="AR16" s="14"/>
+      <c r="AS16" s="15"/>
+      <c r="AT16" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="AU16" s="14"/>
+      <c r="AV16" s="14"/>
+      <c r="AW16" s="14"/>
+      <c r="AX16" s="14"/>
+      <c r="AY16" s="14"/>
+      <c r="AZ16" s="14"/>
+      <c r="BA16" s="14"/>
+      <c r="BB16" s="14"/>
+      <c r="BC16" s="14"/>
+      <c r="BD16" s="14"/>
+      <c r="BE16" s="14"/>
+      <c r="BF16" s="14"/>
+      <c r="BG16" s="14"/>
+      <c r="BH16" s="14"/>
+      <c r="BI16" s="15"/>
     </row>
     <row r="17" spans="1:61">
       <c r="A17" s="3"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="13"/>
-      <c r="W17" s="13"/>
-      <c r="X17" s="13"/>
-      <c r="Y17" s="13"/>
-      <c r="Z17" s="13"/>
-      <c r="AA17" s="13"/>
-      <c r="AB17" s="13"/>
-      <c r="AC17" s="13"/>
-      <c r="AD17" s="13"/>
-      <c r="AE17" s="14"/>
-      <c r="AF17" s="22" t="s">
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="AG17" s="13"/>
-      <c r="AH17" s="13"/>
-      <c r="AI17" s="13"/>
-      <c r="AJ17" s="13"/>
-      <c r="AK17" s="13"/>
-      <c r="AL17" s="13"/>
-      <c r="AM17" s="13"/>
-      <c r="AN17" s="13"/>
-      <c r="AO17" s="13"/>
-      <c r="AP17" s="13"/>
-      <c r="AQ17" s="13"/>
-      <c r="AR17" s="13"/>
-      <c r="AS17" s="14"/>
-      <c r="AT17" s="22" t="s">
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="AU17" s="13"/>
-      <c r="AV17" s="13"/>
-      <c r="AW17" s="13"/>
-      <c r="AX17" s="13"/>
-      <c r="AY17" s="13"/>
-      <c r="AZ17" s="13"/>
-      <c r="BA17" s="13"/>
-      <c r="BB17" s="13"/>
-      <c r="BC17" s="13"/>
-      <c r="BD17" s="13"/>
-      <c r="BE17" s="13"/>
-      <c r="BF17" s="13"/>
-      <c r="BG17" s="13"/>
-      <c r="BH17" s="13"/>
-      <c r="BI17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="14"/>
+      <c r="AC17" s="14"/>
+      <c r="AD17" s="14"/>
+      <c r="AE17" s="15"/>
+      <c r="AF17" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG17" s="14"/>
+      <c r="AH17" s="14"/>
+      <c r="AI17" s="14"/>
+      <c r="AJ17" s="14"/>
+      <c r="AK17" s="14"/>
+      <c r="AL17" s="14"/>
+      <c r="AM17" s="14"/>
+      <c r="AN17" s="14"/>
+      <c r="AO17" s="14"/>
+      <c r="AP17" s="14"/>
+      <c r="AQ17" s="14"/>
+      <c r="AR17" s="14"/>
+      <c r="AS17" s="15"/>
+      <c r="AT17" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU17" s="14"/>
+      <c r="AV17" s="14"/>
+      <c r="AW17" s="14"/>
+      <c r="AX17" s="14"/>
+      <c r="AY17" s="14"/>
+      <c r="AZ17" s="14"/>
+      <c r="BA17" s="14"/>
+      <c r="BB17" s="14"/>
+      <c r="BC17" s="14"/>
+      <c r="BD17" s="14"/>
+      <c r="BE17" s="14"/>
+      <c r="BF17" s="14"/>
+      <c r="BG17" s="14"/>
+      <c r="BH17" s="14"/>
+      <c r="BI17" s="15"/>
     </row>
     <row r="18" spans="1:61">
       <c r="A18" s="3"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="13"/>
-      <c r="AA18" s="13"/>
-      <c r="AB18" s="13"/>
-      <c r="AC18" s="13"/>
-      <c r="AD18" s="13"/>
-      <c r="AE18" s="14"/>
-      <c r="AF18" s="22" t="s">
+      <c r="B18" s="13"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="AG18" s="13"/>
-      <c r="AH18" s="13"/>
-      <c r="AI18" s="13"/>
-      <c r="AJ18" s="13"/>
-      <c r="AK18" s="13"/>
-      <c r="AL18" s="13"/>
-      <c r="AM18" s="13"/>
-      <c r="AN18" s="13"/>
-      <c r="AO18" s="13"/>
-      <c r="AP18" s="13"/>
-      <c r="AQ18" s="13"/>
-      <c r="AR18" s="13"/>
-      <c r="AS18" s="14"/>
-      <c r="AT18" s="22" t="s">
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="AU18" s="13"/>
-      <c r="AV18" s="13"/>
-      <c r="AW18" s="13"/>
-      <c r="AX18" s="13"/>
-      <c r="AY18" s="13"/>
-      <c r="AZ18" s="13"/>
-      <c r="BA18" s="13"/>
-      <c r="BB18" s="13"/>
-      <c r="BC18" s="13"/>
-      <c r="BD18" s="13"/>
-      <c r="BE18" s="13"/>
-      <c r="BF18" s="13"/>
-      <c r="BG18" s="13"/>
-      <c r="BH18" s="13"/>
-      <c r="BI18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="14"/>
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="14"/>
+      <c r="AC18" s="14"/>
+      <c r="AD18" s="14"/>
+      <c r="AE18" s="15"/>
+      <c r="AF18" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG18" s="14"/>
+      <c r="AH18" s="14"/>
+      <c r="AI18" s="14"/>
+      <c r="AJ18" s="14"/>
+      <c r="AK18" s="14"/>
+      <c r="AL18" s="14"/>
+      <c r="AM18" s="14"/>
+      <c r="AN18" s="14"/>
+      <c r="AO18" s="14"/>
+      <c r="AP18" s="14"/>
+      <c r="AQ18" s="14"/>
+      <c r="AR18" s="14"/>
+      <c r="AS18" s="15"/>
+      <c r="AT18" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU18" s="14"/>
+      <c r="AV18" s="14"/>
+      <c r="AW18" s="14"/>
+      <c r="AX18" s="14"/>
+      <c r="AY18" s="14"/>
+      <c r="AZ18" s="14"/>
+      <c r="BA18" s="14"/>
+      <c r="BB18" s="14"/>
+      <c r="BC18" s="14"/>
+      <c r="BD18" s="14"/>
+      <c r="BE18" s="14"/>
+      <c r="BF18" s="14"/>
+      <c r="BG18" s="14"/>
+      <c r="BH18" s="14"/>
+      <c r="BI18" s="15"/>
     </row>
     <row r="19" spans="1:61">
       <c r="A19" s="3"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="13"/>
-      <c r="W19" s="13"/>
-      <c r="X19" s="13"/>
-      <c r="Y19" s="13"/>
-      <c r="Z19" s="13"/>
-      <c r="AA19" s="13"/>
-      <c r="AB19" s="13"/>
-      <c r="AC19" s="13"/>
-      <c r="AD19" s="13"/>
-      <c r="AE19" s="14"/>
-      <c r="AF19" s="22" t="s">
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="AG19" s="13"/>
-      <c r="AH19" s="13"/>
-      <c r="AI19" s="13"/>
-      <c r="AJ19" s="13"/>
-      <c r="AK19" s="13"/>
-      <c r="AL19" s="13"/>
-      <c r="AM19" s="13"/>
-      <c r="AN19" s="13"/>
-      <c r="AO19" s="13"/>
-      <c r="AP19" s="13"/>
-      <c r="AQ19" s="13"/>
-      <c r="AR19" s="13"/>
-      <c r="AS19" s="14"/>
-      <c r="AT19" s="22" t="s">
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="AU19" s="13"/>
-      <c r="AV19" s="13"/>
-      <c r="AW19" s="13"/>
-      <c r="AX19" s="13"/>
-      <c r="AY19" s="13"/>
-      <c r="AZ19" s="13"/>
-      <c r="BA19" s="13"/>
-      <c r="BB19" s="13"/>
-      <c r="BC19" s="13"/>
-      <c r="BD19" s="13"/>
-      <c r="BE19" s="13"/>
-      <c r="BF19" s="13"/>
-      <c r="BG19" s="13"/>
-      <c r="BH19" s="13"/>
-      <c r="BI19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="14"/>
+      <c r="AB19" s="14"/>
+      <c r="AC19" s="14"/>
+      <c r="AD19" s="14"/>
+      <c r="AE19" s="15"/>
+      <c r="AF19" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG19" s="14"/>
+      <c r="AH19" s="14"/>
+      <c r="AI19" s="14"/>
+      <c r="AJ19" s="14"/>
+      <c r="AK19" s="14"/>
+      <c r="AL19" s="14"/>
+      <c r="AM19" s="14"/>
+      <c r="AN19" s="14"/>
+      <c r="AO19" s="14"/>
+      <c r="AP19" s="14"/>
+      <c r="AQ19" s="14"/>
+      <c r="AR19" s="14"/>
+      <c r="AS19" s="15"/>
+      <c r="AT19" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU19" s="14"/>
+      <c r="AV19" s="14"/>
+      <c r="AW19" s="14"/>
+      <c r="AX19" s="14"/>
+      <c r="AY19" s="14"/>
+      <c r="AZ19" s="14"/>
+      <c r="BA19" s="14"/>
+      <c r="BB19" s="14"/>
+      <c r="BC19" s="14"/>
+      <c r="BD19" s="14"/>
+      <c r="BE19" s="14"/>
+      <c r="BF19" s="14"/>
+      <c r="BG19" s="14"/>
+      <c r="BH19" s="14"/>
+      <c r="BI19" s="15"/>
     </row>
     <row r="20" spans="1:61">
       <c r="A20" s="3"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="G20" s="13"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="13"/>
-      <c r="V20" s="13"/>
-      <c r="W20" s="13"/>
-      <c r="X20" s="13"/>
-      <c r="Y20" s="13"/>
-      <c r="Z20" s="13"/>
-      <c r="AA20" s="13"/>
-      <c r="AB20" s="13"/>
-      <c r="AC20" s="13"/>
-      <c r="AD20" s="13"/>
-      <c r="AE20" s="14"/>
-      <c r="AF20" s="22" t="s">
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="AG20" s="13"/>
-      <c r="AH20" s="13"/>
-      <c r="AI20" s="13"/>
-      <c r="AJ20" s="13"/>
-      <c r="AK20" s="13"/>
-      <c r="AL20" s="13"/>
-      <c r="AM20" s="13"/>
-      <c r="AN20" s="13"/>
-      <c r="AO20" s="13"/>
-      <c r="AP20" s="13"/>
-      <c r="AQ20" s="13"/>
-      <c r="AR20" s="13"/>
-      <c r="AS20" s="14"/>
-      <c r="AT20" s="22" t="s">
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="AU20" s="13"/>
-      <c r="AV20" s="13"/>
-      <c r="AW20" s="13"/>
-      <c r="AX20" s="13"/>
-      <c r="AY20" s="13"/>
-      <c r="AZ20" s="13"/>
-      <c r="BA20" s="13"/>
-      <c r="BB20" s="13"/>
-      <c r="BC20" s="13"/>
-      <c r="BD20" s="13"/>
-      <c r="BE20" s="13"/>
-      <c r="BF20" s="13"/>
-      <c r="BG20" s="13"/>
-      <c r="BH20" s="13"/>
-      <c r="BI20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="14"/>
+      <c r="Z20" s="14"/>
+      <c r="AA20" s="14"/>
+      <c r="AB20" s="14"/>
+      <c r="AC20" s="14"/>
+      <c r="AD20" s="14"/>
+      <c r="AE20" s="15"/>
+      <c r="AF20" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG20" s="14"/>
+      <c r="AH20" s="14"/>
+      <c r="AI20" s="14"/>
+      <c r="AJ20" s="14"/>
+      <c r="AK20" s="14"/>
+      <c r="AL20" s="14"/>
+      <c r="AM20" s="14"/>
+      <c r="AN20" s="14"/>
+      <c r="AO20" s="14"/>
+      <c r="AP20" s="14"/>
+      <c r="AQ20" s="14"/>
+      <c r="AR20" s="14"/>
+      <c r="AS20" s="15"/>
+      <c r="AT20" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU20" s="14"/>
+      <c r="AV20" s="14"/>
+      <c r="AW20" s="14"/>
+      <c r="AX20" s="14"/>
+      <c r="AY20" s="14"/>
+      <c r="AZ20" s="14"/>
+      <c r="BA20" s="14"/>
+      <c r="BB20" s="14"/>
+      <c r="BC20" s="14"/>
+      <c r="BD20" s="14"/>
+      <c r="BE20" s="14"/>
+      <c r="BF20" s="14"/>
+      <c r="BG20" s="14"/>
+      <c r="BH20" s="14"/>
+      <c r="BI20" s="15"/>
     </row>
     <row r="21" spans="1:61">
       <c r="A21" s="3"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="13"/>
-      <c r="U21" s="13"/>
-      <c r="V21" s="13"/>
-      <c r="W21" s="13"/>
-      <c r="X21" s="13"/>
-      <c r="Y21" s="13"/>
-      <c r="Z21" s="13"/>
-      <c r="AA21" s="13"/>
-      <c r="AB21" s="13"/>
-      <c r="AC21" s="13"/>
-      <c r="AD21" s="13"/>
-      <c r="AE21" s="14"/>
-      <c r="AF21" s="12"/>
-      <c r="AG21" s="13"/>
-      <c r="AH21" s="13"/>
-      <c r="AI21" s="13"/>
-      <c r="AJ21" s="13"/>
-      <c r="AK21" s="13"/>
-      <c r="AL21" s="13"/>
-      <c r="AM21" s="13"/>
-      <c r="AN21" s="13"/>
-      <c r="AO21" s="13"/>
-      <c r="AP21" s="13"/>
-      <c r="AQ21" s="13"/>
-      <c r="AR21" s="13"/>
-      <c r="AS21" s="14"/>
-      <c r="AT21" s="23"/>
-      <c r="AU21" s="13"/>
-      <c r="AV21" s="13"/>
-      <c r="AW21" s="13"/>
-      <c r="AX21" s="13"/>
-      <c r="AY21" s="13"/>
-      <c r="AZ21" s="13"/>
-      <c r="BA21" s="13"/>
-      <c r="BB21" s="13"/>
-      <c r="BC21" s="13"/>
-      <c r="BD21" s="13"/>
-      <c r="BE21" s="13"/>
-      <c r="BF21" s="13"/>
-      <c r="BG21" s="13"/>
-      <c r="BH21" s="13"/>
-      <c r="BI21" s="14"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
+      <c r="X21" s="14"/>
+      <c r="Y21" s="14"/>
+      <c r="Z21" s="14"/>
+      <c r="AA21" s="14"/>
+      <c r="AB21" s="14"/>
+      <c r="AC21" s="14"/>
+      <c r="AD21" s="14"/>
+      <c r="AE21" s="15"/>
+      <c r="AF21" s="13"/>
+      <c r="AG21" s="14"/>
+      <c r="AH21" s="14"/>
+      <c r="AI21" s="14"/>
+      <c r="AJ21" s="14"/>
+      <c r="AK21" s="14"/>
+      <c r="AL21" s="14"/>
+      <c r="AM21" s="14"/>
+      <c r="AN21" s="14"/>
+      <c r="AO21" s="14"/>
+      <c r="AP21" s="14"/>
+      <c r="AQ21" s="14"/>
+      <c r="AR21" s="14"/>
+      <c r="AS21" s="15"/>
+      <c r="AT21" s="21"/>
+      <c r="AU21" s="14"/>
+      <c r="AV21" s="14"/>
+      <c r="AW21" s="14"/>
+      <c r="AX21" s="14"/>
+      <c r="AY21" s="14"/>
+      <c r="AZ21" s="14"/>
+      <c r="BA21" s="14"/>
+      <c r="BB21" s="14"/>
+      <c r="BC21" s="14"/>
+      <c r="BD21" s="14"/>
+      <c r="BE21" s="14"/>
+      <c r="BF21" s="14"/>
+      <c r="BG21" s="14"/>
+      <c r="BH21" s="14"/>
+      <c r="BI21" s="15"/>
     </row>
     <row r="22" spans="1:61">
       <c r="A22" s="3"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="H22" s="18"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="13"/>
-      <c r="W22" s="13"/>
-      <c r="X22" s="13"/>
-      <c r="Y22" s="13"/>
-      <c r="Z22" s="13"/>
-      <c r="AA22" s="13"/>
-      <c r="AB22" s="13"/>
-      <c r="AC22" s="13"/>
-      <c r="AD22" s="13"/>
-      <c r="AE22" s="14"/>
-      <c r="AF22" s="22" t="s">
+      <c r="B22" s="13"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="AG22" s="13"/>
-      <c r="AH22" s="13"/>
-      <c r="AI22" s="13"/>
-      <c r="AJ22" s="13"/>
-      <c r="AK22" s="13"/>
-      <c r="AL22" s="13"/>
-      <c r="AM22" s="13"/>
-      <c r="AN22" s="13"/>
-      <c r="AO22" s="13"/>
-      <c r="AP22" s="13"/>
-      <c r="AQ22" s="13"/>
-      <c r="AR22" s="13"/>
-      <c r="AS22" s="14"/>
-      <c r="AT22" s="22" t="s">
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="AU22" s="13"/>
-      <c r="AV22" s="13"/>
-      <c r="AW22" s="13"/>
-      <c r="AX22" s="13"/>
-      <c r="AY22" s="13"/>
-      <c r="AZ22" s="13"/>
-      <c r="BA22" s="13"/>
-      <c r="BB22" s="13"/>
-      <c r="BC22" s="13"/>
-      <c r="BD22" s="13"/>
-      <c r="BE22" s="13"/>
-      <c r="BF22" s="13"/>
-      <c r="BG22" s="13"/>
-      <c r="BH22" s="13"/>
-      <c r="BI22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="14"/>
+      <c r="W22" s="14"/>
+      <c r="X22" s="14"/>
+      <c r="Y22" s="14"/>
+      <c r="Z22" s="14"/>
+      <c r="AA22" s="14"/>
+      <c r="AB22" s="14"/>
+      <c r="AC22" s="14"/>
+      <c r="AD22" s="14"/>
+      <c r="AE22" s="15"/>
+      <c r="AF22" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG22" s="14"/>
+      <c r="AH22" s="14"/>
+      <c r="AI22" s="14"/>
+      <c r="AJ22" s="14"/>
+      <c r="AK22" s="14"/>
+      <c r="AL22" s="14"/>
+      <c r="AM22" s="14"/>
+      <c r="AN22" s="14"/>
+      <c r="AO22" s="14"/>
+      <c r="AP22" s="14"/>
+      <c r="AQ22" s="14"/>
+      <c r="AR22" s="14"/>
+      <c r="AS22" s="15"/>
+      <c r="AT22" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU22" s="14"/>
+      <c r="AV22" s="14"/>
+      <c r="AW22" s="14"/>
+      <c r="AX22" s="14"/>
+      <c r="AY22" s="14"/>
+      <c r="AZ22" s="14"/>
+      <c r="BA22" s="14"/>
+      <c r="BB22" s="14"/>
+      <c r="BC22" s="14"/>
+      <c r="BD22" s="14"/>
+      <c r="BE22" s="14"/>
+      <c r="BF22" s="14"/>
+      <c r="BG22" s="14"/>
+      <c r="BH22" s="14"/>
+      <c r="BI22" s="15"/>
     </row>
     <row r="23" spans="1:61">
       <c r="A23" s="3"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="13"/>
-      <c r="U23" s="13"/>
-      <c r="V23" s="13"/>
-      <c r="W23" s="13"/>
-      <c r="X23" s="13"/>
-      <c r="Y23" s="13"/>
-      <c r="Z23" s="13"/>
-      <c r="AA23" s="13"/>
-      <c r="AB23" s="13"/>
-      <c r="AC23" s="13"/>
-      <c r="AD23" s="13"/>
-      <c r="AE23" s="14"/>
-      <c r="AF23" s="22" t="s">
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="AG23" s="13"/>
-      <c r="AH23" s="13"/>
-      <c r="AI23" s="13"/>
-      <c r="AJ23" s="13"/>
-      <c r="AK23" s="13"/>
-      <c r="AL23" s="13"/>
-      <c r="AM23" s="13"/>
-      <c r="AN23" s="13"/>
-      <c r="AO23" s="13"/>
-      <c r="AP23" s="13"/>
-      <c r="AQ23" s="13"/>
-      <c r="AR23" s="13"/>
-      <c r="AS23" s="14"/>
-      <c r="AT23" s="22" t="s">
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="AU23" s="13"/>
-      <c r="AV23" s="13"/>
-      <c r="AW23" s="13"/>
-      <c r="AX23" s="13"/>
-      <c r="AY23" s="13"/>
-      <c r="AZ23" s="13"/>
-      <c r="BA23" s="13"/>
-      <c r="BB23" s="13"/>
-      <c r="BC23" s="13"/>
-      <c r="BD23" s="13"/>
-      <c r="BE23" s="13"/>
-      <c r="BF23" s="13"/>
-      <c r="BG23" s="13"/>
-      <c r="BH23" s="13"/>
-      <c r="BI23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="14"/>
+      <c r="Z23" s="14"/>
+      <c r="AA23" s="14"/>
+      <c r="AB23" s="14"/>
+      <c r="AC23" s="14"/>
+      <c r="AD23" s="14"/>
+      <c r="AE23" s="15"/>
+      <c r="AF23" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG23" s="14"/>
+      <c r="AH23" s="14"/>
+      <c r="AI23" s="14"/>
+      <c r="AJ23" s="14"/>
+      <c r="AK23" s="14"/>
+      <c r="AL23" s="14"/>
+      <c r="AM23" s="14"/>
+      <c r="AN23" s="14"/>
+      <c r="AO23" s="14"/>
+      <c r="AP23" s="14"/>
+      <c r="AQ23" s="14"/>
+      <c r="AR23" s="14"/>
+      <c r="AS23" s="15"/>
+      <c r="AT23" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU23" s="14"/>
+      <c r="AV23" s="14"/>
+      <c r="AW23" s="14"/>
+      <c r="AX23" s="14"/>
+      <c r="AY23" s="14"/>
+      <c r="AZ23" s="14"/>
+      <c r="BA23" s="14"/>
+      <c r="BB23" s="14"/>
+      <c r="BC23" s="14"/>
+      <c r="BD23" s="14"/>
+      <c r="BE23" s="14"/>
+      <c r="BF23" s="14"/>
+      <c r="BG23" s="14"/>
+      <c r="BH23" s="14"/>
+      <c r="BI23" s="15"/>
     </row>
     <row r="24" spans="1:61">
       <c r="A24" s="3"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="13"/>
-      <c r="S24" s="13"/>
-      <c r="T24" s="13"/>
-      <c r="U24" s="13"/>
-      <c r="V24" s="13"/>
-      <c r="W24" s="13"/>
-      <c r="X24" s="13"/>
-      <c r="Y24" s="13"/>
-      <c r="Z24" s="13"/>
-      <c r="AA24" s="13"/>
-      <c r="AB24" s="13"/>
-      <c r="AC24" s="13"/>
-      <c r="AD24" s="13"/>
-      <c r="AE24" s="14"/>
-      <c r="AF24" s="12"/>
-      <c r="AG24" s="13"/>
-      <c r="AH24" s="13"/>
-      <c r="AI24" s="13"/>
-      <c r="AJ24" s="13"/>
-      <c r="AK24" s="13"/>
-      <c r="AL24" s="13"/>
-      <c r="AM24" s="13"/>
-      <c r="AN24" s="13"/>
-      <c r="AO24" s="13"/>
-      <c r="AP24" s="13"/>
-      <c r="AQ24" s="13"/>
-      <c r="AR24" s="13"/>
-      <c r="AS24" s="14"/>
-      <c r="AT24" s="12"/>
-      <c r="AU24" s="13"/>
-      <c r="AV24" s="13"/>
-      <c r="AW24" s="13"/>
-      <c r="AX24" s="13"/>
-      <c r="AY24" s="13"/>
-      <c r="AZ24" s="13"/>
-      <c r="BA24" s="13"/>
-      <c r="BB24" s="13"/>
-      <c r="BC24" s="13"/>
-      <c r="BD24" s="13"/>
-      <c r="BE24" s="13"/>
-      <c r="BF24" s="13"/>
-      <c r="BG24" s="13"/>
-      <c r="BH24" s="13"/>
-      <c r="BI24" s="14"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="14"/>
+      <c r="X24" s="14"/>
+      <c r="Y24" s="14"/>
+      <c r="Z24" s="14"/>
+      <c r="AA24" s="14"/>
+      <c r="AB24" s="14"/>
+      <c r="AC24" s="14"/>
+      <c r="AD24" s="14"/>
+      <c r="AE24" s="15"/>
+      <c r="AF24" s="13"/>
+      <c r="AG24" s="14"/>
+      <c r="AH24" s="14"/>
+      <c r="AI24" s="14"/>
+      <c r="AJ24" s="14"/>
+      <c r="AK24" s="14"/>
+      <c r="AL24" s="14"/>
+      <c r="AM24" s="14"/>
+      <c r="AN24" s="14"/>
+      <c r="AO24" s="14"/>
+      <c r="AP24" s="14"/>
+      <c r="AQ24" s="14"/>
+      <c r="AR24" s="14"/>
+      <c r="AS24" s="15"/>
+      <c r="AT24" s="13"/>
+      <c r="AU24" s="14"/>
+      <c r="AV24" s="14"/>
+      <c r="AW24" s="14"/>
+      <c r="AX24" s="14"/>
+      <c r="AY24" s="14"/>
+      <c r="AZ24" s="14"/>
+      <c r="BA24" s="14"/>
+      <c r="BB24" s="14"/>
+      <c r="BC24" s="14"/>
+      <c r="BD24" s="14"/>
+      <c r="BE24" s="14"/>
+      <c r="BF24" s="14"/>
+      <c r="BG24" s="14"/>
+      <c r="BH24" s="14"/>
+      <c r="BI24" s="15"/>
     </row>
     <row r="25" spans="1:61">
-      <c r="A25" s="15"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="16"/>
-      <c r="S25" s="16"/>
-      <c r="T25" s="16"/>
-      <c r="U25" s="16"/>
-      <c r="V25" s="16"/>
-      <c r="W25" s="16"/>
-      <c r="X25" s="16"/>
-      <c r="Y25" s="16"/>
-      <c r="Z25" s="16"/>
-      <c r="AA25" s="16"/>
-      <c r="AB25" s="16"/>
-      <c r="AC25" s="16"/>
-      <c r="AD25" s="16"/>
-      <c r="AE25" s="14"/>
-      <c r="AF25" s="12"/>
-      <c r="AG25" s="16"/>
-      <c r="AH25" s="16"/>
-      <c r="AI25" s="16"/>
-      <c r="AJ25" s="16"/>
-      <c r="AK25" s="16"/>
-      <c r="AL25" s="16"/>
-      <c r="AM25" s="16"/>
-      <c r="AN25" s="16"/>
-      <c r="AO25" s="16"/>
-      <c r="AP25" s="16"/>
-      <c r="AQ25" s="16"/>
-      <c r="AR25" s="16"/>
-      <c r="AS25" s="14"/>
-      <c r="AT25" s="12"/>
-      <c r="AU25" s="16"/>
-      <c r="AV25" s="16"/>
-      <c r="AW25" s="16"/>
-      <c r="AX25" s="16"/>
-      <c r="AY25" s="16"/>
-      <c r="AZ25" s="16"/>
-      <c r="BA25" s="16"/>
-      <c r="BB25" s="16"/>
-      <c r="BC25" s="16"/>
-      <c r="BD25" s="16"/>
-      <c r="BE25" s="16"/>
-      <c r="BF25" s="16"/>
-      <c r="BG25" s="16"/>
-      <c r="BH25" s="16"/>
-      <c r="BI25" s="14"/>
-    </row>
-    <row r="26" spans="1:61">
+      <c r="A25" s="16"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="14"/>
+      <c r="W25" s="14"/>
+      <c r="X25" s="14"/>
+      <c r="Y25" s="14"/>
+      <c r="Z25" s="14"/>
+      <c r="AA25" s="14"/>
+      <c r="AB25" s="14"/>
+      <c r="AC25" s="14"/>
+      <c r="AD25" s="14"/>
+      <c r="AE25" s="15"/>
+      <c r="AF25" s="13"/>
+      <c r="AG25" s="14"/>
+      <c r="AH25" s="14"/>
+      <c r="AI25" s="14"/>
+      <c r="AJ25" s="14"/>
+      <c r="AK25" s="14"/>
+      <c r="AL25" s="14"/>
+      <c r="AM25" s="14"/>
+      <c r="AN25" s="14"/>
+      <c r="AO25" s="14"/>
+      <c r="AP25" s="14"/>
+      <c r="AQ25" s="14"/>
+      <c r="AR25" s="14"/>
+      <c r="AS25" s="15"/>
+      <c r="AT25" s="13"/>
+      <c r="AU25" s="14"/>
+      <c r="AV25" s="14"/>
+      <c r="AW25" s="14"/>
+      <c r="AX25" s="14"/>
+      <c r="AY25" s="14"/>
+      <c r="AZ25" s="14"/>
+      <c r="BA25" s="14"/>
+      <c r="BB25" s="14"/>
+      <c r="BC25" s="14"/>
+      <c r="BD25" s="14"/>
+      <c r="BE25" s="14"/>
+      <c r="BF25" s="14"/>
+      <c r="BG25" s="14"/>
+      <c r="BH25" s="14"/>
+      <c r="BI25" s="15"/>
+    </row>
+    <row r="26" spans="2:58">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -4904,12 +5557,15 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.15" footer="0.15"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/doc/plan/RFID_CM_V1.0.xlsx
+++ b/doc/plan/RFID_CM_V1.0.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17571"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Normal_User\Desktop\RFID\doc\plan\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="8850" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="8850" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Record of change" sheetId="1" r:id="rId1"/>
@@ -27,12 +32,12 @@
     <definedName name="Thông_tin_về_SVN">SVN!$B$5</definedName>
     <definedName name="Ý_nghĩa_các_thư_mục">SVN!$B$9</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="86">
   <si>
     <r>
       <rPr>
@@ -160,6 +165,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
       <t>RFID</t>
@@ -217,6 +223,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
       <t>[Tên quy trình]_[Loại tài liệu]</t>
@@ -309,6 +316,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
       <t>KM</t>
@@ -344,6 +352,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
       <t>KM</t>
@@ -392,6 +401,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
       <t>KM</t>
@@ -446,6 +456,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
       <t>KM</t>
@@ -494,6 +505,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
       <t>KM</t>
@@ -548,6 +560,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
       <t>KM</t>
@@ -596,6 +609,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
       <t>KM</t>
@@ -650,6 +664,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
       <t>KM</t>
@@ -698,6 +713,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
       <t>KM</t>
@@ -752,6 +768,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
       <t>KM</t>
@@ -800,6 +817,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
       <t>KM</t>
@@ -854,6 +872,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
       <t>KM</t>
@@ -902,6 +921,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
       <t>KM</t>
@@ -940,6 +960,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
       <t>KM</t>
@@ -988,6 +1009,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
       <t>KM</t>
@@ -1023,6 +1045,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
       <t>KM</t>
@@ -1052,6 +1075,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
       <t>KM</t>
@@ -1080,15 +1104,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="#,#00"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,#00"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1140,150 +1160,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -1302,7 +1178,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1311,7 +1187,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799951170384838"/>
+        <fgColor theme="9" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1327,194 +1203,8 @@
         <bgColor indexed="22"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="21">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1658,254 +1348,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1938,84 +1386,45 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="46" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="5" fillId="0" borderId="12" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="12" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Normal_KYUDEN-PIMS_EstimateWBS_v0.4" xfId="46"/>
-    <cellStyle name="Accent6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="49" builtinId="52"/>
+    <cellStyle name="Normal_KYUDEN-PIMS_EstimateWBS_v0.4" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
-      <color rgb="000000CC"/>
+      <color rgb="FF0000CC"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2300,604 +1709,604 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="12.75" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="21.4285714285714" style="32" customWidth="1"/>
-    <col min="2" max="2" width="21.8571428571429" style="32" customWidth="1"/>
-    <col min="3" max="3" width="8.71428571428571" style="32" customWidth="1"/>
-    <col min="4" max="4" width="18.1428571428571" style="32" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" style="32" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" style="32" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="32" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" style="32" customWidth="1"/>
     <col min="5" max="5" width="6" style="32" customWidth="1"/>
-    <col min="6" max="253" width="9.14285714285714" style="32"/>
-    <col min="254" max="254" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="255" max="255" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="256" max="256" width="9.14285714285714" style="32"/>
-    <col min="257" max="257" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="258" max="258" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="259" max="259" width="9.14285714285714" style="32"/>
-    <col min="260" max="260" width="39.1428571428571" style="32" customWidth="1"/>
-    <col min="261" max="261" width="11.4285714285714" style="32" customWidth="1"/>
-    <col min="262" max="509" width="9.14285714285714" style="32"/>
-    <col min="510" max="510" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="511" max="511" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="512" max="512" width="9.14285714285714" style="32"/>
-    <col min="513" max="513" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="514" max="514" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="515" max="515" width="9.14285714285714" style="32"/>
-    <col min="516" max="516" width="39.1428571428571" style="32" customWidth="1"/>
-    <col min="517" max="517" width="11.4285714285714" style="32" customWidth="1"/>
-    <col min="518" max="765" width="9.14285714285714" style="32"/>
-    <col min="766" max="766" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="767" max="767" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="768" max="768" width="9.14285714285714" style="32"/>
-    <col min="769" max="769" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="770" max="770" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="771" max="771" width="9.14285714285714" style="32"/>
-    <col min="772" max="772" width="39.1428571428571" style="32" customWidth="1"/>
-    <col min="773" max="773" width="11.4285714285714" style="32" customWidth="1"/>
-    <col min="774" max="1021" width="9.14285714285714" style="32"/>
-    <col min="1022" max="1022" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="1023" max="1023" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="1024" max="1024" width="9.14285714285714" style="32"/>
-    <col min="1025" max="1025" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="1026" max="1026" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="1027" max="1027" width="9.14285714285714" style="32"/>
-    <col min="1028" max="1028" width="39.1428571428571" style="32" customWidth="1"/>
-    <col min="1029" max="1029" width="11.4285714285714" style="32" customWidth="1"/>
-    <col min="1030" max="1277" width="9.14285714285714" style="32"/>
-    <col min="1278" max="1278" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="1279" max="1279" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="1280" max="1280" width="9.14285714285714" style="32"/>
-    <col min="1281" max="1281" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="1282" max="1282" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="1283" max="1283" width="9.14285714285714" style="32"/>
-    <col min="1284" max="1284" width="39.1428571428571" style="32" customWidth="1"/>
-    <col min="1285" max="1285" width="11.4285714285714" style="32" customWidth="1"/>
-    <col min="1286" max="1533" width="9.14285714285714" style="32"/>
-    <col min="1534" max="1534" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="1535" max="1535" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="1536" max="1536" width="9.14285714285714" style="32"/>
-    <col min="1537" max="1537" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="1538" max="1538" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="1539" max="1539" width="9.14285714285714" style="32"/>
-    <col min="1540" max="1540" width="39.1428571428571" style="32" customWidth="1"/>
-    <col min="1541" max="1541" width="11.4285714285714" style="32" customWidth="1"/>
-    <col min="1542" max="1789" width="9.14285714285714" style="32"/>
-    <col min="1790" max="1790" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="1791" max="1791" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="1792" max="1792" width="9.14285714285714" style="32"/>
-    <col min="1793" max="1793" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="1794" max="1794" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="1795" max="1795" width="9.14285714285714" style="32"/>
-    <col min="1796" max="1796" width="39.1428571428571" style="32" customWidth="1"/>
-    <col min="1797" max="1797" width="11.4285714285714" style="32" customWidth="1"/>
-    <col min="1798" max="2045" width="9.14285714285714" style="32"/>
-    <col min="2046" max="2046" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="2047" max="2047" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="2048" max="2048" width="9.14285714285714" style="32"/>
-    <col min="2049" max="2049" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="2050" max="2050" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="2051" max="2051" width="9.14285714285714" style="32"/>
-    <col min="2052" max="2052" width="39.1428571428571" style="32" customWidth="1"/>
-    <col min="2053" max="2053" width="11.4285714285714" style="32" customWidth="1"/>
-    <col min="2054" max="2301" width="9.14285714285714" style="32"/>
-    <col min="2302" max="2302" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="2303" max="2303" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="2304" max="2304" width="9.14285714285714" style="32"/>
-    <col min="2305" max="2305" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="2306" max="2306" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="2307" max="2307" width="9.14285714285714" style="32"/>
-    <col min="2308" max="2308" width="39.1428571428571" style="32" customWidth="1"/>
-    <col min="2309" max="2309" width="11.4285714285714" style="32" customWidth="1"/>
-    <col min="2310" max="2557" width="9.14285714285714" style="32"/>
-    <col min="2558" max="2558" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="2559" max="2559" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="2560" max="2560" width="9.14285714285714" style="32"/>
-    <col min="2561" max="2561" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="2562" max="2562" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="2563" max="2563" width="9.14285714285714" style="32"/>
-    <col min="2564" max="2564" width="39.1428571428571" style="32" customWidth="1"/>
-    <col min="2565" max="2565" width="11.4285714285714" style="32" customWidth="1"/>
-    <col min="2566" max="2813" width="9.14285714285714" style="32"/>
-    <col min="2814" max="2814" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="2815" max="2815" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="2816" max="2816" width="9.14285714285714" style="32"/>
-    <col min="2817" max="2817" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="2818" max="2818" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="2819" max="2819" width="9.14285714285714" style="32"/>
-    <col min="2820" max="2820" width="39.1428571428571" style="32" customWidth="1"/>
-    <col min="2821" max="2821" width="11.4285714285714" style="32" customWidth="1"/>
-    <col min="2822" max="3069" width="9.14285714285714" style="32"/>
-    <col min="3070" max="3070" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="3071" max="3071" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="3072" max="3072" width="9.14285714285714" style="32"/>
-    <col min="3073" max="3073" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="3074" max="3074" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="3075" max="3075" width="9.14285714285714" style="32"/>
-    <col min="3076" max="3076" width="39.1428571428571" style="32" customWidth="1"/>
-    <col min="3077" max="3077" width="11.4285714285714" style="32" customWidth="1"/>
-    <col min="3078" max="3325" width="9.14285714285714" style="32"/>
-    <col min="3326" max="3326" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="3327" max="3327" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="3328" max="3328" width="9.14285714285714" style="32"/>
-    <col min="3329" max="3329" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="3330" max="3330" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="3331" max="3331" width="9.14285714285714" style="32"/>
-    <col min="3332" max="3332" width="39.1428571428571" style="32" customWidth="1"/>
-    <col min="3333" max="3333" width="11.4285714285714" style="32" customWidth="1"/>
-    <col min="3334" max="3581" width="9.14285714285714" style="32"/>
-    <col min="3582" max="3582" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="3583" max="3583" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="3584" max="3584" width="9.14285714285714" style="32"/>
-    <col min="3585" max="3585" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="3586" max="3586" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="3587" max="3587" width="9.14285714285714" style="32"/>
-    <col min="3588" max="3588" width="39.1428571428571" style="32" customWidth="1"/>
-    <col min="3589" max="3589" width="11.4285714285714" style="32" customWidth="1"/>
-    <col min="3590" max="3837" width="9.14285714285714" style="32"/>
-    <col min="3838" max="3838" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="3839" max="3839" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="3840" max="3840" width="9.14285714285714" style="32"/>
-    <col min="3841" max="3841" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="3842" max="3842" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="3843" max="3843" width="9.14285714285714" style="32"/>
-    <col min="3844" max="3844" width="39.1428571428571" style="32" customWidth="1"/>
-    <col min="3845" max="3845" width="11.4285714285714" style="32" customWidth="1"/>
-    <col min="3846" max="4093" width="9.14285714285714" style="32"/>
-    <col min="4094" max="4094" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="4095" max="4095" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="4096" max="4096" width="9.14285714285714" style="32"/>
-    <col min="4097" max="4097" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="4098" max="4098" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="4099" max="4099" width="9.14285714285714" style="32"/>
-    <col min="4100" max="4100" width="39.1428571428571" style="32" customWidth="1"/>
-    <col min="4101" max="4101" width="11.4285714285714" style="32" customWidth="1"/>
-    <col min="4102" max="4349" width="9.14285714285714" style="32"/>
-    <col min="4350" max="4350" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="4351" max="4351" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="4352" max="4352" width="9.14285714285714" style="32"/>
-    <col min="4353" max="4353" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="4354" max="4354" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="4355" max="4355" width="9.14285714285714" style="32"/>
-    <col min="4356" max="4356" width="39.1428571428571" style="32" customWidth="1"/>
-    <col min="4357" max="4357" width="11.4285714285714" style="32" customWidth="1"/>
-    <col min="4358" max="4605" width="9.14285714285714" style="32"/>
-    <col min="4606" max="4606" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="4607" max="4607" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="4608" max="4608" width="9.14285714285714" style="32"/>
-    <col min="4609" max="4609" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="4610" max="4610" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="4611" max="4611" width="9.14285714285714" style="32"/>
-    <col min="4612" max="4612" width="39.1428571428571" style="32" customWidth="1"/>
-    <col min="4613" max="4613" width="11.4285714285714" style="32" customWidth="1"/>
-    <col min="4614" max="4861" width="9.14285714285714" style="32"/>
-    <col min="4862" max="4862" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="4863" max="4863" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="4864" max="4864" width="9.14285714285714" style="32"/>
-    <col min="4865" max="4865" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="4866" max="4866" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="4867" max="4867" width="9.14285714285714" style="32"/>
-    <col min="4868" max="4868" width="39.1428571428571" style="32" customWidth="1"/>
-    <col min="4869" max="4869" width="11.4285714285714" style="32" customWidth="1"/>
-    <col min="4870" max="5117" width="9.14285714285714" style="32"/>
-    <col min="5118" max="5118" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="5119" max="5119" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="5120" max="5120" width="9.14285714285714" style="32"/>
-    <col min="5121" max="5121" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="5122" max="5122" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="5123" max="5123" width="9.14285714285714" style="32"/>
-    <col min="5124" max="5124" width="39.1428571428571" style="32" customWidth="1"/>
-    <col min="5125" max="5125" width="11.4285714285714" style="32" customWidth="1"/>
-    <col min="5126" max="5373" width="9.14285714285714" style="32"/>
-    <col min="5374" max="5374" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="5375" max="5375" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="5376" max="5376" width="9.14285714285714" style="32"/>
-    <col min="5377" max="5377" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="5378" max="5378" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="5379" max="5379" width="9.14285714285714" style="32"/>
-    <col min="5380" max="5380" width="39.1428571428571" style="32" customWidth="1"/>
-    <col min="5381" max="5381" width="11.4285714285714" style="32" customWidth="1"/>
-    <col min="5382" max="5629" width="9.14285714285714" style="32"/>
-    <col min="5630" max="5630" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="5631" max="5631" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="5632" max="5632" width="9.14285714285714" style="32"/>
-    <col min="5633" max="5633" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="5634" max="5634" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="5635" max="5635" width="9.14285714285714" style="32"/>
-    <col min="5636" max="5636" width="39.1428571428571" style="32" customWidth="1"/>
-    <col min="5637" max="5637" width="11.4285714285714" style="32" customWidth="1"/>
-    <col min="5638" max="5885" width="9.14285714285714" style="32"/>
-    <col min="5886" max="5886" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="5887" max="5887" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="5888" max="5888" width="9.14285714285714" style="32"/>
-    <col min="5889" max="5889" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="5890" max="5890" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="5891" max="5891" width="9.14285714285714" style="32"/>
-    <col min="5892" max="5892" width="39.1428571428571" style="32" customWidth="1"/>
-    <col min="5893" max="5893" width="11.4285714285714" style="32" customWidth="1"/>
-    <col min="5894" max="6141" width="9.14285714285714" style="32"/>
-    <col min="6142" max="6142" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="6143" max="6143" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="6144" max="6144" width="9.14285714285714" style="32"/>
-    <col min="6145" max="6145" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="6146" max="6146" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="6147" max="6147" width="9.14285714285714" style="32"/>
-    <col min="6148" max="6148" width="39.1428571428571" style="32" customWidth="1"/>
-    <col min="6149" max="6149" width="11.4285714285714" style="32" customWidth="1"/>
-    <col min="6150" max="6397" width="9.14285714285714" style="32"/>
-    <col min="6398" max="6398" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="6399" max="6399" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="6400" max="6400" width="9.14285714285714" style="32"/>
-    <col min="6401" max="6401" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="6402" max="6402" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="6403" max="6403" width="9.14285714285714" style="32"/>
-    <col min="6404" max="6404" width="39.1428571428571" style="32" customWidth="1"/>
-    <col min="6405" max="6405" width="11.4285714285714" style="32" customWidth="1"/>
-    <col min="6406" max="6653" width="9.14285714285714" style="32"/>
-    <col min="6654" max="6654" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="6655" max="6655" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="6656" max="6656" width="9.14285714285714" style="32"/>
-    <col min="6657" max="6657" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="6658" max="6658" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="6659" max="6659" width="9.14285714285714" style="32"/>
-    <col min="6660" max="6660" width="39.1428571428571" style="32" customWidth="1"/>
-    <col min="6661" max="6661" width="11.4285714285714" style="32" customWidth="1"/>
-    <col min="6662" max="6909" width="9.14285714285714" style="32"/>
-    <col min="6910" max="6910" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="6911" max="6911" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="6912" max="6912" width="9.14285714285714" style="32"/>
-    <col min="6913" max="6913" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="6914" max="6914" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="6915" max="6915" width="9.14285714285714" style="32"/>
-    <col min="6916" max="6916" width="39.1428571428571" style="32" customWidth="1"/>
-    <col min="6917" max="6917" width="11.4285714285714" style="32" customWidth="1"/>
-    <col min="6918" max="7165" width="9.14285714285714" style="32"/>
-    <col min="7166" max="7166" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="7167" max="7167" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="7168" max="7168" width="9.14285714285714" style="32"/>
-    <col min="7169" max="7169" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="7170" max="7170" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="7171" max="7171" width="9.14285714285714" style="32"/>
-    <col min="7172" max="7172" width="39.1428571428571" style="32" customWidth="1"/>
-    <col min="7173" max="7173" width="11.4285714285714" style="32" customWidth="1"/>
-    <col min="7174" max="7421" width="9.14285714285714" style="32"/>
-    <col min="7422" max="7422" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="7423" max="7423" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="7424" max="7424" width="9.14285714285714" style="32"/>
-    <col min="7425" max="7425" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="7426" max="7426" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="7427" max="7427" width="9.14285714285714" style="32"/>
-    <col min="7428" max="7428" width="39.1428571428571" style="32" customWidth="1"/>
-    <col min="7429" max="7429" width="11.4285714285714" style="32" customWidth="1"/>
-    <col min="7430" max="7677" width="9.14285714285714" style="32"/>
-    <col min="7678" max="7678" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="7679" max="7679" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="7680" max="7680" width="9.14285714285714" style="32"/>
-    <col min="7681" max="7681" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="7682" max="7682" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="7683" max="7683" width="9.14285714285714" style="32"/>
-    <col min="7684" max="7684" width="39.1428571428571" style="32" customWidth="1"/>
-    <col min="7685" max="7685" width="11.4285714285714" style="32" customWidth="1"/>
-    <col min="7686" max="7933" width="9.14285714285714" style="32"/>
-    <col min="7934" max="7934" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="7935" max="7935" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="7936" max="7936" width="9.14285714285714" style="32"/>
-    <col min="7937" max="7937" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="7938" max="7938" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="7939" max="7939" width="9.14285714285714" style="32"/>
-    <col min="7940" max="7940" width="39.1428571428571" style="32" customWidth="1"/>
-    <col min="7941" max="7941" width="11.4285714285714" style="32" customWidth="1"/>
-    <col min="7942" max="8189" width="9.14285714285714" style="32"/>
-    <col min="8190" max="8190" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="8191" max="8191" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="8192" max="8192" width="9.14285714285714" style="32"/>
-    <col min="8193" max="8193" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="8194" max="8194" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="8195" max="8195" width="9.14285714285714" style="32"/>
-    <col min="8196" max="8196" width="39.1428571428571" style="32" customWidth="1"/>
-    <col min="8197" max="8197" width="11.4285714285714" style="32" customWidth="1"/>
-    <col min="8198" max="8445" width="9.14285714285714" style="32"/>
-    <col min="8446" max="8446" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="8447" max="8447" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="8448" max="8448" width="9.14285714285714" style="32"/>
-    <col min="8449" max="8449" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="8450" max="8450" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="8451" max="8451" width="9.14285714285714" style="32"/>
-    <col min="8452" max="8452" width="39.1428571428571" style="32" customWidth="1"/>
-    <col min="8453" max="8453" width="11.4285714285714" style="32" customWidth="1"/>
-    <col min="8454" max="8701" width="9.14285714285714" style="32"/>
-    <col min="8702" max="8702" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="8703" max="8703" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="8704" max="8704" width="9.14285714285714" style="32"/>
-    <col min="8705" max="8705" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="8706" max="8706" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="8707" max="8707" width="9.14285714285714" style="32"/>
-    <col min="8708" max="8708" width="39.1428571428571" style="32" customWidth="1"/>
-    <col min="8709" max="8709" width="11.4285714285714" style="32" customWidth="1"/>
-    <col min="8710" max="8957" width="9.14285714285714" style="32"/>
-    <col min="8958" max="8958" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="8959" max="8959" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="8960" max="8960" width="9.14285714285714" style="32"/>
-    <col min="8961" max="8961" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="8962" max="8962" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="8963" max="8963" width="9.14285714285714" style="32"/>
-    <col min="8964" max="8964" width="39.1428571428571" style="32" customWidth="1"/>
-    <col min="8965" max="8965" width="11.4285714285714" style="32" customWidth="1"/>
-    <col min="8966" max="9213" width="9.14285714285714" style="32"/>
-    <col min="9214" max="9214" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="9215" max="9215" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="9216" max="9216" width="9.14285714285714" style="32"/>
-    <col min="9217" max="9217" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="9218" max="9218" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="9219" max="9219" width="9.14285714285714" style="32"/>
-    <col min="9220" max="9220" width="39.1428571428571" style="32" customWidth="1"/>
-    <col min="9221" max="9221" width="11.4285714285714" style="32" customWidth="1"/>
-    <col min="9222" max="9469" width="9.14285714285714" style="32"/>
-    <col min="9470" max="9470" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="9471" max="9471" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="9472" max="9472" width="9.14285714285714" style="32"/>
-    <col min="9473" max="9473" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="9474" max="9474" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="9475" max="9475" width="9.14285714285714" style="32"/>
-    <col min="9476" max="9476" width="39.1428571428571" style="32" customWidth="1"/>
-    <col min="9477" max="9477" width="11.4285714285714" style="32" customWidth="1"/>
-    <col min="9478" max="9725" width="9.14285714285714" style="32"/>
-    <col min="9726" max="9726" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="9727" max="9727" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="9728" max="9728" width="9.14285714285714" style="32"/>
-    <col min="9729" max="9729" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="9730" max="9730" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="9731" max="9731" width="9.14285714285714" style="32"/>
-    <col min="9732" max="9732" width="39.1428571428571" style="32" customWidth="1"/>
-    <col min="9733" max="9733" width="11.4285714285714" style="32" customWidth="1"/>
-    <col min="9734" max="9981" width="9.14285714285714" style="32"/>
-    <col min="9982" max="9982" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="9983" max="9983" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="9984" max="9984" width="9.14285714285714" style="32"/>
-    <col min="9985" max="9985" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="9986" max="9986" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="9987" max="9987" width="9.14285714285714" style="32"/>
-    <col min="9988" max="9988" width="39.1428571428571" style="32" customWidth="1"/>
-    <col min="9989" max="9989" width="11.4285714285714" style="32" customWidth="1"/>
-    <col min="9990" max="10237" width="9.14285714285714" style="32"/>
-    <col min="10238" max="10238" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="10239" max="10239" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="10240" max="10240" width="9.14285714285714" style="32"/>
-    <col min="10241" max="10241" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="10242" max="10242" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="10243" max="10243" width="9.14285714285714" style="32"/>
-    <col min="10244" max="10244" width="39.1428571428571" style="32" customWidth="1"/>
-    <col min="10245" max="10245" width="11.4285714285714" style="32" customWidth="1"/>
-    <col min="10246" max="10493" width="9.14285714285714" style="32"/>
-    <col min="10494" max="10494" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="10495" max="10495" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="10496" max="10496" width="9.14285714285714" style="32"/>
-    <col min="10497" max="10497" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="10498" max="10498" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="10499" max="10499" width="9.14285714285714" style="32"/>
-    <col min="10500" max="10500" width="39.1428571428571" style="32" customWidth="1"/>
-    <col min="10501" max="10501" width="11.4285714285714" style="32" customWidth="1"/>
-    <col min="10502" max="10749" width="9.14285714285714" style="32"/>
-    <col min="10750" max="10750" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="10751" max="10751" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="10752" max="10752" width="9.14285714285714" style="32"/>
-    <col min="10753" max="10753" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="10754" max="10754" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="10755" max="10755" width="9.14285714285714" style="32"/>
-    <col min="10756" max="10756" width="39.1428571428571" style="32" customWidth="1"/>
-    <col min="10757" max="10757" width="11.4285714285714" style="32" customWidth="1"/>
-    <col min="10758" max="11005" width="9.14285714285714" style="32"/>
-    <col min="11006" max="11006" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="11007" max="11007" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="11008" max="11008" width="9.14285714285714" style="32"/>
-    <col min="11009" max="11009" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="11010" max="11010" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="11011" max="11011" width="9.14285714285714" style="32"/>
-    <col min="11012" max="11012" width="39.1428571428571" style="32" customWidth="1"/>
-    <col min="11013" max="11013" width="11.4285714285714" style="32" customWidth="1"/>
-    <col min="11014" max="11261" width="9.14285714285714" style="32"/>
-    <col min="11262" max="11262" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="11263" max="11263" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="11264" max="11264" width="9.14285714285714" style="32"/>
-    <col min="11265" max="11265" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="11266" max="11266" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="11267" max="11267" width="9.14285714285714" style="32"/>
-    <col min="11268" max="11268" width="39.1428571428571" style="32" customWidth="1"/>
-    <col min="11269" max="11269" width="11.4285714285714" style="32" customWidth="1"/>
-    <col min="11270" max="11517" width="9.14285714285714" style="32"/>
-    <col min="11518" max="11518" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="11519" max="11519" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="11520" max="11520" width="9.14285714285714" style="32"/>
-    <col min="11521" max="11521" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="11522" max="11522" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="11523" max="11523" width="9.14285714285714" style="32"/>
-    <col min="11524" max="11524" width="39.1428571428571" style="32" customWidth="1"/>
-    <col min="11525" max="11525" width="11.4285714285714" style="32" customWidth="1"/>
-    <col min="11526" max="11773" width="9.14285714285714" style="32"/>
-    <col min="11774" max="11774" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="11775" max="11775" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="11776" max="11776" width="9.14285714285714" style="32"/>
-    <col min="11777" max="11777" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="11778" max="11778" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="11779" max="11779" width="9.14285714285714" style="32"/>
-    <col min="11780" max="11780" width="39.1428571428571" style="32" customWidth="1"/>
-    <col min="11781" max="11781" width="11.4285714285714" style="32" customWidth="1"/>
-    <col min="11782" max="12029" width="9.14285714285714" style="32"/>
-    <col min="12030" max="12030" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="12031" max="12031" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="12032" max="12032" width="9.14285714285714" style="32"/>
-    <col min="12033" max="12033" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="12034" max="12034" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="12035" max="12035" width="9.14285714285714" style="32"/>
-    <col min="12036" max="12036" width="39.1428571428571" style="32" customWidth="1"/>
-    <col min="12037" max="12037" width="11.4285714285714" style="32" customWidth="1"/>
-    <col min="12038" max="12285" width="9.14285714285714" style="32"/>
-    <col min="12286" max="12286" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="12287" max="12287" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="12288" max="12288" width="9.14285714285714" style="32"/>
-    <col min="12289" max="12289" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="12290" max="12290" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="12291" max="12291" width="9.14285714285714" style="32"/>
-    <col min="12292" max="12292" width="39.1428571428571" style="32" customWidth="1"/>
-    <col min="12293" max="12293" width="11.4285714285714" style="32" customWidth="1"/>
-    <col min="12294" max="12541" width="9.14285714285714" style="32"/>
-    <col min="12542" max="12542" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="12543" max="12543" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="12544" max="12544" width="9.14285714285714" style="32"/>
-    <col min="12545" max="12545" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="12546" max="12546" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="12547" max="12547" width="9.14285714285714" style="32"/>
-    <col min="12548" max="12548" width="39.1428571428571" style="32" customWidth="1"/>
-    <col min="12549" max="12549" width="11.4285714285714" style="32" customWidth="1"/>
-    <col min="12550" max="12797" width="9.14285714285714" style="32"/>
-    <col min="12798" max="12798" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="12799" max="12799" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="12800" max="12800" width="9.14285714285714" style="32"/>
-    <col min="12801" max="12801" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="12802" max="12802" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="12803" max="12803" width="9.14285714285714" style="32"/>
-    <col min="12804" max="12804" width="39.1428571428571" style="32" customWidth="1"/>
-    <col min="12805" max="12805" width="11.4285714285714" style="32" customWidth="1"/>
-    <col min="12806" max="13053" width="9.14285714285714" style="32"/>
-    <col min="13054" max="13054" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="13055" max="13055" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="13056" max="13056" width="9.14285714285714" style="32"/>
-    <col min="13057" max="13057" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="13058" max="13058" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="13059" max="13059" width="9.14285714285714" style="32"/>
-    <col min="13060" max="13060" width="39.1428571428571" style="32" customWidth="1"/>
-    <col min="13061" max="13061" width="11.4285714285714" style="32" customWidth="1"/>
-    <col min="13062" max="13309" width="9.14285714285714" style="32"/>
-    <col min="13310" max="13310" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="13311" max="13311" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="13312" max="13312" width="9.14285714285714" style="32"/>
-    <col min="13313" max="13313" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="13314" max="13314" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="13315" max="13315" width="9.14285714285714" style="32"/>
-    <col min="13316" max="13316" width="39.1428571428571" style="32" customWidth="1"/>
-    <col min="13317" max="13317" width="11.4285714285714" style="32" customWidth="1"/>
-    <col min="13318" max="13565" width="9.14285714285714" style="32"/>
-    <col min="13566" max="13566" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="13567" max="13567" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="13568" max="13568" width="9.14285714285714" style="32"/>
-    <col min="13569" max="13569" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="13570" max="13570" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="13571" max="13571" width="9.14285714285714" style="32"/>
-    <col min="13572" max="13572" width="39.1428571428571" style="32" customWidth="1"/>
-    <col min="13573" max="13573" width="11.4285714285714" style="32" customWidth="1"/>
-    <col min="13574" max="13821" width="9.14285714285714" style="32"/>
-    <col min="13822" max="13822" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="13823" max="13823" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="13824" max="13824" width="9.14285714285714" style="32"/>
-    <col min="13825" max="13825" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="13826" max="13826" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="13827" max="13827" width="9.14285714285714" style="32"/>
-    <col min="13828" max="13828" width="39.1428571428571" style="32" customWidth="1"/>
-    <col min="13829" max="13829" width="11.4285714285714" style="32" customWidth="1"/>
-    <col min="13830" max="14077" width="9.14285714285714" style="32"/>
-    <col min="14078" max="14078" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="14079" max="14079" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="14080" max="14080" width="9.14285714285714" style="32"/>
-    <col min="14081" max="14081" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="14082" max="14082" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="14083" max="14083" width="9.14285714285714" style="32"/>
-    <col min="14084" max="14084" width="39.1428571428571" style="32" customWidth="1"/>
-    <col min="14085" max="14085" width="11.4285714285714" style="32" customWidth="1"/>
-    <col min="14086" max="14333" width="9.14285714285714" style="32"/>
-    <col min="14334" max="14334" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="14335" max="14335" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="14336" max="14336" width="9.14285714285714" style="32"/>
-    <col min="14337" max="14337" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="14338" max="14338" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="14339" max="14339" width="9.14285714285714" style="32"/>
-    <col min="14340" max="14340" width="39.1428571428571" style="32" customWidth="1"/>
-    <col min="14341" max="14341" width="11.4285714285714" style="32" customWidth="1"/>
-    <col min="14342" max="14589" width="9.14285714285714" style="32"/>
-    <col min="14590" max="14590" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="14591" max="14591" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="14592" max="14592" width="9.14285714285714" style="32"/>
-    <col min="14593" max="14593" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="14594" max="14594" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="14595" max="14595" width="9.14285714285714" style="32"/>
-    <col min="14596" max="14596" width="39.1428571428571" style="32" customWidth="1"/>
-    <col min="14597" max="14597" width="11.4285714285714" style="32" customWidth="1"/>
-    <col min="14598" max="14845" width="9.14285714285714" style="32"/>
-    <col min="14846" max="14846" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="14847" max="14847" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="14848" max="14848" width="9.14285714285714" style="32"/>
-    <col min="14849" max="14849" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="14850" max="14850" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="14851" max="14851" width="9.14285714285714" style="32"/>
-    <col min="14852" max="14852" width="39.1428571428571" style="32" customWidth="1"/>
-    <col min="14853" max="14853" width="11.4285714285714" style="32" customWidth="1"/>
-    <col min="14854" max="15101" width="9.14285714285714" style="32"/>
-    <col min="15102" max="15102" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="15103" max="15103" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="15104" max="15104" width="9.14285714285714" style="32"/>
-    <col min="15105" max="15105" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="15106" max="15106" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="15107" max="15107" width="9.14285714285714" style="32"/>
-    <col min="15108" max="15108" width="39.1428571428571" style="32" customWidth="1"/>
-    <col min="15109" max="15109" width="11.4285714285714" style="32" customWidth="1"/>
-    <col min="15110" max="15357" width="9.14285714285714" style="32"/>
-    <col min="15358" max="15358" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="15359" max="15359" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="15360" max="15360" width="9.14285714285714" style="32"/>
-    <col min="15361" max="15361" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="15362" max="15362" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="15363" max="15363" width="9.14285714285714" style="32"/>
-    <col min="15364" max="15364" width="39.1428571428571" style="32" customWidth="1"/>
-    <col min="15365" max="15365" width="11.4285714285714" style="32" customWidth="1"/>
-    <col min="15366" max="15613" width="9.14285714285714" style="32"/>
-    <col min="15614" max="15614" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="15615" max="15615" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="15616" max="15616" width="9.14285714285714" style="32"/>
-    <col min="15617" max="15617" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="15618" max="15618" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="15619" max="15619" width="9.14285714285714" style="32"/>
-    <col min="15620" max="15620" width="39.1428571428571" style="32" customWidth="1"/>
-    <col min="15621" max="15621" width="11.4285714285714" style="32" customWidth="1"/>
-    <col min="15622" max="15869" width="9.14285714285714" style="32"/>
-    <col min="15870" max="15870" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="15871" max="15871" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="15872" max="15872" width="9.14285714285714" style="32"/>
-    <col min="15873" max="15873" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="15874" max="15874" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="15875" max="15875" width="9.14285714285714" style="32"/>
-    <col min="15876" max="15876" width="39.1428571428571" style="32" customWidth="1"/>
-    <col min="15877" max="15877" width="11.4285714285714" style="32" customWidth="1"/>
-    <col min="15878" max="16125" width="9.14285714285714" style="32"/>
-    <col min="16126" max="16126" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="16127" max="16127" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="16128" max="16128" width="9.14285714285714" style="32"/>
-    <col min="16129" max="16129" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="16130" max="16130" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="16131" max="16131" width="9.14285714285714" style="32"/>
-    <col min="16132" max="16132" width="39.1428571428571" style="32" customWidth="1"/>
-    <col min="16133" max="16133" width="11.4285714285714" style="32" customWidth="1"/>
-    <col min="16134" max="16381" width="9.14285714285714" style="32"/>
-    <col min="16382" max="16382" width="21.2857142857143" style="32" customWidth="1"/>
-    <col min="16383" max="16383" width="41.5714285714286" style="32" customWidth="1"/>
-    <col min="16384" max="16384" width="9.14285714285714" style="32"/>
+    <col min="6" max="253" width="9.140625" style="32"/>
+    <col min="254" max="254" width="21.28515625" style="32" customWidth="1"/>
+    <col min="255" max="255" width="41.5703125" style="32" customWidth="1"/>
+    <col min="256" max="256" width="9.140625" style="32"/>
+    <col min="257" max="257" width="21.28515625" style="32" customWidth="1"/>
+    <col min="258" max="258" width="41.5703125" style="32" customWidth="1"/>
+    <col min="259" max="259" width="9.140625" style="32"/>
+    <col min="260" max="260" width="39.140625" style="32" customWidth="1"/>
+    <col min="261" max="261" width="11.42578125" style="32" customWidth="1"/>
+    <col min="262" max="509" width="9.140625" style="32"/>
+    <col min="510" max="510" width="21.28515625" style="32" customWidth="1"/>
+    <col min="511" max="511" width="41.5703125" style="32" customWidth="1"/>
+    <col min="512" max="512" width="9.140625" style="32"/>
+    <col min="513" max="513" width="21.28515625" style="32" customWidth="1"/>
+    <col min="514" max="514" width="41.5703125" style="32" customWidth="1"/>
+    <col min="515" max="515" width="9.140625" style="32"/>
+    <col min="516" max="516" width="39.140625" style="32" customWidth="1"/>
+    <col min="517" max="517" width="11.42578125" style="32" customWidth="1"/>
+    <col min="518" max="765" width="9.140625" style="32"/>
+    <col min="766" max="766" width="21.28515625" style="32" customWidth="1"/>
+    <col min="767" max="767" width="41.5703125" style="32" customWidth="1"/>
+    <col min="768" max="768" width="9.140625" style="32"/>
+    <col min="769" max="769" width="21.28515625" style="32" customWidth="1"/>
+    <col min="770" max="770" width="41.5703125" style="32" customWidth="1"/>
+    <col min="771" max="771" width="9.140625" style="32"/>
+    <col min="772" max="772" width="39.140625" style="32" customWidth="1"/>
+    <col min="773" max="773" width="11.42578125" style="32" customWidth="1"/>
+    <col min="774" max="1021" width="9.140625" style="32"/>
+    <col min="1022" max="1022" width="21.28515625" style="32" customWidth="1"/>
+    <col min="1023" max="1023" width="41.5703125" style="32" customWidth="1"/>
+    <col min="1024" max="1024" width="9.140625" style="32"/>
+    <col min="1025" max="1025" width="21.28515625" style="32" customWidth="1"/>
+    <col min="1026" max="1026" width="41.5703125" style="32" customWidth="1"/>
+    <col min="1027" max="1027" width="9.140625" style="32"/>
+    <col min="1028" max="1028" width="39.140625" style="32" customWidth="1"/>
+    <col min="1029" max="1029" width="11.42578125" style="32" customWidth="1"/>
+    <col min="1030" max="1277" width="9.140625" style="32"/>
+    <col min="1278" max="1278" width="21.28515625" style="32" customWidth="1"/>
+    <col min="1279" max="1279" width="41.5703125" style="32" customWidth="1"/>
+    <col min="1280" max="1280" width="9.140625" style="32"/>
+    <col min="1281" max="1281" width="21.28515625" style="32" customWidth="1"/>
+    <col min="1282" max="1282" width="41.5703125" style="32" customWidth="1"/>
+    <col min="1283" max="1283" width="9.140625" style="32"/>
+    <col min="1284" max="1284" width="39.140625" style="32" customWidth="1"/>
+    <col min="1285" max="1285" width="11.42578125" style="32" customWidth="1"/>
+    <col min="1286" max="1533" width="9.140625" style="32"/>
+    <col min="1534" max="1534" width="21.28515625" style="32" customWidth="1"/>
+    <col min="1535" max="1535" width="41.5703125" style="32" customWidth="1"/>
+    <col min="1536" max="1536" width="9.140625" style="32"/>
+    <col min="1537" max="1537" width="21.28515625" style="32" customWidth="1"/>
+    <col min="1538" max="1538" width="41.5703125" style="32" customWidth="1"/>
+    <col min="1539" max="1539" width="9.140625" style="32"/>
+    <col min="1540" max="1540" width="39.140625" style="32" customWidth="1"/>
+    <col min="1541" max="1541" width="11.42578125" style="32" customWidth="1"/>
+    <col min="1542" max="1789" width="9.140625" style="32"/>
+    <col min="1790" max="1790" width="21.28515625" style="32" customWidth="1"/>
+    <col min="1791" max="1791" width="41.5703125" style="32" customWidth="1"/>
+    <col min="1792" max="1792" width="9.140625" style="32"/>
+    <col min="1793" max="1793" width="21.28515625" style="32" customWidth="1"/>
+    <col min="1794" max="1794" width="41.5703125" style="32" customWidth="1"/>
+    <col min="1795" max="1795" width="9.140625" style="32"/>
+    <col min="1796" max="1796" width="39.140625" style="32" customWidth="1"/>
+    <col min="1797" max="1797" width="11.42578125" style="32" customWidth="1"/>
+    <col min="1798" max="2045" width="9.140625" style="32"/>
+    <col min="2046" max="2046" width="21.28515625" style="32" customWidth="1"/>
+    <col min="2047" max="2047" width="41.5703125" style="32" customWidth="1"/>
+    <col min="2048" max="2048" width="9.140625" style="32"/>
+    <col min="2049" max="2049" width="21.28515625" style="32" customWidth="1"/>
+    <col min="2050" max="2050" width="41.5703125" style="32" customWidth="1"/>
+    <col min="2051" max="2051" width="9.140625" style="32"/>
+    <col min="2052" max="2052" width="39.140625" style="32" customWidth="1"/>
+    <col min="2053" max="2053" width="11.42578125" style="32" customWidth="1"/>
+    <col min="2054" max="2301" width="9.140625" style="32"/>
+    <col min="2302" max="2302" width="21.28515625" style="32" customWidth="1"/>
+    <col min="2303" max="2303" width="41.5703125" style="32" customWidth="1"/>
+    <col min="2304" max="2304" width="9.140625" style="32"/>
+    <col min="2305" max="2305" width="21.28515625" style="32" customWidth="1"/>
+    <col min="2306" max="2306" width="41.5703125" style="32" customWidth="1"/>
+    <col min="2307" max="2307" width="9.140625" style="32"/>
+    <col min="2308" max="2308" width="39.140625" style="32" customWidth="1"/>
+    <col min="2309" max="2309" width="11.42578125" style="32" customWidth="1"/>
+    <col min="2310" max="2557" width="9.140625" style="32"/>
+    <col min="2558" max="2558" width="21.28515625" style="32" customWidth="1"/>
+    <col min="2559" max="2559" width="41.5703125" style="32" customWidth="1"/>
+    <col min="2560" max="2560" width="9.140625" style="32"/>
+    <col min="2561" max="2561" width="21.28515625" style="32" customWidth="1"/>
+    <col min="2562" max="2562" width="41.5703125" style="32" customWidth="1"/>
+    <col min="2563" max="2563" width="9.140625" style="32"/>
+    <col min="2564" max="2564" width="39.140625" style="32" customWidth="1"/>
+    <col min="2565" max="2565" width="11.42578125" style="32" customWidth="1"/>
+    <col min="2566" max="2813" width="9.140625" style="32"/>
+    <col min="2814" max="2814" width="21.28515625" style="32" customWidth="1"/>
+    <col min="2815" max="2815" width="41.5703125" style="32" customWidth="1"/>
+    <col min="2816" max="2816" width="9.140625" style="32"/>
+    <col min="2817" max="2817" width="21.28515625" style="32" customWidth="1"/>
+    <col min="2818" max="2818" width="41.5703125" style="32" customWidth="1"/>
+    <col min="2819" max="2819" width="9.140625" style="32"/>
+    <col min="2820" max="2820" width="39.140625" style="32" customWidth="1"/>
+    <col min="2821" max="2821" width="11.42578125" style="32" customWidth="1"/>
+    <col min="2822" max="3069" width="9.140625" style="32"/>
+    <col min="3070" max="3070" width="21.28515625" style="32" customWidth="1"/>
+    <col min="3071" max="3071" width="41.5703125" style="32" customWidth="1"/>
+    <col min="3072" max="3072" width="9.140625" style="32"/>
+    <col min="3073" max="3073" width="21.28515625" style="32" customWidth="1"/>
+    <col min="3074" max="3074" width="41.5703125" style="32" customWidth="1"/>
+    <col min="3075" max="3075" width="9.140625" style="32"/>
+    <col min="3076" max="3076" width="39.140625" style="32" customWidth="1"/>
+    <col min="3077" max="3077" width="11.42578125" style="32" customWidth="1"/>
+    <col min="3078" max="3325" width="9.140625" style="32"/>
+    <col min="3326" max="3326" width="21.28515625" style="32" customWidth="1"/>
+    <col min="3327" max="3327" width="41.5703125" style="32" customWidth="1"/>
+    <col min="3328" max="3328" width="9.140625" style="32"/>
+    <col min="3329" max="3329" width="21.28515625" style="32" customWidth="1"/>
+    <col min="3330" max="3330" width="41.5703125" style="32" customWidth="1"/>
+    <col min="3331" max="3331" width="9.140625" style="32"/>
+    <col min="3332" max="3332" width="39.140625" style="32" customWidth="1"/>
+    <col min="3333" max="3333" width="11.42578125" style="32" customWidth="1"/>
+    <col min="3334" max="3581" width="9.140625" style="32"/>
+    <col min="3582" max="3582" width="21.28515625" style="32" customWidth="1"/>
+    <col min="3583" max="3583" width="41.5703125" style="32" customWidth="1"/>
+    <col min="3584" max="3584" width="9.140625" style="32"/>
+    <col min="3585" max="3585" width="21.28515625" style="32" customWidth="1"/>
+    <col min="3586" max="3586" width="41.5703125" style="32" customWidth="1"/>
+    <col min="3587" max="3587" width="9.140625" style="32"/>
+    <col min="3588" max="3588" width="39.140625" style="32" customWidth="1"/>
+    <col min="3589" max="3589" width="11.42578125" style="32" customWidth="1"/>
+    <col min="3590" max="3837" width="9.140625" style="32"/>
+    <col min="3838" max="3838" width="21.28515625" style="32" customWidth="1"/>
+    <col min="3839" max="3839" width="41.5703125" style="32" customWidth="1"/>
+    <col min="3840" max="3840" width="9.140625" style="32"/>
+    <col min="3841" max="3841" width="21.28515625" style="32" customWidth="1"/>
+    <col min="3842" max="3842" width="41.5703125" style="32" customWidth="1"/>
+    <col min="3843" max="3843" width="9.140625" style="32"/>
+    <col min="3844" max="3844" width="39.140625" style="32" customWidth="1"/>
+    <col min="3845" max="3845" width="11.42578125" style="32" customWidth="1"/>
+    <col min="3846" max="4093" width="9.140625" style="32"/>
+    <col min="4094" max="4094" width="21.28515625" style="32" customWidth="1"/>
+    <col min="4095" max="4095" width="41.5703125" style="32" customWidth="1"/>
+    <col min="4096" max="4096" width="9.140625" style="32"/>
+    <col min="4097" max="4097" width="21.28515625" style="32" customWidth="1"/>
+    <col min="4098" max="4098" width="41.5703125" style="32" customWidth="1"/>
+    <col min="4099" max="4099" width="9.140625" style="32"/>
+    <col min="4100" max="4100" width="39.140625" style="32" customWidth="1"/>
+    <col min="4101" max="4101" width="11.42578125" style="32" customWidth="1"/>
+    <col min="4102" max="4349" width="9.140625" style="32"/>
+    <col min="4350" max="4350" width="21.28515625" style="32" customWidth="1"/>
+    <col min="4351" max="4351" width="41.5703125" style="32" customWidth="1"/>
+    <col min="4352" max="4352" width="9.140625" style="32"/>
+    <col min="4353" max="4353" width="21.28515625" style="32" customWidth="1"/>
+    <col min="4354" max="4354" width="41.5703125" style="32" customWidth="1"/>
+    <col min="4355" max="4355" width="9.140625" style="32"/>
+    <col min="4356" max="4356" width="39.140625" style="32" customWidth="1"/>
+    <col min="4357" max="4357" width="11.42578125" style="32" customWidth="1"/>
+    <col min="4358" max="4605" width="9.140625" style="32"/>
+    <col min="4606" max="4606" width="21.28515625" style="32" customWidth="1"/>
+    <col min="4607" max="4607" width="41.5703125" style="32" customWidth="1"/>
+    <col min="4608" max="4608" width="9.140625" style="32"/>
+    <col min="4609" max="4609" width="21.28515625" style="32" customWidth="1"/>
+    <col min="4610" max="4610" width="41.5703125" style="32" customWidth="1"/>
+    <col min="4611" max="4611" width="9.140625" style="32"/>
+    <col min="4612" max="4612" width="39.140625" style="32" customWidth="1"/>
+    <col min="4613" max="4613" width="11.42578125" style="32" customWidth="1"/>
+    <col min="4614" max="4861" width="9.140625" style="32"/>
+    <col min="4862" max="4862" width="21.28515625" style="32" customWidth="1"/>
+    <col min="4863" max="4863" width="41.5703125" style="32" customWidth="1"/>
+    <col min="4864" max="4864" width="9.140625" style="32"/>
+    <col min="4865" max="4865" width="21.28515625" style="32" customWidth="1"/>
+    <col min="4866" max="4866" width="41.5703125" style="32" customWidth="1"/>
+    <col min="4867" max="4867" width="9.140625" style="32"/>
+    <col min="4868" max="4868" width="39.140625" style="32" customWidth="1"/>
+    <col min="4869" max="4869" width="11.42578125" style="32" customWidth="1"/>
+    <col min="4870" max="5117" width="9.140625" style="32"/>
+    <col min="5118" max="5118" width="21.28515625" style="32" customWidth="1"/>
+    <col min="5119" max="5119" width="41.5703125" style="32" customWidth="1"/>
+    <col min="5120" max="5120" width="9.140625" style="32"/>
+    <col min="5121" max="5121" width="21.28515625" style="32" customWidth="1"/>
+    <col min="5122" max="5122" width="41.5703125" style="32" customWidth="1"/>
+    <col min="5123" max="5123" width="9.140625" style="32"/>
+    <col min="5124" max="5124" width="39.140625" style="32" customWidth="1"/>
+    <col min="5125" max="5125" width="11.42578125" style="32" customWidth="1"/>
+    <col min="5126" max="5373" width="9.140625" style="32"/>
+    <col min="5374" max="5374" width="21.28515625" style="32" customWidth="1"/>
+    <col min="5375" max="5375" width="41.5703125" style="32" customWidth="1"/>
+    <col min="5376" max="5376" width="9.140625" style="32"/>
+    <col min="5377" max="5377" width="21.28515625" style="32" customWidth="1"/>
+    <col min="5378" max="5378" width="41.5703125" style="32" customWidth="1"/>
+    <col min="5379" max="5379" width="9.140625" style="32"/>
+    <col min="5380" max="5380" width="39.140625" style="32" customWidth="1"/>
+    <col min="5381" max="5381" width="11.42578125" style="32" customWidth="1"/>
+    <col min="5382" max="5629" width="9.140625" style="32"/>
+    <col min="5630" max="5630" width="21.28515625" style="32" customWidth="1"/>
+    <col min="5631" max="5631" width="41.5703125" style="32" customWidth="1"/>
+    <col min="5632" max="5632" width="9.140625" style="32"/>
+    <col min="5633" max="5633" width="21.28515625" style="32" customWidth="1"/>
+    <col min="5634" max="5634" width="41.5703125" style="32" customWidth="1"/>
+    <col min="5635" max="5635" width="9.140625" style="32"/>
+    <col min="5636" max="5636" width="39.140625" style="32" customWidth="1"/>
+    <col min="5637" max="5637" width="11.42578125" style="32" customWidth="1"/>
+    <col min="5638" max="5885" width="9.140625" style="32"/>
+    <col min="5886" max="5886" width="21.28515625" style="32" customWidth="1"/>
+    <col min="5887" max="5887" width="41.5703125" style="32" customWidth="1"/>
+    <col min="5888" max="5888" width="9.140625" style="32"/>
+    <col min="5889" max="5889" width="21.28515625" style="32" customWidth="1"/>
+    <col min="5890" max="5890" width="41.5703125" style="32" customWidth="1"/>
+    <col min="5891" max="5891" width="9.140625" style="32"/>
+    <col min="5892" max="5892" width="39.140625" style="32" customWidth="1"/>
+    <col min="5893" max="5893" width="11.42578125" style="32" customWidth="1"/>
+    <col min="5894" max="6141" width="9.140625" style="32"/>
+    <col min="6142" max="6142" width="21.28515625" style="32" customWidth="1"/>
+    <col min="6143" max="6143" width="41.5703125" style="32" customWidth="1"/>
+    <col min="6144" max="6144" width="9.140625" style="32"/>
+    <col min="6145" max="6145" width="21.28515625" style="32" customWidth="1"/>
+    <col min="6146" max="6146" width="41.5703125" style="32" customWidth="1"/>
+    <col min="6147" max="6147" width="9.140625" style="32"/>
+    <col min="6148" max="6148" width="39.140625" style="32" customWidth="1"/>
+    <col min="6149" max="6149" width="11.42578125" style="32" customWidth="1"/>
+    <col min="6150" max="6397" width="9.140625" style="32"/>
+    <col min="6398" max="6398" width="21.28515625" style="32" customWidth="1"/>
+    <col min="6399" max="6399" width="41.5703125" style="32" customWidth="1"/>
+    <col min="6400" max="6400" width="9.140625" style="32"/>
+    <col min="6401" max="6401" width="21.28515625" style="32" customWidth="1"/>
+    <col min="6402" max="6402" width="41.5703125" style="32" customWidth="1"/>
+    <col min="6403" max="6403" width="9.140625" style="32"/>
+    <col min="6404" max="6404" width="39.140625" style="32" customWidth="1"/>
+    <col min="6405" max="6405" width="11.42578125" style="32" customWidth="1"/>
+    <col min="6406" max="6653" width="9.140625" style="32"/>
+    <col min="6654" max="6654" width="21.28515625" style="32" customWidth="1"/>
+    <col min="6655" max="6655" width="41.5703125" style="32" customWidth="1"/>
+    <col min="6656" max="6656" width="9.140625" style="32"/>
+    <col min="6657" max="6657" width="21.28515625" style="32" customWidth="1"/>
+    <col min="6658" max="6658" width="41.5703125" style="32" customWidth="1"/>
+    <col min="6659" max="6659" width="9.140625" style="32"/>
+    <col min="6660" max="6660" width="39.140625" style="32" customWidth="1"/>
+    <col min="6661" max="6661" width="11.42578125" style="32" customWidth="1"/>
+    <col min="6662" max="6909" width="9.140625" style="32"/>
+    <col min="6910" max="6910" width="21.28515625" style="32" customWidth="1"/>
+    <col min="6911" max="6911" width="41.5703125" style="32" customWidth="1"/>
+    <col min="6912" max="6912" width="9.140625" style="32"/>
+    <col min="6913" max="6913" width="21.28515625" style="32" customWidth="1"/>
+    <col min="6914" max="6914" width="41.5703125" style="32" customWidth="1"/>
+    <col min="6915" max="6915" width="9.140625" style="32"/>
+    <col min="6916" max="6916" width="39.140625" style="32" customWidth="1"/>
+    <col min="6917" max="6917" width="11.42578125" style="32" customWidth="1"/>
+    <col min="6918" max="7165" width="9.140625" style="32"/>
+    <col min="7166" max="7166" width="21.28515625" style="32" customWidth="1"/>
+    <col min="7167" max="7167" width="41.5703125" style="32" customWidth="1"/>
+    <col min="7168" max="7168" width="9.140625" style="32"/>
+    <col min="7169" max="7169" width="21.28515625" style="32" customWidth="1"/>
+    <col min="7170" max="7170" width="41.5703125" style="32" customWidth="1"/>
+    <col min="7171" max="7171" width="9.140625" style="32"/>
+    <col min="7172" max="7172" width="39.140625" style="32" customWidth="1"/>
+    <col min="7173" max="7173" width="11.42578125" style="32" customWidth="1"/>
+    <col min="7174" max="7421" width="9.140625" style="32"/>
+    <col min="7422" max="7422" width="21.28515625" style="32" customWidth="1"/>
+    <col min="7423" max="7423" width="41.5703125" style="32" customWidth="1"/>
+    <col min="7424" max="7424" width="9.140625" style="32"/>
+    <col min="7425" max="7425" width="21.28515625" style="32" customWidth="1"/>
+    <col min="7426" max="7426" width="41.5703125" style="32" customWidth="1"/>
+    <col min="7427" max="7427" width="9.140625" style="32"/>
+    <col min="7428" max="7428" width="39.140625" style="32" customWidth="1"/>
+    <col min="7429" max="7429" width="11.42578125" style="32" customWidth="1"/>
+    <col min="7430" max="7677" width="9.140625" style="32"/>
+    <col min="7678" max="7678" width="21.28515625" style="32" customWidth="1"/>
+    <col min="7679" max="7679" width="41.5703125" style="32" customWidth="1"/>
+    <col min="7680" max="7680" width="9.140625" style="32"/>
+    <col min="7681" max="7681" width="21.28515625" style="32" customWidth="1"/>
+    <col min="7682" max="7682" width="41.5703125" style="32" customWidth="1"/>
+    <col min="7683" max="7683" width="9.140625" style="32"/>
+    <col min="7684" max="7684" width="39.140625" style="32" customWidth="1"/>
+    <col min="7685" max="7685" width="11.42578125" style="32" customWidth="1"/>
+    <col min="7686" max="7933" width="9.140625" style="32"/>
+    <col min="7934" max="7934" width="21.28515625" style="32" customWidth="1"/>
+    <col min="7935" max="7935" width="41.5703125" style="32" customWidth="1"/>
+    <col min="7936" max="7936" width="9.140625" style="32"/>
+    <col min="7937" max="7937" width="21.28515625" style="32" customWidth="1"/>
+    <col min="7938" max="7938" width="41.5703125" style="32" customWidth="1"/>
+    <col min="7939" max="7939" width="9.140625" style="32"/>
+    <col min="7940" max="7940" width="39.140625" style="32" customWidth="1"/>
+    <col min="7941" max="7941" width="11.42578125" style="32" customWidth="1"/>
+    <col min="7942" max="8189" width="9.140625" style="32"/>
+    <col min="8190" max="8190" width="21.28515625" style="32" customWidth="1"/>
+    <col min="8191" max="8191" width="41.5703125" style="32" customWidth="1"/>
+    <col min="8192" max="8192" width="9.140625" style="32"/>
+    <col min="8193" max="8193" width="21.28515625" style="32" customWidth="1"/>
+    <col min="8194" max="8194" width="41.5703125" style="32" customWidth="1"/>
+    <col min="8195" max="8195" width="9.140625" style="32"/>
+    <col min="8196" max="8196" width="39.140625" style="32" customWidth="1"/>
+    <col min="8197" max="8197" width="11.42578125" style="32" customWidth="1"/>
+    <col min="8198" max="8445" width="9.140625" style="32"/>
+    <col min="8446" max="8446" width="21.28515625" style="32" customWidth="1"/>
+    <col min="8447" max="8447" width="41.5703125" style="32" customWidth="1"/>
+    <col min="8448" max="8448" width="9.140625" style="32"/>
+    <col min="8449" max="8449" width="21.28515625" style="32" customWidth="1"/>
+    <col min="8450" max="8450" width="41.5703125" style="32" customWidth="1"/>
+    <col min="8451" max="8451" width="9.140625" style="32"/>
+    <col min="8452" max="8452" width="39.140625" style="32" customWidth="1"/>
+    <col min="8453" max="8453" width="11.42578125" style="32" customWidth="1"/>
+    <col min="8454" max="8701" width="9.140625" style="32"/>
+    <col min="8702" max="8702" width="21.28515625" style="32" customWidth="1"/>
+    <col min="8703" max="8703" width="41.5703125" style="32" customWidth="1"/>
+    <col min="8704" max="8704" width="9.140625" style="32"/>
+    <col min="8705" max="8705" width="21.28515625" style="32" customWidth="1"/>
+    <col min="8706" max="8706" width="41.5703125" style="32" customWidth="1"/>
+    <col min="8707" max="8707" width="9.140625" style="32"/>
+    <col min="8708" max="8708" width="39.140625" style="32" customWidth="1"/>
+    <col min="8709" max="8709" width="11.42578125" style="32" customWidth="1"/>
+    <col min="8710" max="8957" width="9.140625" style="32"/>
+    <col min="8958" max="8958" width="21.28515625" style="32" customWidth="1"/>
+    <col min="8959" max="8959" width="41.5703125" style="32" customWidth="1"/>
+    <col min="8960" max="8960" width="9.140625" style="32"/>
+    <col min="8961" max="8961" width="21.28515625" style="32" customWidth="1"/>
+    <col min="8962" max="8962" width="41.5703125" style="32" customWidth="1"/>
+    <col min="8963" max="8963" width="9.140625" style="32"/>
+    <col min="8964" max="8964" width="39.140625" style="32" customWidth="1"/>
+    <col min="8965" max="8965" width="11.42578125" style="32" customWidth="1"/>
+    <col min="8966" max="9213" width="9.140625" style="32"/>
+    <col min="9214" max="9214" width="21.28515625" style="32" customWidth="1"/>
+    <col min="9215" max="9215" width="41.5703125" style="32" customWidth="1"/>
+    <col min="9216" max="9216" width="9.140625" style="32"/>
+    <col min="9217" max="9217" width="21.28515625" style="32" customWidth="1"/>
+    <col min="9218" max="9218" width="41.5703125" style="32" customWidth="1"/>
+    <col min="9219" max="9219" width="9.140625" style="32"/>
+    <col min="9220" max="9220" width="39.140625" style="32" customWidth="1"/>
+    <col min="9221" max="9221" width="11.42578125" style="32" customWidth="1"/>
+    <col min="9222" max="9469" width="9.140625" style="32"/>
+    <col min="9470" max="9470" width="21.28515625" style="32" customWidth="1"/>
+    <col min="9471" max="9471" width="41.5703125" style="32" customWidth="1"/>
+    <col min="9472" max="9472" width="9.140625" style="32"/>
+    <col min="9473" max="9473" width="21.28515625" style="32" customWidth="1"/>
+    <col min="9474" max="9474" width="41.5703125" style="32" customWidth="1"/>
+    <col min="9475" max="9475" width="9.140625" style="32"/>
+    <col min="9476" max="9476" width="39.140625" style="32" customWidth="1"/>
+    <col min="9477" max="9477" width="11.42578125" style="32" customWidth="1"/>
+    <col min="9478" max="9725" width="9.140625" style="32"/>
+    <col min="9726" max="9726" width="21.28515625" style="32" customWidth="1"/>
+    <col min="9727" max="9727" width="41.5703125" style="32" customWidth="1"/>
+    <col min="9728" max="9728" width="9.140625" style="32"/>
+    <col min="9729" max="9729" width="21.28515625" style="32" customWidth="1"/>
+    <col min="9730" max="9730" width="41.5703125" style="32" customWidth="1"/>
+    <col min="9731" max="9731" width="9.140625" style="32"/>
+    <col min="9732" max="9732" width="39.140625" style="32" customWidth="1"/>
+    <col min="9733" max="9733" width="11.42578125" style="32" customWidth="1"/>
+    <col min="9734" max="9981" width="9.140625" style="32"/>
+    <col min="9982" max="9982" width="21.28515625" style="32" customWidth="1"/>
+    <col min="9983" max="9983" width="41.5703125" style="32" customWidth="1"/>
+    <col min="9984" max="9984" width="9.140625" style="32"/>
+    <col min="9985" max="9985" width="21.28515625" style="32" customWidth="1"/>
+    <col min="9986" max="9986" width="41.5703125" style="32" customWidth="1"/>
+    <col min="9987" max="9987" width="9.140625" style="32"/>
+    <col min="9988" max="9988" width="39.140625" style="32" customWidth="1"/>
+    <col min="9989" max="9989" width="11.42578125" style="32" customWidth="1"/>
+    <col min="9990" max="10237" width="9.140625" style="32"/>
+    <col min="10238" max="10238" width="21.28515625" style="32" customWidth="1"/>
+    <col min="10239" max="10239" width="41.5703125" style="32" customWidth="1"/>
+    <col min="10240" max="10240" width="9.140625" style="32"/>
+    <col min="10241" max="10241" width="21.28515625" style="32" customWidth="1"/>
+    <col min="10242" max="10242" width="41.5703125" style="32" customWidth="1"/>
+    <col min="10243" max="10243" width="9.140625" style="32"/>
+    <col min="10244" max="10244" width="39.140625" style="32" customWidth="1"/>
+    <col min="10245" max="10245" width="11.42578125" style="32" customWidth="1"/>
+    <col min="10246" max="10493" width="9.140625" style="32"/>
+    <col min="10494" max="10494" width="21.28515625" style="32" customWidth="1"/>
+    <col min="10495" max="10495" width="41.5703125" style="32" customWidth="1"/>
+    <col min="10496" max="10496" width="9.140625" style="32"/>
+    <col min="10497" max="10497" width="21.28515625" style="32" customWidth="1"/>
+    <col min="10498" max="10498" width="41.5703125" style="32" customWidth="1"/>
+    <col min="10499" max="10499" width="9.140625" style="32"/>
+    <col min="10500" max="10500" width="39.140625" style="32" customWidth="1"/>
+    <col min="10501" max="10501" width="11.42578125" style="32" customWidth="1"/>
+    <col min="10502" max="10749" width="9.140625" style="32"/>
+    <col min="10750" max="10750" width="21.28515625" style="32" customWidth="1"/>
+    <col min="10751" max="10751" width="41.5703125" style="32" customWidth="1"/>
+    <col min="10752" max="10752" width="9.140625" style="32"/>
+    <col min="10753" max="10753" width="21.28515625" style="32" customWidth="1"/>
+    <col min="10754" max="10754" width="41.5703125" style="32" customWidth="1"/>
+    <col min="10755" max="10755" width="9.140625" style="32"/>
+    <col min="10756" max="10756" width="39.140625" style="32" customWidth="1"/>
+    <col min="10757" max="10757" width="11.42578125" style="32" customWidth="1"/>
+    <col min="10758" max="11005" width="9.140625" style="32"/>
+    <col min="11006" max="11006" width="21.28515625" style="32" customWidth="1"/>
+    <col min="11007" max="11007" width="41.5703125" style="32" customWidth="1"/>
+    <col min="11008" max="11008" width="9.140625" style="32"/>
+    <col min="11009" max="11009" width="21.28515625" style="32" customWidth="1"/>
+    <col min="11010" max="11010" width="41.5703125" style="32" customWidth="1"/>
+    <col min="11011" max="11011" width="9.140625" style="32"/>
+    <col min="11012" max="11012" width="39.140625" style="32" customWidth="1"/>
+    <col min="11013" max="11013" width="11.42578125" style="32" customWidth="1"/>
+    <col min="11014" max="11261" width="9.140625" style="32"/>
+    <col min="11262" max="11262" width="21.28515625" style="32" customWidth="1"/>
+    <col min="11263" max="11263" width="41.5703125" style="32" customWidth="1"/>
+    <col min="11264" max="11264" width="9.140625" style="32"/>
+    <col min="11265" max="11265" width="21.28515625" style="32" customWidth="1"/>
+    <col min="11266" max="11266" width="41.5703125" style="32" customWidth="1"/>
+    <col min="11267" max="11267" width="9.140625" style="32"/>
+    <col min="11268" max="11268" width="39.140625" style="32" customWidth="1"/>
+    <col min="11269" max="11269" width="11.42578125" style="32" customWidth="1"/>
+    <col min="11270" max="11517" width="9.140625" style="32"/>
+    <col min="11518" max="11518" width="21.28515625" style="32" customWidth="1"/>
+    <col min="11519" max="11519" width="41.5703125" style="32" customWidth="1"/>
+    <col min="11520" max="11520" width="9.140625" style="32"/>
+    <col min="11521" max="11521" width="21.28515625" style="32" customWidth="1"/>
+    <col min="11522" max="11522" width="41.5703125" style="32" customWidth="1"/>
+    <col min="11523" max="11523" width="9.140625" style="32"/>
+    <col min="11524" max="11524" width="39.140625" style="32" customWidth="1"/>
+    <col min="11525" max="11525" width="11.42578125" style="32" customWidth="1"/>
+    <col min="11526" max="11773" width="9.140625" style="32"/>
+    <col min="11774" max="11774" width="21.28515625" style="32" customWidth="1"/>
+    <col min="11775" max="11775" width="41.5703125" style="32" customWidth="1"/>
+    <col min="11776" max="11776" width="9.140625" style="32"/>
+    <col min="11777" max="11777" width="21.28515625" style="32" customWidth="1"/>
+    <col min="11778" max="11778" width="41.5703125" style="32" customWidth="1"/>
+    <col min="11779" max="11779" width="9.140625" style="32"/>
+    <col min="11780" max="11780" width="39.140625" style="32" customWidth="1"/>
+    <col min="11781" max="11781" width="11.42578125" style="32" customWidth="1"/>
+    <col min="11782" max="12029" width="9.140625" style="32"/>
+    <col min="12030" max="12030" width="21.28515625" style="32" customWidth="1"/>
+    <col min="12031" max="12031" width="41.5703125" style="32" customWidth="1"/>
+    <col min="12032" max="12032" width="9.140625" style="32"/>
+    <col min="12033" max="12033" width="21.28515625" style="32" customWidth="1"/>
+    <col min="12034" max="12034" width="41.5703125" style="32" customWidth="1"/>
+    <col min="12035" max="12035" width="9.140625" style="32"/>
+    <col min="12036" max="12036" width="39.140625" style="32" customWidth="1"/>
+    <col min="12037" max="12037" width="11.42578125" style="32" customWidth="1"/>
+    <col min="12038" max="12285" width="9.140625" style="32"/>
+    <col min="12286" max="12286" width="21.28515625" style="32" customWidth="1"/>
+    <col min="12287" max="12287" width="41.5703125" style="32" customWidth="1"/>
+    <col min="12288" max="12288" width="9.140625" style="32"/>
+    <col min="12289" max="12289" width="21.28515625" style="32" customWidth="1"/>
+    <col min="12290" max="12290" width="41.5703125" style="32" customWidth="1"/>
+    <col min="12291" max="12291" width="9.140625" style="32"/>
+    <col min="12292" max="12292" width="39.140625" style="32" customWidth="1"/>
+    <col min="12293" max="12293" width="11.42578125" style="32" customWidth="1"/>
+    <col min="12294" max="12541" width="9.140625" style="32"/>
+    <col min="12542" max="12542" width="21.28515625" style="32" customWidth="1"/>
+    <col min="12543" max="12543" width="41.5703125" style="32" customWidth="1"/>
+    <col min="12544" max="12544" width="9.140625" style="32"/>
+    <col min="12545" max="12545" width="21.28515625" style="32" customWidth="1"/>
+    <col min="12546" max="12546" width="41.5703125" style="32" customWidth="1"/>
+    <col min="12547" max="12547" width="9.140625" style="32"/>
+    <col min="12548" max="12548" width="39.140625" style="32" customWidth="1"/>
+    <col min="12549" max="12549" width="11.42578125" style="32" customWidth="1"/>
+    <col min="12550" max="12797" width="9.140625" style="32"/>
+    <col min="12798" max="12798" width="21.28515625" style="32" customWidth="1"/>
+    <col min="12799" max="12799" width="41.5703125" style="32" customWidth="1"/>
+    <col min="12800" max="12800" width="9.140625" style="32"/>
+    <col min="12801" max="12801" width="21.28515625" style="32" customWidth="1"/>
+    <col min="12802" max="12802" width="41.5703125" style="32" customWidth="1"/>
+    <col min="12803" max="12803" width="9.140625" style="32"/>
+    <col min="12804" max="12804" width="39.140625" style="32" customWidth="1"/>
+    <col min="12805" max="12805" width="11.42578125" style="32" customWidth="1"/>
+    <col min="12806" max="13053" width="9.140625" style="32"/>
+    <col min="13054" max="13054" width="21.28515625" style="32" customWidth="1"/>
+    <col min="13055" max="13055" width="41.5703125" style="32" customWidth="1"/>
+    <col min="13056" max="13056" width="9.140625" style="32"/>
+    <col min="13057" max="13057" width="21.28515625" style="32" customWidth="1"/>
+    <col min="13058" max="13058" width="41.5703125" style="32" customWidth="1"/>
+    <col min="13059" max="13059" width="9.140625" style="32"/>
+    <col min="13060" max="13060" width="39.140625" style="32" customWidth="1"/>
+    <col min="13061" max="13061" width="11.42578125" style="32" customWidth="1"/>
+    <col min="13062" max="13309" width="9.140625" style="32"/>
+    <col min="13310" max="13310" width="21.28515625" style="32" customWidth="1"/>
+    <col min="13311" max="13311" width="41.5703125" style="32" customWidth="1"/>
+    <col min="13312" max="13312" width="9.140625" style="32"/>
+    <col min="13313" max="13313" width="21.28515625" style="32" customWidth="1"/>
+    <col min="13314" max="13314" width="41.5703125" style="32" customWidth="1"/>
+    <col min="13315" max="13315" width="9.140625" style="32"/>
+    <col min="13316" max="13316" width="39.140625" style="32" customWidth="1"/>
+    <col min="13317" max="13317" width="11.42578125" style="32" customWidth="1"/>
+    <col min="13318" max="13565" width="9.140625" style="32"/>
+    <col min="13566" max="13566" width="21.28515625" style="32" customWidth="1"/>
+    <col min="13567" max="13567" width="41.5703125" style="32" customWidth="1"/>
+    <col min="13568" max="13568" width="9.140625" style="32"/>
+    <col min="13569" max="13569" width="21.28515625" style="32" customWidth="1"/>
+    <col min="13570" max="13570" width="41.5703125" style="32" customWidth="1"/>
+    <col min="13571" max="13571" width="9.140625" style="32"/>
+    <col min="13572" max="13572" width="39.140625" style="32" customWidth="1"/>
+    <col min="13573" max="13573" width="11.42578125" style="32" customWidth="1"/>
+    <col min="13574" max="13821" width="9.140625" style="32"/>
+    <col min="13822" max="13822" width="21.28515625" style="32" customWidth="1"/>
+    <col min="13823" max="13823" width="41.5703125" style="32" customWidth="1"/>
+    <col min="13824" max="13824" width="9.140625" style="32"/>
+    <col min="13825" max="13825" width="21.28515625" style="32" customWidth="1"/>
+    <col min="13826" max="13826" width="41.5703125" style="32" customWidth="1"/>
+    <col min="13827" max="13827" width="9.140625" style="32"/>
+    <col min="13828" max="13828" width="39.140625" style="32" customWidth="1"/>
+    <col min="13829" max="13829" width="11.42578125" style="32" customWidth="1"/>
+    <col min="13830" max="14077" width="9.140625" style="32"/>
+    <col min="14078" max="14078" width="21.28515625" style="32" customWidth="1"/>
+    <col min="14079" max="14079" width="41.5703125" style="32" customWidth="1"/>
+    <col min="14080" max="14080" width="9.140625" style="32"/>
+    <col min="14081" max="14081" width="21.28515625" style="32" customWidth="1"/>
+    <col min="14082" max="14082" width="41.5703125" style="32" customWidth="1"/>
+    <col min="14083" max="14083" width="9.140625" style="32"/>
+    <col min="14084" max="14084" width="39.140625" style="32" customWidth="1"/>
+    <col min="14085" max="14085" width="11.42578125" style="32" customWidth="1"/>
+    <col min="14086" max="14333" width="9.140625" style="32"/>
+    <col min="14334" max="14334" width="21.28515625" style="32" customWidth="1"/>
+    <col min="14335" max="14335" width="41.5703125" style="32" customWidth="1"/>
+    <col min="14336" max="14336" width="9.140625" style="32"/>
+    <col min="14337" max="14337" width="21.28515625" style="32" customWidth="1"/>
+    <col min="14338" max="14338" width="41.5703125" style="32" customWidth="1"/>
+    <col min="14339" max="14339" width="9.140625" style="32"/>
+    <col min="14340" max="14340" width="39.140625" style="32" customWidth="1"/>
+    <col min="14341" max="14341" width="11.42578125" style="32" customWidth="1"/>
+    <col min="14342" max="14589" width="9.140625" style="32"/>
+    <col min="14590" max="14590" width="21.28515625" style="32" customWidth="1"/>
+    <col min="14591" max="14591" width="41.5703125" style="32" customWidth="1"/>
+    <col min="14592" max="14592" width="9.140625" style="32"/>
+    <col min="14593" max="14593" width="21.28515625" style="32" customWidth="1"/>
+    <col min="14594" max="14594" width="41.5703125" style="32" customWidth="1"/>
+    <col min="14595" max="14595" width="9.140625" style="32"/>
+    <col min="14596" max="14596" width="39.140625" style="32" customWidth="1"/>
+    <col min="14597" max="14597" width="11.42578125" style="32" customWidth="1"/>
+    <col min="14598" max="14845" width="9.140625" style="32"/>
+    <col min="14846" max="14846" width="21.28515625" style="32" customWidth="1"/>
+    <col min="14847" max="14847" width="41.5703125" style="32" customWidth="1"/>
+    <col min="14848" max="14848" width="9.140625" style="32"/>
+    <col min="14849" max="14849" width="21.28515625" style="32" customWidth="1"/>
+    <col min="14850" max="14850" width="41.5703125" style="32" customWidth="1"/>
+    <col min="14851" max="14851" width="9.140625" style="32"/>
+    <col min="14852" max="14852" width="39.140625" style="32" customWidth="1"/>
+    <col min="14853" max="14853" width="11.42578125" style="32" customWidth="1"/>
+    <col min="14854" max="15101" width="9.140625" style="32"/>
+    <col min="15102" max="15102" width="21.28515625" style="32" customWidth="1"/>
+    <col min="15103" max="15103" width="41.5703125" style="32" customWidth="1"/>
+    <col min="15104" max="15104" width="9.140625" style="32"/>
+    <col min="15105" max="15105" width="21.28515625" style="32" customWidth="1"/>
+    <col min="15106" max="15106" width="41.5703125" style="32" customWidth="1"/>
+    <col min="15107" max="15107" width="9.140625" style="32"/>
+    <col min="15108" max="15108" width="39.140625" style="32" customWidth="1"/>
+    <col min="15109" max="15109" width="11.42578125" style="32" customWidth="1"/>
+    <col min="15110" max="15357" width="9.140625" style="32"/>
+    <col min="15358" max="15358" width="21.28515625" style="32" customWidth="1"/>
+    <col min="15359" max="15359" width="41.5703125" style="32" customWidth="1"/>
+    <col min="15360" max="15360" width="9.140625" style="32"/>
+    <col min="15361" max="15361" width="21.28515625" style="32" customWidth="1"/>
+    <col min="15362" max="15362" width="41.5703125" style="32" customWidth="1"/>
+    <col min="15363" max="15363" width="9.140625" style="32"/>
+    <col min="15364" max="15364" width="39.140625" style="32" customWidth="1"/>
+    <col min="15365" max="15365" width="11.42578125" style="32" customWidth="1"/>
+    <col min="15366" max="15613" width="9.140625" style="32"/>
+    <col min="15614" max="15614" width="21.28515625" style="32" customWidth="1"/>
+    <col min="15615" max="15615" width="41.5703125" style="32" customWidth="1"/>
+    <col min="15616" max="15616" width="9.140625" style="32"/>
+    <col min="15617" max="15617" width="21.28515625" style="32" customWidth="1"/>
+    <col min="15618" max="15618" width="41.5703125" style="32" customWidth="1"/>
+    <col min="15619" max="15619" width="9.140625" style="32"/>
+    <col min="15620" max="15620" width="39.140625" style="32" customWidth="1"/>
+    <col min="15621" max="15621" width="11.42578125" style="32" customWidth="1"/>
+    <col min="15622" max="15869" width="9.140625" style="32"/>
+    <col min="15870" max="15870" width="21.28515625" style="32" customWidth="1"/>
+    <col min="15871" max="15871" width="41.5703125" style="32" customWidth="1"/>
+    <col min="15872" max="15872" width="9.140625" style="32"/>
+    <col min="15873" max="15873" width="21.28515625" style="32" customWidth="1"/>
+    <col min="15874" max="15874" width="41.5703125" style="32" customWidth="1"/>
+    <col min="15875" max="15875" width="9.140625" style="32"/>
+    <col min="15876" max="15876" width="39.140625" style="32" customWidth="1"/>
+    <col min="15877" max="15877" width="11.42578125" style="32" customWidth="1"/>
+    <col min="15878" max="16125" width="9.140625" style="32"/>
+    <col min="16126" max="16126" width="21.28515625" style="32" customWidth="1"/>
+    <col min="16127" max="16127" width="41.5703125" style="32" customWidth="1"/>
+    <col min="16128" max="16128" width="9.140625" style="32"/>
+    <col min="16129" max="16129" width="21.28515625" style="32" customWidth="1"/>
+    <col min="16130" max="16130" width="41.5703125" style="32" customWidth="1"/>
+    <col min="16131" max="16131" width="9.140625" style="32"/>
+    <col min="16132" max="16132" width="39.140625" style="32" customWidth="1"/>
+    <col min="16133" max="16133" width="11.42578125" style="32" customWidth="1"/>
+    <col min="16134" max="16381" width="9.140625" style="32"/>
+    <col min="16382" max="16382" width="21.28515625" style="32" customWidth="1"/>
+    <col min="16383" max="16383" width="41.5703125" style="32" customWidth="1"/>
+    <col min="16384" max="16384" width="9.140625" style="32"/>
   </cols>
   <sheetData>
-    <row r="2" ht="16.5" spans="1:1">
+    <row r="2" spans="1:5" ht="16.5">
       <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" ht="27" customHeight="1" spans="1:5">
+    <row r="4" spans="1:5" ht="27" customHeight="1">
       <c r="A4" s="33" t="s">
         <v>1</v>
       </c>
@@ -2914,7 +2323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" ht="18" customHeight="1" spans="1:5">
+    <row r="5" spans="1:5" ht="18" customHeight="1">
       <c r="A5" s="34">
         <f>DATE(2016,1,13)</f>
         <v>42382</v>
@@ -3059,22 +2468,20 @@
       <c r="E23" s="37"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="6" t="s">
@@ -3614,7 +3021,7 @@
       <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:18">
       <c r="A27" s="29" t="s">
         <v>27</v>
       </c>
@@ -3631,7 +3038,7 @@
       <c r="J27" s="30"/>
       <c r="K27" s="30"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:18">
       <c r="A28" s="30"/>
       <c r="B28" s="30" t="s">
         <v>29</v>
@@ -3646,7 +3053,7 @@
       <c r="J28" s="30"/>
       <c r="K28" s="30"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:18">
       <c r="A29" s="30"/>
       <c r="B29" s="30"/>
       <c r="C29" s="31" t="s">
@@ -3661,7 +3068,7 @@
       <c r="J29" s="30"/>
       <c r="K29" s="30"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:18">
       <c r="A30" s="30"/>
       <c r="B30" s="30"/>
       <c r="C30" s="31"/>
@@ -3674,7 +3081,7 @@
       <c r="J30" s="30"/>
       <c r="K30" s="30"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:18">
       <c r="A31" s="30"/>
       <c r="B31" s="30" t="s">
         <v>23</v>
@@ -3689,7 +3096,7 @@
       <c r="J31" s="30"/>
       <c r="K31" s="30"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:18">
       <c r="A32" s="30"/>
       <c r="B32" s="30"/>
       <c r="C32" s="30" t="s">
@@ -3806,14 +3213,13 @@
       <c r="K39" s="30"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="landscape"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3823,13 +3229,13 @@
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.42857142857143" customWidth="1"/>
-    <col min="2" max="61" width="3.14285714285714" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" customWidth="1"/>
+    <col min="2" max="61" width="3.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59">
+    <row r="1" spans="1:61">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -3892,7 +3298,7 @@
       <c r="BF1" s="2"/>
       <c r="BG1" s="5"/>
     </row>
-    <row r="2" spans="1:59">
+    <row r="2" spans="1:61">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>37</v>
@@ -3955,7 +3361,7 @@
       <c r="BF2" s="5"/>
       <c r="BG2" s="5"/>
     </row>
-    <row r="3" spans="1:59">
+    <row r="3" spans="1:61">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
         <v>38</v>
@@ -4018,7 +3424,7 @@
       <c r="BF3" s="5"/>
       <c r="BG3" s="5"/>
     </row>
-    <row r="4" spans="1:59">
+    <row r="4" spans="1:61">
       <c r="A4" s="3"/>
       <c r="B4" s="6"/>
       <c r="C4" s="5"/>
@@ -4079,7 +3485,7 @@
       <c r="BF4" s="5"/>
       <c r="BG4" s="5"/>
     </row>
-    <row r="5" spans="1:59">
+    <row r="5" spans="1:61">
       <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
@@ -4144,7 +3550,7 @@
       <c r="BF5" s="5"/>
       <c r="BG5" s="5"/>
     </row>
-    <row r="6" spans="1:59">
+    <row r="6" spans="1:61">
       <c r="A6" s="3"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
@@ -4207,7 +3613,7 @@
       <c r="BF6" s="5"/>
       <c r="BG6" s="5"/>
     </row>
-    <row r="7" spans="1:59">
+    <row r="7" spans="1:61">
       <c r="A7" s="3"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -4268,7 +3674,7 @@
       <c r="BF7" s="5"/>
       <c r="BG7" s="5"/>
     </row>
-    <row r="8" spans="1:59">
+    <row r="8" spans="1:61">
       <c r="A8" s="3"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -4329,7 +3735,7 @@
       <c r="BF8" s="5"/>
       <c r="BG8" s="5"/>
     </row>
-    <row r="9" spans="1:59">
+    <row r="9" spans="1:61">
       <c r="A9" s="7" t="s">
         <v>20</v>
       </c>
@@ -4394,7 +3800,7 @@
       <c r="BF9" s="5"/>
       <c r="BG9" s="5"/>
     </row>
-    <row r="10" spans="1:59">
+    <row r="10" spans="1:61">
       <c r="A10" s="3"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -5488,7 +4894,7 @@
       <c r="BH25" s="14"/>
       <c r="BI25" s="15"/>
     </row>
-    <row r="26" spans="2:58">
+    <row r="26" spans="1:61">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -5557,15 +4963,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.15" footer="0.15"/>
   <pageSetup paperSize="9" orientation="portrait"/>
